--- a/data/Latin Core Vocab.xlsx
+++ b/data/Latin Core Vocab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\pythonProject4\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD727890-8744-480F-9196-55B51D72A74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F260898-AD03-459A-8314-AC8235D309DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25080" yWindow="-9135" windowWidth="16440" windowHeight="28440" xr2:uid="{B2777398-3BB5-4106-8B6D-26F43E5CCFA5}"/>
   </bookViews>
@@ -4960,9 +4960,6 @@
     <t>fidēlis</t>
   </si>
   <si>
-    <t>ā</t>
-  </si>
-  <si>
     <t>medius</t>
   </si>
   <si>
@@ -8405,6 +8402,9 @@
   </si>
   <si>
     <t>paulō</t>
+  </si>
+  <si>
+    <t>ab</t>
   </si>
 </sst>
 </file>
@@ -8893,8 +8893,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A598" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A633" sqref="A633"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8913,7 +8913,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>4</v>
@@ -8930,10 +8930,10 @@
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>1640</v>
+        <v>2788</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="C2" s="11">
         <v>21</v>
@@ -8953,7 +8953,7 @@
         <v>1551</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="C3" s="10">
         <v>553</v>
@@ -8970,10 +8970,10 @@
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="C4" s="11">
         <v>445</v>
@@ -9013,7 +9013,7 @@
         <v>1553</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="C6" s="11">
         <v>614</v>
@@ -9033,7 +9033,7 @@
         <v>1557</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="C7" s="10">
         <v>799</v>
@@ -9050,10 +9050,10 @@
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="C8" s="11">
         <v>110</v>
@@ -9073,7 +9073,7 @@
         <v>1582</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="C9" s="10">
         <v>587</v>
@@ -9090,10 +9090,10 @@
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="C10" s="11">
         <v>439</v>
@@ -9130,10 +9130,10 @@
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="C12" s="11">
         <v>433</v>
@@ -9150,10 +9150,10 @@
     </row>
     <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="C13" s="10">
         <v>886</v>
@@ -9173,7 +9173,7 @@
         <v>35</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="C14" s="10">
         <v>555</v>
@@ -9193,7 +9193,7 @@
         <v>35</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="C15" s="11">
         <v>595</v>
@@ -9213,7 +9213,7 @@
         <v>1492</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="C16" s="11">
         <v>959</v>
@@ -9233,7 +9233,7 @@
         <v>41</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="C17" s="10">
         <v>379</v>
@@ -9250,10 +9250,10 @@
     </row>
     <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="C18" s="11">
         <v>279</v>
@@ -9270,10 +9270,10 @@
     </row>
     <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="C19" s="11">
         <v>987</v>
@@ -9290,10 +9290,10 @@
     </row>
     <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C20" s="10">
         <v>657</v>
@@ -9310,10 +9310,10 @@
     </row>
     <row r="21" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C21" s="11">
         <v>460</v>
@@ -9333,7 +9333,7 @@
         <v>1565</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="C22" s="10">
         <v>986</v>
@@ -9350,10 +9350,10 @@
     </row>
     <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="C23" s="11">
         <v>965</v>
@@ -9393,7 +9393,7 @@
         <v>54</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="C25" s="11">
         <v>984</v>
@@ -9413,7 +9413,7 @@
         <v>56</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="C26" s="10">
         <v>904</v>
@@ -9473,7 +9473,7 @@
         <v>1215</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="C29" s="11">
         <v>845</v>
@@ -9513,7 +9513,7 @@
         <v>1427</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="C31" s="11">
         <v>308</v>
@@ -9553,7 +9553,7 @@
         <v>1216</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="C33" s="11">
         <v>851</v>
@@ -9590,10 +9590,10 @@
     </row>
     <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="C35" s="11">
         <v>514</v>
@@ -9610,10 +9610,10 @@
     </row>
     <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="C36" s="10">
         <v>958</v>
@@ -9650,10 +9650,10 @@
     </row>
     <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="C38" s="10">
         <v>578</v>
@@ -9670,10 +9670,10 @@
     </row>
     <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="C39" s="11">
         <v>358</v>
@@ -9690,10 +9690,10 @@
     </row>
     <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="C40" s="10">
         <v>69</v>
@@ -9713,7 +9713,7 @@
         <v>81</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="C41" s="11">
         <v>406</v>
@@ -9730,10 +9730,10 @@
     </row>
     <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="C42" s="10">
         <v>925</v>
@@ -9753,7 +9753,7 @@
         <v>1388</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="C43" s="11">
         <v>367</v>
@@ -9773,7 +9773,7 @@
         <v>88</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="C44" s="10">
         <v>763</v>
@@ -9790,10 +9790,10 @@
     </row>
     <row r="45" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C45" s="11">
         <v>77</v>
@@ -9830,10 +9830,10 @@
     </row>
     <row r="47" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="C47" s="11">
         <v>37</v>
@@ -9853,7 +9853,7 @@
         <v>1455</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="C48" s="10">
         <v>817</v>
@@ -9910,10 +9910,10 @@
     </row>
     <row r="51" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="C51" s="11">
         <v>690</v>
@@ -9933,7 +9933,7 @@
         <v>1599</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="C52" s="10">
         <v>198</v>
@@ -9950,10 +9950,10 @@
     </row>
     <row r="53" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="C53" s="11">
         <v>486</v>
@@ -9993,7 +9993,7 @@
         <v>1467</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="C55" s="11">
         <v>219</v>
@@ -10193,7 +10193,7 @@
         <v>1428</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="C65" s="11">
         <v>617</v>
@@ -10210,10 +10210,10 @@
     </row>
     <row r="66" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="C66" s="10">
         <v>837</v>
@@ -10230,10 +10230,10 @@
     </row>
     <row r="67" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="C67" s="11">
         <v>830</v>
@@ -10250,10 +10250,10 @@
     </row>
     <row r="68" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="C68" s="10">
         <v>700</v>
@@ -10330,10 +10330,10 @@
     </row>
     <row r="72" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="C72" s="10">
         <v>374</v>
@@ -10393,7 +10393,7 @@
         <v>1212</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="C75" s="11">
         <v>618</v>
@@ -10430,10 +10430,10 @@
     </row>
     <row r="77" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="C77" s="11">
         <v>98</v>
@@ -10490,10 +10490,10 @@
     </row>
     <row r="80" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="C80" s="10">
         <v>638</v>
@@ -10510,10 +10510,10 @@
     </row>
     <row r="81" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="C81" s="11">
         <v>990</v>
@@ -10530,10 +10530,10 @@
     </row>
     <row r="82" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="C82" s="10">
         <v>483</v>
@@ -10610,10 +10610,10 @@
     </row>
     <row r="86" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C86" s="11">
         <v>546</v>
@@ -10630,10 +10630,10 @@
     </row>
     <row r="87" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="C87" s="10">
         <v>898</v>
@@ -10653,7 +10653,7 @@
         <v>1633</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="C88" s="11">
         <v>876</v>
@@ -10673,7 +10673,7 @@
         <v>1603</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="C89" s="10">
         <v>270</v>
@@ -10693,7 +10693,7 @@
         <v>1569</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="C90" s="11">
         <v>165</v>
@@ -10710,10 +10710,10 @@
     </row>
     <row r="91" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="C91" s="10">
         <v>556</v>
@@ -10733,7 +10733,7 @@
         <v>1486</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="C92" s="11">
         <v>709</v>
@@ -10790,10 +10790,10 @@
     </row>
     <row r="95" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="C95" s="11">
         <v>366</v>
@@ -10870,10 +10870,10 @@
     </row>
     <row r="99" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A99" s="8" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C99" s="11">
         <v>543</v>
@@ -10910,10 +10910,10 @@
     </row>
     <row r="101" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A101" s="8" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C101" s="10">
         <v>768</v>
@@ -10933,7 +10933,7 @@
         <v>1608</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="C102" s="11">
         <v>408</v>
@@ -10950,10 +10950,10 @@
     </row>
     <row r="103" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="C103" s="10">
         <v>86</v>
@@ -10990,10 +10990,10 @@
     </row>
     <row r="105" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="C105" s="10">
         <v>182</v>
@@ -11033,7 +11033,7 @@
         <v>1235</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="C107" s="10">
         <v>808</v>
@@ -11090,10 +11090,10 @@
     </row>
     <row r="110" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="C110" s="11">
         <v>210</v>
@@ -11110,10 +11110,10 @@
     </row>
     <row r="111" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="C111" s="10">
         <v>728</v>
@@ -11130,10 +11130,10 @@
     </row>
     <row r="112" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C112" s="11">
         <v>415</v>
@@ -11150,10 +11150,10 @@
     </row>
     <row r="113" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="C113" s="10">
         <v>612</v>
@@ -11230,10 +11230,10 @@
     </row>
     <row r="117" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="C117" s="10">
         <v>692</v>
@@ -11270,10 +11270,10 @@
     </row>
     <row r="119" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="C119" s="10">
         <v>389</v>
@@ -11290,10 +11290,10 @@
     </row>
     <row r="120" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="C120" s="11">
         <v>131</v>
@@ -11310,10 +11310,10 @@
     </row>
     <row r="121" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="C121" s="10">
         <v>124</v>
@@ -11333,7 +11333,7 @@
         <v>1257</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="C122" s="11">
         <v>572</v>
@@ -11350,10 +11350,10 @@
     </row>
     <row r="123" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C123" s="10">
         <v>254</v>
@@ -11373,7 +11373,7 @@
         <v>1614</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="C124" s="11">
         <v>462</v>
@@ -11390,10 +11390,10 @@
     </row>
     <row r="125" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="C125" s="10">
         <v>224</v>
@@ -11430,10 +11430,10 @@
     </row>
     <row r="127" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="C127" s="10">
         <v>344</v>
@@ -11450,10 +11450,10 @@
     </row>
     <row r="128" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="C128" s="10">
         <v>107</v>
@@ -11470,10 +11470,10 @@
     </row>
     <row r="129" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="C129" s="11">
         <v>941</v>
@@ -11490,10 +11490,10 @@
     </row>
     <row r="130" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="C130" s="11">
         <v>304</v>
@@ -11510,10 +11510,10 @@
     </row>
     <row r="131" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="C131" s="10">
         <v>893</v>
@@ -11530,10 +11530,10 @@
     </row>
     <row r="132" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A132" s="8" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="C132" s="11">
         <v>745</v>
@@ -11573,7 +11573,7 @@
         <v>1339</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="C134" s="11">
         <v>928</v>
@@ -11613,7 +11613,7 @@
         <v>1329</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="C136" s="11">
         <v>655</v>
@@ -11633,7 +11633,7 @@
         <v>212</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="C137" s="10">
         <v>601</v>
@@ -11653,7 +11653,7 @@
         <v>1246</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="C138" s="11">
         <v>864</v>
@@ -11693,7 +11693,7 @@
         <v>217</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="C140" s="11">
         <v>571</v>
@@ -11710,10 +11710,10 @@
     </row>
     <row r="141" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A141" s="8" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="C141" s="10">
         <v>596</v>
@@ -11750,10 +11750,10 @@
     </row>
     <row r="143" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A143" s="8" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="C143" s="10">
         <v>814</v>
@@ -11793,7 +11793,7 @@
         <v>223</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="C145" s="10">
         <v>735</v>
@@ -11810,10 +11810,10 @@
     </row>
     <row r="146" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A146" s="8" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="C146" s="11">
         <v>590</v>
@@ -11830,10 +11830,10 @@
     </row>
     <row r="147" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A147" s="8" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="C147" s="10">
         <v>471</v>
@@ -11850,10 +11850,10 @@
     </row>
     <row r="148" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A148" s="8" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="C148" s="11">
         <v>346</v>
@@ -11870,10 +11870,10 @@
     </row>
     <row r="149" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A149" s="8" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="C149" s="10">
         <v>605</v>
@@ -11893,7 +11893,7 @@
         <v>1607</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="C150" s="11">
         <v>395</v>
@@ -11910,10 +11910,10 @@
     </row>
     <row r="151" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A151" s="8" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C151" s="10">
         <v>505</v>
@@ -11930,10 +11930,10 @@
     </row>
     <row r="152" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A152" s="8" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="C152" s="11">
         <v>392</v>
@@ -11950,10 +11950,10 @@
     </row>
     <row r="153" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A153" s="8" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="C153" s="10">
         <v>312</v>
@@ -11973,7 +11973,7 @@
         <v>1323</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="C154" s="11">
         <v>515</v>
@@ -11993,7 +11993,7 @@
         <v>1315</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="C155" s="10">
         <v>339</v>
@@ -12010,10 +12010,10 @@
     </row>
     <row r="156" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A156" s="8" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="C156" s="11">
         <v>250</v>
@@ -12030,10 +12030,10 @@
     </row>
     <row r="157" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A157" s="8" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C157" s="10">
         <v>666</v>
@@ -12050,10 +12050,10 @@
     </row>
     <row r="158" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A158" s="8" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="C158" s="11">
         <v>820</v>
@@ -12073,7 +12073,7 @@
         <v>1224</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="C159" s="10">
         <v>333</v>
@@ -12110,10 +12110,10 @@
     </row>
     <row r="161" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A161" s="8" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="C161" s="10">
         <v>405</v>
@@ -12130,10 +12130,10 @@
     </row>
     <row r="162" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A162" s="8" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="C162" s="11">
         <v>448</v>
@@ -12150,10 +12150,10 @@
     </row>
     <row r="163" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A163" s="8" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="C163" s="10">
         <v>608</v>
@@ -12170,10 +12170,10 @@
     </row>
     <row r="164" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A164" s="8" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="C164" s="11">
         <v>660</v>
@@ -12193,7 +12193,7 @@
         <v>1269</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="C165" s="10">
         <v>890</v>
@@ -12213,7 +12213,7 @@
         <v>1481</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="C166" s="11">
         <v>443</v>
@@ -12230,10 +12230,10 @@
     </row>
     <row r="167" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A167" s="8" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="C167" s="10">
         <v>663</v>
@@ -12253,7 +12253,7 @@
         <v>1272</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="C168" s="11">
         <v>920</v>
@@ -12270,10 +12270,10 @@
     </row>
     <row r="169" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A169" s="8" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="C169" s="10">
         <v>540</v>
@@ -12290,10 +12290,10 @@
     </row>
     <row r="170" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A170" s="8" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="C170" s="11">
         <v>645</v>
@@ -12310,10 +12310,10 @@
     </row>
     <row r="171" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A171" s="8" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="C171" s="10">
         <v>894</v>
@@ -12333,7 +12333,7 @@
         <v>1423</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="C172" s="11">
         <v>972</v>
@@ -12350,10 +12350,10 @@
     </row>
     <row r="173" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A173" s="8" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="C173" s="10">
         <v>218</v>
@@ -12373,7 +12373,7 @@
         <v>1490</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="C174" s="11">
         <v>905</v>
@@ -12393,7 +12393,7 @@
         <v>1564</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="C175" s="10">
         <v>917</v>
@@ -12410,10 +12410,10 @@
     </row>
     <row r="176" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A176" s="8" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="C176" s="11">
         <v>217</v>
@@ -12430,10 +12430,10 @@
     </row>
     <row r="177" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A177" s="8" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="C177" s="10">
         <v>780</v>
@@ -12453,7 +12453,7 @@
         <v>1485</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="C178" s="11">
         <v>652</v>
@@ -12470,10 +12470,10 @@
     </row>
     <row r="179" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A179" s="8" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="C179" s="10">
         <v>731</v>
@@ -12493,7 +12493,7 @@
         <v>1637</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="C180" s="11">
         <v>954</v>
@@ -12510,7 +12510,7 @@
     </row>
     <row r="181" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A181" s="8" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="B181" s="8" t="s">
         <v>261</v>
@@ -12530,10 +12530,10 @@
     </row>
     <row r="182" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A182" s="8" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="C182" s="11">
         <v>757</v>
@@ -12553,7 +12553,7 @@
         <v>1459</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="C183" s="10">
         <v>869</v>
@@ -12573,7 +12573,7 @@
         <v>1365</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="C184" s="11">
         <v>615</v>
@@ -12590,10 +12590,10 @@
     </row>
     <row r="185" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A185" s="8" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="C185" s="10">
         <v>804</v>
@@ -12610,10 +12610,10 @@
     </row>
     <row r="186" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A186" s="8" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="C186" s="11">
         <v>494</v>
@@ -12633,7 +12633,7 @@
         <v>268</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="C187" s="10">
         <v>271</v>
@@ -12650,10 +12650,10 @@
     </row>
     <row r="188" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A188" s="8" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="C188" s="11">
         <v>698</v>
@@ -12673,7 +12673,7 @@
         <v>1560</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="C189" s="10">
         <v>834</v>
@@ -12690,10 +12690,10 @@
     </row>
     <row r="190" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A190" s="8" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="C190" s="11">
         <v>921</v>
@@ -12710,10 +12710,10 @@
     </row>
     <row r="191" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A191" s="8" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="C191" s="10">
         <v>331</v>
@@ -12730,10 +12730,10 @@
     </row>
     <row r="192" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A192" s="8" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="C192" s="11">
         <v>795</v>
@@ -12770,10 +12770,10 @@
     </row>
     <row r="194" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A194" s="8" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C194" s="11">
         <v>75</v>
@@ -12790,10 +12790,10 @@
     </row>
     <row r="195" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A195" s="8" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="C195" s="10">
         <v>870</v>
@@ -12813,7 +12813,7 @@
         <v>1309</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="C196" s="11">
         <v>109</v>
@@ -12833,7 +12833,7 @@
         <v>1493</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="C197" s="10">
         <v>978</v>
@@ -12853,7 +12853,7 @@
         <v>1231</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="C198" s="11">
         <v>609</v>
@@ -12873,7 +12873,7 @@
         <v>1405</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="C199" s="10">
         <v>475</v>
@@ -12933,7 +12933,7 @@
         <v>1516</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="C202" s="11">
         <v>292</v>
@@ -12953,7 +12953,7 @@
         <v>1472</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="C203" s="10">
         <v>906</v>
@@ -12973,7 +12973,7 @@
         <v>1468</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="C204" s="11">
         <v>441</v>
@@ -12993,7 +12993,7 @@
         <v>288</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="C205" s="10">
         <v>404</v>
@@ -13013,7 +13013,7 @@
         <v>1466</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="C206" s="11">
         <v>186</v>
@@ -13033,7 +13033,7 @@
         <v>1469</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="C207" s="10">
         <v>743</v>
@@ -13053,7 +13053,7 @@
         <v>1244</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="C208" s="11">
         <v>562</v>
@@ -13110,10 +13110,10 @@
     </row>
     <row r="211" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A211" s="8" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="C211" s="10">
         <v>622</v>
@@ -13133,7 +13133,7 @@
         <v>1415</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="C212" s="11">
         <v>751</v>
@@ -13150,10 +13150,10 @@
     </row>
     <row r="213" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A213" s="8" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="C213" s="10">
         <v>926</v>
@@ -13173,7 +13173,7 @@
         <v>298</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="C214" s="11">
         <v>46</v>
@@ -13193,7 +13193,7 @@
         <v>1248</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="C215" s="10">
         <v>155</v>
@@ -13233,7 +13233,7 @@
         <v>1337</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="C217" s="10">
         <v>800</v>
@@ -13290,10 +13290,10 @@
     </row>
     <row r="220" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A220" s="8" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="C220" s="11">
         <v>661</v>
@@ -13310,10 +13310,10 @@
     </row>
     <row r="221" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A221" s="8" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="C221" s="10">
         <v>653</v>
@@ -13330,10 +13330,10 @@
     </row>
     <row r="222" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A222" s="8" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="C222" s="11">
         <v>805</v>
@@ -13350,10 +13350,10 @@
     </row>
     <row r="223" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A223" s="8" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="C223" s="10">
         <v>676</v>
@@ -13373,7 +13373,7 @@
         <v>311</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="C224" s="11">
         <v>150</v>
@@ -13393,7 +13393,7 @@
         <v>313</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="C225" s="10">
         <v>796</v>
@@ -13410,10 +13410,10 @@
     </row>
     <row r="226" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A226" s="8" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="C226" s="11">
         <v>802</v>
@@ -13433,7 +13433,7 @@
         <v>1550</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="C227" s="10">
         <v>544</v>
@@ -13453,7 +13453,7 @@
         <v>1471</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="C228" s="11">
         <v>892</v>
@@ -13473,7 +13473,7 @@
         <v>1554</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="C229" s="10">
         <v>624</v>
@@ -13493,7 +13493,7 @@
         <v>1254</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="C230" s="11">
         <v>463</v>
@@ -13510,10 +13510,10 @@
     </row>
     <row r="231" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A231" s="8" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="C231" s="10">
         <v>42</v>
@@ -13530,10 +13530,10 @@
     </row>
     <row r="232" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A232" s="8" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="C232" s="11">
         <v>260</v>
@@ -13550,10 +13550,10 @@
     </row>
     <row r="233" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A233" s="8" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="C233" s="10">
         <v>33</v>
@@ -13573,7 +13573,7 @@
         <v>1424</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="C234" s="11">
         <v>54</v>
@@ -13593,7 +13593,7 @@
         <v>1489</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="C235" s="10">
         <v>880</v>
@@ -13633,7 +13633,7 @@
         <v>1638</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="C237" s="10">
         <v>956</v>
@@ -13653,7 +13653,7 @@
         <v>1605</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="C238" s="11">
         <v>291</v>
@@ -13673,7 +13673,7 @@
         <v>1473</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="C239" s="10">
         <v>973</v>
@@ -13690,10 +13690,10 @@
     </row>
     <row r="240" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A240" s="8" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="C240" s="11">
         <v>777</v>
@@ -13710,10 +13710,10 @@
     </row>
     <row r="241" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A241" s="8" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="C241" s="10">
         <v>726</v>
@@ -13733,7 +13733,7 @@
         <v>1343</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="C242" s="11">
         <v>982</v>
@@ -13753,7 +13753,7 @@
         <v>1321</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="C243" s="10">
         <v>465</v>
@@ -13770,10 +13770,10 @@
     </row>
     <row r="244" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A244" s="8" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="C244" s="11">
         <v>361</v>
@@ -13793,7 +13793,7 @@
         <v>1584</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="C245" s="10">
         <v>641</v>
@@ -13813,7 +13813,7 @@
         <v>1256</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="C246" s="11">
         <v>564</v>
@@ -13833,7 +13833,7 @@
         <v>1484</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="C247" s="10">
         <v>628</v>
@@ -13853,7 +13853,7 @@
         <v>1261</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="C248" s="11">
         <v>712</v>
@@ -13870,10 +13870,10 @@
     </row>
     <row r="249" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A249" s="8" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="C249" s="10">
         <v>962</v>
@@ -13890,10 +13890,10 @@
     </row>
     <row r="250" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A250" s="8" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="C250" s="11">
         <v>28</v>
@@ -13913,7 +13913,7 @@
         <v>1318</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="C251" s="10">
         <v>393</v>
@@ -13933,7 +13933,7 @@
         <v>1371</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="C252" s="11">
         <v>785</v>
@@ -13990,10 +13990,10 @@
     </row>
     <row r="255" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A255" s="8" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="C255" s="10">
         <v>241</v>
@@ -14010,10 +14010,10 @@
     </row>
     <row r="256" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A256" s="8" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="C256" s="11">
         <v>73</v>
@@ -14033,7 +14033,7 @@
         <v>347</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="C257" s="10">
         <v>771</v>
@@ -14050,10 +14050,10 @@
     </row>
     <row r="258" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A258" s="8" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="C258" s="11">
         <v>606</v>
@@ -14070,10 +14070,10 @@
     </row>
     <row r="259" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A259" s="8" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="C259" s="10">
         <v>476</v>
@@ -14093,7 +14093,7 @@
         <v>1464</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="C260" s="11">
         <v>975</v>
@@ -14113,7 +14113,7 @@
         <v>1324</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="C261" s="10">
         <v>521</v>
@@ -14150,10 +14150,10 @@
     </row>
     <row r="263" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A263" s="8" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="C263" s="10">
         <v>133</v>
@@ -14233,7 +14233,7 @@
         <v>1570</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="C267" s="10">
         <v>249</v>
@@ -14250,10 +14250,10 @@
     </row>
     <row r="268" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A268" s="8" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="C268" s="11">
         <v>239</v>
@@ -14290,10 +14290,10 @@
     </row>
     <row r="270" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A270" s="8" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="C270" s="11">
         <v>996</v>
@@ -14310,10 +14310,10 @@
     </row>
     <row r="271" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A271" s="8" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="C271" s="10">
         <v>688</v>
@@ -14330,10 +14330,10 @@
     </row>
     <row r="272" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A272" s="8" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="C272" s="11">
         <v>935</v>
@@ -14353,7 +14353,7 @@
         <v>1483</v>
       </c>
       <c r="B273" s="8" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="C273" s="10">
         <v>573</v>
@@ -14373,7 +14373,7 @@
         <v>1305</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="C274" s="11">
         <v>719</v>
@@ -14390,10 +14390,10 @@
     </row>
     <row r="275" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A275" s="8" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C275" s="10">
         <v>11</v>
@@ -14410,10 +14410,10 @@
     </row>
     <row r="276" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A276" s="8" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="C276" s="11">
         <v>912</v>
@@ -14433,7 +14433,7 @@
         <v>1631</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="C277" s="10">
         <v>860</v>
@@ -14450,10 +14450,10 @@
     </row>
     <row r="278" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A278" s="8" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="C278" s="11">
         <v>942</v>
@@ -14493,7 +14493,7 @@
         <v>375</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="C280" s="10">
         <v>470</v>
@@ -14513,7 +14513,7 @@
         <v>375</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="C281" s="11">
         <v>97</v>
@@ -14530,10 +14530,10 @@
     </row>
     <row r="282" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A282" s="8" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="C282" s="11">
         <v>951</v>
@@ -14550,10 +14550,10 @@
     </row>
     <row r="283" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A283" s="8" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C283" s="10">
         <v>296</v>
@@ -14593,7 +14593,7 @@
         <v>380</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="C285" s="10">
         <v>134</v>
@@ -14610,10 +14610,10 @@
     </row>
     <row r="286" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A286" s="8" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C286" s="11">
         <v>349</v>
@@ -14630,10 +14630,10 @@
     </row>
     <row r="287" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A287" s="8" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C287" s="10">
         <v>402</v>
@@ -14650,10 +14650,10 @@
     </row>
     <row r="288" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A288" s="8" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="C288" s="11">
         <v>832</v>
@@ -14710,10 +14710,10 @@
     </row>
     <row r="291" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A291" s="8" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="C291" s="10">
         <v>26</v>
@@ -14730,10 +14730,10 @@
     </row>
     <row r="292" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A292" s="8" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C292" s="11">
         <v>394</v>
@@ -14750,10 +14750,10 @@
     </row>
     <row r="293" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A293" s="8" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="C293" s="10">
         <v>519</v>
@@ -14773,7 +14773,7 @@
         <v>1552</v>
       </c>
       <c r="B294" s="8" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="C294" s="11">
         <v>597</v>
@@ -14793,7 +14793,7 @@
         <v>1245</v>
       </c>
       <c r="B295" s="8" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="C295" s="10">
         <v>576</v>
@@ -14810,10 +14810,10 @@
     </row>
     <row r="296" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A296" s="8" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C296" s="11">
         <v>267</v>
@@ -14830,10 +14830,10 @@
     </row>
     <row r="297" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A297" s="8" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="C297" s="10">
         <v>500</v>
@@ -14853,7 +14853,7 @@
         <v>1327</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="C298" s="11">
         <v>613</v>
@@ -14890,10 +14890,10 @@
     </row>
     <row r="300" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A300" s="8" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="C300" s="11">
         <v>794</v>
@@ -14910,10 +14910,10 @@
     </row>
     <row r="301" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A301" s="8" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="C301" s="10">
         <v>442</v>
@@ -14933,7 +14933,7 @@
         <v>1389</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="C302" s="11">
         <v>385</v>
@@ -14950,10 +14950,10 @@
     </row>
     <row r="303" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A303" s="8" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="C303" s="10">
         <v>966</v>
@@ -14970,10 +14970,10 @@
     </row>
     <row r="304" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A304" s="8" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="C304" s="11">
         <v>479</v>
@@ -15033,7 +15033,7 @@
         <v>1475</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="C307" s="10">
         <v>32</v>
@@ -15073,7 +15073,7 @@
         <v>1278</v>
       </c>
       <c r="B309" s="8" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="C309" s="10">
         <v>503</v>
@@ -15110,10 +15110,10 @@
     </row>
     <row r="311" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A311" s="8" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="C311" s="10">
         <v>278</v>
@@ -15133,7 +15133,7 @@
         <v>1456</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="C312" s="11">
         <v>828</v>
@@ -15150,10 +15150,10 @@
     </row>
     <row r="313" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A313" s="8" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="C313" s="10">
         <v>943</v>
@@ -15190,10 +15190,10 @@
     </row>
     <row r="315" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A315" s="8" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="C315" s="10">
         <v>157</v>
@@ -15233,7 +15233,7 @@
         <v>415</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="C317" s="10">
         <v>994</v>
@@ -15253,7 +15253,7 @@
         <v>1606</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="C318" s="11">
         <v>309</v>
@@ -15273,7 +15273,7 @@
         <v>1593</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="C319" s="10">
         <v>501</v>
@@ -15293,7 +15293,7 @@
         <v>420</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="C320" s="11">
         <v>907</v>
@@ -15310,10 +15310,10 @@
     </row>
     <row r="321" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A321" s="8" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="C321" s="10">
         <v>45</v>
@@ -15330,10 +15330,10 @@
     </row>
     <row r="322" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A322" s="8" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="C322" s="11">
         <v>231</v>
@@ -15393,7 +15393,7 @@
         <v>1639</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="C325" s="10">
         <v>979</v>
@@ -15413,7 +15413,7 @@
         <v>1598</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="C326" s="11">
         <v>184</v>
@@ -15430,10 +15430,10 @@
     </row>
     <row r="327" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A327" s="8" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="C327" s="10">
         <v>909</v>
@@ -15453,7 +15453,7 @@
         <v>1487</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="C328" s="11">
         <v>721</v>
@@ -15473,7 +15473,7 @@
         <v>1383</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="C329" s="10">
         <v>236</v>
@@ -15493,7 +15493,7 @@
         <v>1440</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="C330" s="11">
         <v>146</v>
@@ -15533,7 +15533,7 @@
         <v>1357</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="C332" s="11">
         <v>457</v>
@@ -15553,7 +15553,7 @@
         <v>1236</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="C333" s="10">
         <v>818</v>
@@ -15593,7 +15593,7 @@
         <v>1288</v>
       </c>
       <c r="B335" s="8" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="C335" s="10">
         <v>283</v>
@@ -15613,7 +15613,7 @@
         <v>1307</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="C336" s="11">
         <v>772</v>
@@ -15653,7 +15653,7 @@
         <v>1304</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="C338" s="11">
         <v>706</v>
@@ -15670,10 +15670,10 @@
     </row>
     <row r="339" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A339" s="8" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="C339" s="10">
         <v>739</v>
@@ -15711,7 +15711,7 @@
         <v>1577</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="C341" s="11">
         <v>422</v>
@@ -15728,10 +15728,10 @@
     </row>
     <row r="342" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A342" s="8" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="C342" s="10">
         <v>993</v>
@@ -15748,7 +15748,7 @@
     </row>
     <row r="343" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A343" s="8" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="B343" s="8" t="s">
         <v>1275</v>
@@ -15808,10 +15808,10 @@
     </row>
     <row r="346" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A346" s="8" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="C346" s="10">
         <v>138</v>
@@ -15828,10 +15828,10 @@
     </row>
     <row r="347" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A347" s="8" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="C347" s="11">
         <v>811</v>
@@ -15848,10 +15848,10 @@
     </row>
     <row r="348" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A348" s="8" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="C348" s="10">
         <v>345</v>
@@ -15868,10 +15868,10 @@
     </row>
     <row r="349" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A349" s="8" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="C349" s="11">
         <v>225</v>
@@ -15891,7 +15891,7 @@
         <v>1539</v>
       </c>
       <c r="B350" s="8" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="C350" s="10">
         <v>918</v>
@@ -15908,10 +15908,10 @@
     </row>
     <row r="351" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A351" s="8" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="C351" s="11">
         <v>559</v>
@@ -15931,7 +15931,7 @@
         <v>1238</v>
       </c>
       <c r="B352" s="8" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="C352" s="10">
         <v>927</v>
@@ -15951,7 +15951,7 @@
         <v>1239</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="C353" s="11">
         <v>936</v>
@@ -15991,7 +15991,7 @@
         <v>456</v>
       </c>
       <c r="B355" s="8" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="C355" s="11">
         <v>694</v>
@@ -16008,10 +16008,10 @@
     </row>
     <row r="356" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A356" s="8" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="C356" s="10">
         <v>364</v>
@@ -16028,10 +16028,10 @@
     </row>
     <row r="357" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A357" s="8" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="C357" s="11">
         <v>177</v>
@@ -16048,10 +16048,10 @@
     </row>
     <row r="358" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A358" s="8" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="C358" s="10">
         <v>957</v>
@@ -16071,7 +16071,7 @@
         <v>1298</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="C359" s="11">
         <v>523</v>
@@ -16088,10 +16088,10 @@
     </row>
     <row r="360" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A360" s="8" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="C360" s="10">
         <v>524</v>
@@ -16131,7 +16131,7 @@
         <v>1354</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="C362" s="11">
         <v>407</v>
@@ -16168,10 +16168,10 @@
     </row>
     <row r="364" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A364" s="8" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="C364" s="11">
         <v>194</v>
@@ -16188,10 +16188,10 @@
     </row>
     <row r="365" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A365" s="8" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="C365" s="10">
         <v>170</v>
@@ -16208,10 +16208,10 @@
     </row>
     <row r="366" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A366" s="8" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="C366" s="11">
         <v>237</v>
@@ -16231,7 +16231,7 @@
         <v>1452</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="C367" s="10">
         <v>667</v>
@@ -16248,10 +16248,10 @@
     </row>
     <row r="368" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A368" s="8" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C368" s="11">
         <v>862</v>
@@ -16268,10 +16268,10 @@
     </row>
     <row r="369" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A369" s="8" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="C369" s="10">
         <v>360</v>
@@ -16288,10 +16288,10 @@
     </row>
     <row r="370" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A370" s="8" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C370" s="11">
         <v>577</v>
@@ -16308,10 +16308,10 @@
     </row>
     <row r="371" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A371" s="8" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="C371" s="10">
         <v>380</v>
@@ -16331,7 +16331,7 @@
         <v>1611</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="C372" s="11">
         <v>434</v>
@@ -16371,7 +16371,7 @@
         <v>1567</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="C374" s="11">
         <v>39</v>
@@ -16408,10 +16408,10 @@
     </row>
     <row r="376" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A376" s="8" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="C376" s="11">
         <v>7</v>
@@ -16431,7 +16431,7 @@
         <v>481</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="C377" s="10">
         <v>80</v>
@@ -16471,7 +16471,7 @@
         <v>484</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="C379" s="10">
         <v>981</v>
@@ -16491,7 +16491,7 @@
         <v>1587</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="C380" s="11">
         <v>88</v>
@@ -16528,10 +16528,10 @@
     </row>
     <row r="382" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A382" s="8" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="C382" s="11">
         <v>290</v>
@@ -16551,7 +16551,7 @@
         <v>1429</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="C383" s="10">
         <v>664</v>
@@ -16568,10 +16568,10 @@
     </row>
     <row r="384" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A384" s="8" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="C384" s="11">
         <v>887</v>
@@ -16588,10 +16588,10 @@
     </row>
     <row r="385" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A385" s="8" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="C385" s="10">
         <v>873</v>
@@ -16608,10 +16608,10 @@
     </row>
     <row r="386" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A386" s="8" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="C386" s="11">
         <v>93</v>
@@ -16631,7 +16631,7 @@
         <v>493</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="C387" s="10">
         <v>368</v>
@@ -16651,7 +16651,7 @@
         <v>1591</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="C388" s="11">
         <v>355</v>
@@ -16688,10 +16688,10 @@
     </row>
     <row r="390" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A390" s="8" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="C390" s="11">
         <v>228</v>
@@ -16711,7 +16711,7 @@
         <v>1247</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="C391" s="10">
         <v>899</v>
@@ -16768,10 +16768,10 @@
     </row>
     <row r="394" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A394" s="8" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="C394" s="11">
         <v>819</v>
@@ -16788,10 +16788,10 @@
     </row>
     <row r="395" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A395" s="8" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="C395" s="10">
         <v>59</v>
@@ -16811,7 +16811,7 @@
         <v>505</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="C396" s="11">
         <v>679</v>
@@ -16868,10 +16868,10 @@
     </row>
     <row r="399" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A399" s="8" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="C399" s="10">
         <v>8</v>
@@ -16891,7 +16891,7 @@
         <v>510</v>
       </c>
       <c r="B400" s="8" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C400" s="11">
         <v>396</v>
@@ -16911,7 +16911,7 @@
         <v>512</v>
       </c>
       <c r="B401" s="8" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="C401" s="10">
         <v>955</v>
@@ -16928,10 +16928,10 @@
     </row>
     <row r="402" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A402" s="8" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="C402" s="11">
         <v>754</v>
@@ -16948,10 +16948,10 @@
     </row>
     <row r="403" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A403" s="8" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="C403" s="10">
         <v>723</v>
@@ -16968,10 +16968,10 @@
     </row>
     <row r="404" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A404" s="8" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="C404" s="11">
         <v>200</v>
@@ -16988,10 +16988,10 @@
     </row>
     <row r="405" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A405" s="8" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="C405" s="10">
         <v>602</v>
@@ -17008,10 +17008,10 @@
     </row>
     <row r="406" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A406" s="8" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="C406" s="11">
         <v>421</v>
@@ -17031,7 +17031,7 @@
         <v>1303</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="C407" s="10">
         <v>671</v>
@@ -17051,7 +17051,7 @@
         <v>1519</v>
       </c>
       <c r="B408" s="8" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="C408" s="11">
         <v>437</v>
@@ -17091,7 +17091,7 @@
         <v>1561</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="C410" s="11">
         <v>871</v>
@@ -17108,10 +17108,10 @@
     </row>
     <row r="411" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A411" s="8" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="C411" s="10">
         <v>411</v>
@@ -17148,10 +17148,10 @@
     </row>
     <row r="413" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A413" s="8" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="C413" s="10">
         <v>980</v>
@@ -17168,10 +17168,10 @@
     </row>
     <row r="414" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A414" s="8" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B414" s="8" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="C414" s="11">
         <v>742</v>
@@ -17191,7 +17191,7 @@
         <v>1390</v>
       </c>
       <c r="B415" s="8" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="C415" s="10">
         <v>428</v>
@@ -17231,7 +17231,7 @@
         <v>1507</v>
       </c>
       <c r="B417" s="8" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="C417" s="10">
         <v>202</v>
@@ -17251,7 +17251,7 @@
         <v>1621</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="C418" s="11">
         <v>592</v>
@@ -17291,7 +17291,7 @@
         <v>1636</v>
       </c>
       <c r="B420" s="8" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="C420" s="11">
         <v>952</v>
@@ -17308,10 +17308,10 @@
     </row>
     <row r="421" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A421" s="8" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="C421" s="10">
         <v>865</v>
@@ -17331,7 +17331,7 @@
         <v>1404</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="C422" s="11">
         <v>381</v>
@@ -17348,10 +17348,10 @@
     </row>
     <row r="423" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A423" s="8" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="B423" s="8" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="C423" s="10">
         <v>163</v>
@@ -17371,7 +17371,7 @@
         <v>1491</v>
       </c>
       <c r="B424" s="8" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="C424" s="11">
         <v>931</v>
@@ -17391,7 +17391,7 @@
         <v>1395</v>
       </c>
       <c r="B425" s="8" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="C425" s="10">
         <v>908</v>
@@ -17431,7 +17431,7 @@
         <v>1322</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="C427" s="10">
         <v>512</v>
@@ -17451,7 +17451,7 @@
         <v>1563</v>
       </c>
       <c r="B428" s="8" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="C428" s="11">
         <v>895</v>
@@ -17488,10 +17488,10 @@
     </row>
     <row r="430" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A430" s="8" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="B430" s="8" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="C430" s="11">
         <v>699</v>
@@ -17528,10 +17528,10 @@
     </row>
     <row r="432" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A432" s="8" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B432" s="8" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="C432" s="11">
         <v>953</v>
@@ -17548,10 +17548,10 @@
     </row>
     <row r="433" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A433" s="8" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="B433" s="8" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="C433" s="10">
         <v>760</v>
@@ -17571,7 +17571,7 @@
         <v>549</v>
       </c>
       <c r="B434" s="8" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="C434" s="11">
         <v>704</v>
@@ -17591,7 +17591,7 @@
         <v>1556</v>
       </c>
       <c r="B435" s="8" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="C435" s="10">
         <v>766</v>
@@ -17608,10 +17608,10 @@
     </row>
     <row r="436" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A436" s="8" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="B436" s="8" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="C436" s="11">
         <v>316</v>
@@ -17648,10 +17648,10 @@
     </row>
     <row r="438" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A438" s="8" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="B438" s="8" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="C438" s="11">
         <v>22</v>
@@ -17671,7 +17671,7 @@
         <v>1347</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="C439" s="10">
         <v>187</v>
@@ -17691,7 +17691,7 @@
         <v>1374</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="C440" s="11">
         <v>809</v>
@@ -17708,10 +17708,10 @@
     </row>
     <row r="441" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A441" s="8" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="C441" s="10">
         <v>13</v>
@@ -17728,10 +17728,10 @@
     </row>
     <row r="442" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A442" s="8" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="B442" s="8" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C442" s="11">
         <v>81</v>
@@ -17808,10 +17808,10 @@
     </row>
     <row r="446" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A446" s="8" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="B446" s="8" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="C446" s="11">
         <v>230</v>
@@ -17851,7 +17851,7 @@
         <v>1397</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="C448" s="11">
         <v>84</v>
@@ -17871,7 +17871,7 @@
         <v>1420</v>
       </c>
       <c r="B449" s="8" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="C449" s="10">
         <v>839</v>
@@ -17891,7 +17891,7 @@
         <v>1414</v>
       </c>
       <c r="B450" s="8" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="C450" s="11">
         <v>749</v>
@@ -17911,7 +17911,7 @@
         <v>1407</v>
       </c>
       <c r="B451" s="8" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="C451" s="10">
         <v>565</v>
@@ -17951,7 +17951,7 @@
         <v>1482</v>
       </c>
       <c r="B453" s="8" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="C453" s="10">
         <v>513</v>
@@ -17971,7 +17971,7 @@
         <v>1422</v>
       </c>
       <c r="B454" s="8" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="C454" s="11">
         <v>896</v>
@@ -17991,7 +17991,7 @@
         <v>1402</v>
       </c>
       <c r="B455" s="8" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="C455" s="10">
         <v>314</v>
@@ -18011,7 +18011,7 @@
         <v>1417</v>
       </c>
       <c r="B456" s="8" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="C456" s="11">
         <v>770</v>
@@ -18048,10 +18048,10 @@
     </row>
     <row r="458" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A458" s="8" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B458" s="8" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="C458" s="11">
         <v>390</v>
@@ -18091,7 +18091,7 @@
         <v>1270</v>
       </c>
       <c r="B460" s="8" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="C460" s="11">
         <v>900</v>
@@ -18128,10 +18128,10 @@
     </row>
     <row r="462" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A462" s="8" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B462" s="8" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="C462" s="11">
         <v>783</v>
@@ -18191,7 +18191,7 @@
         <v>1281</v>
       </c>
       <c r="B465" s="8" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="C465" s="10">
         <v>695</v>
@@ -18208,10 +18208,10 @@
     </row>
     <row r="466" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A466" s="8" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B466" s="8" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="C466" s="11">
         <v>382</v>
@@ -18231,7 +18231,7 @@
         <v>1533</v>
       </c>
       <c r="B467" s="8" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="C467" s="10">
         <v>824</v>
@@ -18248,10 +18248,10 @@
     </row>
     <row r="468" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A468" s="8" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="B468" s="8" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="C468" s="11">
         <v>435</v>
@@ -18268,10 +18268,10 @@
     </row>
     <row r="469" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A469" s="8" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="B469" s="8" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="C469" s="10">
         <v>444</v>
@@ -18288,10 +18288,10 @@
     </row>
     <row r="470" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A470" s="8" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B470" s="8" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="C470" s="11">
         <v>464</v>
@@ -18308,10 +18308,10 @@
     </row>
     <row r="471" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A471" s="8" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B471" s="8" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="C471" s="10">
         <v>370</v>
@@ -18328,10 +18328,10 @@
     </row>
     <row r="472" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A472" s="8" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B472" s="8" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="C472" s="11">
         <v>419</v>
@@ -18371,7 +18371,7 @@
         <v>1401</v>
       </c>
       <c r="B474" s="8" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="C474" s="11">
         <v>264</v>
@@ -18388,10 +18388,10 @@
     </row>
     <row r="475" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A475" s="8" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B475" s="8" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="C475" s="10">
         <v>901</v>
@@ -18411,7 +18411,7 @@
         <v>1400</v>
       </c>
       <c r="B476" s="8" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="C476" s="11">
         <v>229</v>
@@ -18428,10 +18428,10 @@
     </row>
     <row r="477" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A477" s="8" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="B477" s="8" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="C477" s="10">
         <v>495</v>
@@ -18448,10 +18448,10 @@
     </row>
     <row r="478" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A478" s="8" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="B478" s="8" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="C478" s="11">
         <v>729</v>
@@ -18471,7 +18471,7 @@
         <v>1470</v>
       </c>
       <c r="B479" s="8" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="C479" s="10">
         <v>761</v>
@@ -18528,10 +18528,10 @@
     </row>
     <row r="482" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A482" s="8" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="B482" s="8" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="C482" s="11">
         <v>516</v>
@@ -18548,10 +18548,10 @@
     </row>
     <row r="483" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A483" s="8" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="B483" s="8" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="C483" s="10">
         <v>732</v>
@@ -18568,10 +18568,10 @@
     </row>
     <row r="484" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A484" s="8" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B484" s="8" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C484" s="11">
         <v>710</v>
@@ -18591,7 +18591,7 @@
         <v>1385</v>
       </c>
       <c r="B485" s="8" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="C485" s="10">
         <v>245</v>
@@ -18631,7 +18631,7 @@
         <v>608</v>
       </c>
       <c r="B487" s="8" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="C487" s="10">
         <v>400</v>
@@ -18668,10 +18668,10 @@
     </row>
     <row r="489" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A489" s="8" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="B489" s="8" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="C489" s="10">
         <v>310</v>
@@ -18688,10 +18688,10 @@
     </row>
     <row r="490" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A490" s="8" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B490" s="8" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="C490" s="11">
         <v>375</v>
@@ -18711,7 +18711,7 @@
         <v>1217</v>
       </c>
       <c r="B491" s="8" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="C491" s="10">
         <v>902</v>
@@ -18731,7 +18731,7 @@
         <v>1206</v>
       </c>
       <c r="B492" s="8" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="C492" s="11">
         <v>299</v>
@@ -18811,7 +18811,7 @@
         <v>1525</v>
       </c>
       <c r="B496" s="8" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="C496" s="11">
         <v>672</v>
@@ -18831,7 +18831,7 @@
         <v>1495</v>
       </c>
       <c r="B497" s="8" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="C497" s="10">
         <v>25</v>
@@ -18848,10 +18848,10 @@
     </row>
     <row r="498" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A498" s="8" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="B498" s="8" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="C498" s="11">
         <v>764</v>
@@ -18891,7 +18891,7 @@
         <v>1364</v>
       </c>
       <c r="B500" s="8" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="C500" s="11">
         <v>598</v>
@@ -18928,10 +18928,10 @@
     </row>
     <row r="502" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A502" s="8" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="B502" s="8" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="C502" s="11">
         <v>357</v>
@@ -18948,10 +18948,10 @@
     </row>
     <row r="503" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A503" s="8" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B503" s="8" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="C503" s="10">
         <v>48</v>
@@ -18988,10 +18988,10 @@
     </row>
     <row r="505" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A505" s="8" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="B505" s="8" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="C505" s="10">
         <v>654</v>
@@ -19008,10 +19008,10 @@
     </row>
     <row r="506" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A506" s="8" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="B506" s="8" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="C506" s="11">
         <v>127</v>
@@ -19028,10 +19028,10 @@
     </row>
     <row r="507" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A507" s="8" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="B507" s="8" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="C507" s="10">
         <v>857</v>
@@ -19048,10 +19048,10 @@
     </row>
     <row r="508" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A508" s="8" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="B508" s="8" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="C508" s="11">
         <v>162</v>
@@ -19068,10 +19068,10 @@
     </row>
     <row r="509" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A509" s="8" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="B509" s="8" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="C509" s="10">
         <v>481</v>
@@ -19091,7 +19091,7 @@
         <v>1330</v>
       </c>
       <c r="B510" s="8" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="C510" s="11">
         <v>670</v>
@@ -19128,10 +19128,10 @@
     </row>
     <row r="512" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A512" s="8" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="B512" s="8" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="C512" s="11">
         <v>173</v>
@@ -19148,10 +19148,10 @@
     </row>
     <row r="513" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A513" s="8" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="B513" s="8" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="C513" s="10">
         <v>747</v>
@@ -19171,7 +19171,7 @@
         <v>1268</v>
       </c>
       <c r="B514" s="8" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="C514" s="11">
         <v>852</v>
@@ -19191,7 +19191,7 @@
         <v>1355</v>
       </c>
       <c r="B515" s="8" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="C515" s="10">
         <v>429</v>
@@ -19228,10 +19228,10 @@
     </row>
     <row r="517" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A517" s="8" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B517" s="8" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="C517" s="10">
         <v>41</v>
@@ -19248,10 +19248,10 @@
     </row>
     <row r="518" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A518" s="8" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B518" s="8" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="C518" s="11">
         <v>161</v>
@@ -19271,7 +19271,7 @@
         <v>1513</v>
       </c>
       <c r="B519" s="8" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="C519" s="10">
         <v>247</v>
@@ -19291,7 +19291,7 @@
         <v>1360</v>
       </c>
       <c r="B520" s="8" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="C520" s="11">
         <v>504</v>
@@ -19311,7 +19311,7 @@
         <v>1294</v>
       </c>
       <c r="B521" s="8" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="C521" s="10">
         <v>425</v>
@@ -19348,10 +19348,10 @@
     </row>
     <row r="523" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A523" s="8" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="B523" s="8" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="C523" s="10">
         <v>114</v>
@@ -19408,10 +19408,10 @@
     </row>
     <row r="526" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A526" s="8" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="B526" s="8" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="C526" s="11">
         <v>593</v>
@@ -19448,10 +19448,10 @@
     </row>
     <row r="528" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A528" s="8" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B528" s="8" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="C528" s="11">
         <v>711</v>
@@ -19471,7 +19471,7 @@
         <v>1384</v>
       </c>
       <c r="B529" s="8" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="C529" s="10">
         <v>242</v>
@@ -19488,10 +19488,10 @@
     </row>
     <row r="530" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A530" s="8" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="B530" s="8" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="C530" s="11">
         <v>399</v>
@@ -19508,10 +19508,10 @@
     </row>
     <row r="531" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A531" s="8" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="B531" s="8" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="C531" s="10">
         <v>658</v>
@@ -19548,10 +19548,10 @@
     </row>
     <row r="533" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A533" s="8" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="B533" s="8" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="C533" s="10">
         <v>581</v>
@@ -19591,7 +19591,7 @@
         <v>1462</v>
       </c>
       <c r="B535" s="8" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="C535" s="10">
         <v>950</v>
@@ -19608,10 +19608,10 @@
     </row>
     <row r="536" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A536" s="8" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="B536" s="8" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="C536" s="11">
         <v>181</v>
@@ -19631,7 +19631,7 @@
         <v>1544</v>
       </c>
       <c r="B537" s="8" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="C537" s="10">
         <v>192</v>
@@ -19691,7 +19691,7 @@
         <v>1529</v>
       </c>
       <c r="B540" s="8" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="C540" s="11">
         <v>733</v>
@@ -19768,10 +19768,10 @@
     </row>
     <row r="544" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A544" s="8" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B544" s="8" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="C544" s="11">
         <v>276</v>
@@ -19788,10 +19788,10 @@
     </row>
     <row r="545" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A545" s="8" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="B545" s="8" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="C545" s="10">
         <v>508</v>
@@ -19811,7 +19811,7 @@
         <v>1478</v>
       </c>
       <c r="B546" s="8" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="C546" s="11">
         <v>315</v>
@@ -19848,10 +19848,10 @@
     </row>
     <row r="548" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A548" s="8" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B548" s="8" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="C548" s="11">
         <v>910</v>
@@ -19871,7 +19871,7 @@
         <v>1445</v>
       </c>
       <c r="B549" s="8" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="C549" s="10">
         <v>266</v>
@@ -19891,7 +19891,7 @@
         <v>1443</v>
       </c>
       <c r="B550" s="8" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="C550" s="11">
         <v>180</v>
@@ -19911,7 +19911,7 @@
         <v>1446</v>
       </c>
       <c r="B551" s="8" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="C551" s="10">
         <v>211</v>
@@ -19928,10 +19928,10 @@
     </row>
     <row r="552" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A552" s="8" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="B552" s="8" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="C552" s="11">
         <v>353</v>
@@ -19948,10 +19948,10 @@
     </row>
     <row r="553" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A553" s="8" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="B553" s="8" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="C553" s="10">
         <v>238</v>
@@ -19971,7 +19971,7 @@
         <v>679</v>
       </c>
       <c r="B554" s="8" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="C554" s="11">
         <v>47</v>
@@ -20031,7 +20031,7 @@
         <v>1271</v>
       </c>
       <c r="B557" s="8" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="C557" s="10">
         <v>911</v>
@@ -20051,7 +20051,7 @@
         <v>1406</v>
       </c>
       <c r="B558" s="8" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="C558" s="11">
         <v>541</v>
@@ -20068,10 +20068,10 @@
     </row>
     <row r="559" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A559" s="8" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="B559" s="8" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="C559" s="10">
         <v>294</v>
@@ -20091,7 +20091,7 @@
         <v>1266</v>
       </c>
       <c r="B560" s="8" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="C560" s="11">
         <v>846</v>
@@ -20111,7 +20111,7 @@
         <v>690</v>
       </c>
       <c r="B561" s="8" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="C561" s="10">
         <v>179</v>
@@ -20171,7 +20171,7 @@
         <v>1325</v>
       </c>
       <c r="B564" s="8" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="C564" s="11">
         <v>525</v>
@@ -20188,10 +20188,10 @@
     </row>
     <row r="565" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A565" s="8" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B565" s="8" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="C565" s="11">
         <v>634</v>
@@ -20208,10 +20208,10 @@
     </row>
     <row r="566" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A566" s="8" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="B566" s="8" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="C566" s="10">
         <v>55</v>
@@ -20268,10 +20268,10 @@
     </row>
     <row r="569" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A569" s="8" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="B569" s="8" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="C569" s="10">
         <v>100</v>
@@ -20291,7 +20291,7 @@
         <v>1613</v>
       </c>
       <c r="B570" s="8" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="C570" s="11">
         <v>455</v>
@@ -20308,10 +20308,10 @@
     </row>
     <row r="571" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A571" s="8" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="B571" s="8" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="C571" s="10">
         <v>509</v>
@@ -20331,7 +20331,7 @@
         <v>1358</v>
       </c>
       <c r="B572" s="8" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="C572" s="11">
         <v>458</v>
@@ -20348,10 +20348,10 @@
     </row>
     <row r="573" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A573" s="8" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="B573" s="8" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="C573" s="10">
         <v>135</v>
@@ -20371,7 +20371,7 @@
         <v>705</v>
       </c>
       <c r="B574" s="8" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="C574" s="11">
         <v>6</v>
@@ -20391,7 +20391,7 @@
         <v>706</v>
       </c>
       <c r="B575" s="8" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="C575" s="10">
         <v>436</v>
@@ -20408,10 +20408,10 @@
     </row>
     <row r="576" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A576" s="8" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="B576" s="8" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="C576" s="11">
         <v>51</v>
@@ -20431,7 +20431,7 @@
         <v>1316</v>
       </c>
       <c r="B577" s="8" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="C577" s="10">
         <v>347</v>
@@ -20448,10 +20448,10 @@
     </row>
     <row r="578" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A578" s="8" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="B578" s="8" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="C578" s="11">
         <v>52</v>
@@ -20471,7 +20471,7 @@
         <v>1615</v>
       </c>
       <c r="B579" s="8" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="C579" s="10">
         <v>477</v>
@@ -20488,10 +20488,10 @@
     </row>
     <row r="580" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A580" s="8" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B580" s="8" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="C580" s="11">
         <v>139</v>
@@ -20528,10 +20528,10 @@
     </row>
     <row r="582" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A582" s="8" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B582" s="8" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="C582" s="11">
         <v>545</v>
@@ -20548,10 +20548,10 @@
     </row>
     <row r="583" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A583" s="8" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B583" s="8" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="C583" s="10">
         <v>49</v>
@@ -20588,10 +20588,10 @@
     </row>
     <row r="585" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A585" s="8" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="B585" s="8" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="C585" s="10">
         <v>452</v>
@@ -20668,10 +20668,10 @@
     </row>
     <row r="589" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A589" s="8" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="B589" s="8" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="C589" s="10">
         <v>919</v>
@@ -20708,10 +20708,10 @@
     </row>
     <row r="591" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A591" s="8" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B591" s="8" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="C591" s="10">
         <v>801</v>
@@ -20728,10 +20728,10 @@
     </row>
     <row r="592" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A592" s="8" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B592" s="8" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="C592" s="11">
         <v>472</v>
@@ -20751,7 +20751,7 @@
         <v>1331</v>
       </c>
       <c r="B593" s="8" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="C593" s="10">
         <v>677</v>
@@ -20768,10 +20768,10 @@
     </row>
     <row r="594" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A594" s="8" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="B594" s="8" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="C594" s="11">
         <v>206</v>
@@ -20791,7 +20791,7 @@
         <v>1372</v>
       </c>
       <c r="B595" s="8" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="C595" s="10">
         <v>790</v>
@@ -20828,10 +20828,10 @@
     </row>
     <row r="597" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A597" s="8" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="B597" s="8" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="C597" s="10">
         <v>812</v>
@@ -20848,10 +20848,10 @@
     </row>
     <row r="598" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A598" s="8" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="B598" s="8" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="C598" s="11">
         <v>607</v>
@@ -20871,7 +20871,7 @@
         <v>735</v>
       </c>
       <c r="B599" s="8" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="C599" s="10">
         <v>574</v>
@@ -20948,10 +20948,10 @@
     </row>
     <row r="603" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A603" s="8" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="B603" s="8" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="C603" s="10">
         <v>806</v>
@@ -20968,10 +20968,10 @@
     </row>
     <row r="604" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A604" s="8" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="B604" s="8" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="C604" s="11">
         <v>635</v>
@@ -21011,7 +21011,7 @@
         <v>1610</v>
       </c>
       <c r="B606" s="8" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="C606" s="11">
         <v>417</v>
@@ -21048,10 +21048,10 @@
     </row>
     <row r="608" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A608" s="8" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B608" s="8" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="C608" s="11">
         <v>736</v>
@@ -21088,10 +21088,10 @@
     </row>
     <row r="610" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A610" s="8" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B610" s="8" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="C610" s="11">
         <v>416</v>
@@ -21108,10 +21108,10 @@
     </row>
     <row r="611" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A611" s="8" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="B611" s="8" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="C611" s="10">
         <v>642</v>
@@ -21128,10 +21128,10 @@
     </row>
     <row r="612" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A612" s="8" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="B612" s="8" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="C612" s="11">
         <v>755</v>
@@ -21148,10 +21148,10 @@
     </row>
     <row r="613" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A613" s="8" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="B613" s="8" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="C613" s="11">
         <v>696</v>
@@ -21168,10 +21168,10 @@
     </row>
     <row r="614" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A614" s="8" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="B614" s="8" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="C614" s="10">
         <v>147</v>
@@ -21191,7 +21191,7 @@
         <v>1574</v>
       </c>
       <c r="B615" s="8" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="C615" s="10">
         <v>371</v>
@@ -21208,10 +21208,10 @@
     </row>
     <row r="616" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A616" s="8" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B616" s="8" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="C616" s="11">
         <v>715</v>
@@ -21251,7 +21251,7 @@
         <v>1514</v>
       </c>
       <c r="B618" s="8" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="C618" s="11">
         <v>281</v>
@@ -21268,10 +21268,10 @@
     </row>
     <row r="619" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A619" s="8" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B619" s="8" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="C619" s="10">
         <v>412</v>
@@ -21288,10 +21288,10 @@
     </row>
     <row r="620" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A620" s="8" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="B620" s="8" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="C620" s="11">
         <v>190</v>
@@ -21308,10 +21308,10 @@
     </row>
     <row r="621" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A621" s="8" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="B621" s="8" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="C621" s="10">
         <v>847</v>
@@ -21331,7 +21331,7 @@
         <v>1457</v>
       </c>
       <c r="B622" s="8" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="C622" s="11">
         <v>829</v>
@@ -21351,7 +21351,7 @@
         <v>1477</v>
       </c>
       <c r="B623" s="8" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="C623" s="10">
         <v>160</v>
@@ -21431,7 +21431,7 @@
         <v>1392</v>
       </c>
       <c r="B627" s="8" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="C627" s="10">
         <v>550</v>
@@ -21448,10 +21448,10 @@
     </row>
     <row r="628" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A628" s="8" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="B628" s="8" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="C628" s="11">
         <v>71</v>
@@ -21468,10 +21468,10 @@
     </row>
     <row r="629" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A629" s="8" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="B629" s="8" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="C629" s="10">
         <v>185</v>
@@ -21511,7 +21511,7 @@
         <v>1537</v>
       </c>
       <c r="B631" s="8" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="C631" s="10">
         <v>858</v>
@@ -21528,10 +21528,10 @@
     </row>
     <row r="632" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A632" s="8" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B632" s="8" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="C632" s="11">
         <v>872</v>
@@ -21568,10 +21568,10 @@
     </row>
     <row r="634" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A634" s="8" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B634" s="8" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="C634" s="11">
         <v>388</v>
@@ -21591,7 +21591,7 @@
         <v>1418</v>
       </c>
       <c r="B635" s="8" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="C635" s="10">
         <v>792</v>
@@ -21608,10 +21608,10 @@
     </row>
     <row r="636" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A636" s="8" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="B636" s="8" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="C636" s="11">
         <v>183</v>
@@ -21631,7 +21631,7 @@
         <v>1255</v>
       </c>
       <c r="B637" s="8" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="C637" s="10">
         <v>530</v>
@@ -21668,10 +21668,10 @@
     </row>
     <row r="639" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A639" s="8" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="B639" s="8" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="C639" s="10">
         <v>563</v>
@@ -21691,7 +21691,7 @@
         <v>1273</v>
       </c>
       <c r="B640" s="8" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="C640" s="11">
         <v>988</v>
@@ -21728,10 +21728,10 @@
     </row>
     <row r="642" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A642" s="8" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="B642" s="8" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="C642" s="11">
         <v>488</v>
@@ -21748,10 +21748,10 @@
     </row>
     <row r="643" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A643" s="8" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="B643" s="8" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="C643" s="10">
         <v>268</v>
@@ -21771,7 +21771,7 @@
         <v>1558</v>
       </c>
       <c r="B644" s="8" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="C644" s="11">
         <v>821</v>
@@ -21788,10 +21788,10 @@
     </row>
     <row r="645" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A645" s="8" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="B645" s="8" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="C645" s="10">
         <v>265</v>
@@ -21808,10 +21808,10 @@
     </row>
     <row r="646" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A646" s="8" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="B646" s="8" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="C646" s="11">
         <v>702</v>
@@ -21851,7 +21851,7 @@
         <v>1338</v>
       </c>
       <c r="B648" s="8" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="C648" s="11">
         <v>866</v>
@@ -21868,10 +21868,10 @@
     </row>
     <row r="649" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A649" s="8" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="B649" s="8" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="C649" s="10">
         <v>409</v>
@@ -21888,10 +21888,10 @@
     </row>
     <row r="650" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A650" s="8" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="B650" s="8" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="C650" s="11">
         <v>199</v>
@@ -21911,7 +21911,7 @@
         <v>1541</v>
       </c>
       <c r="B651" s="8" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="C651" s="10">
         <v>83</v>
@@ -21928,10 +21928,10 @@
     </row>
     <row r="652" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A652" s="8" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="B652" s="8" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="C652" s="11">
         <v>767</v>
@@ -21968,10 +21968,10 @@
     </row>
     <row r="654" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A654" s="8" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B654" s="8" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="C654" s="11">
         <v>287</v>
@@ -21988,10 +21988,10 @@
     </row>
     <row r="655" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A655" s="8" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="B655" s="8" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="C655" s="10">
         <v>649</v>
@@ -22011,7 +22011,7 @@
         <v>1520</v>
       </c>
       <c r="B656" s="8" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="C656" s="11">
         <v>459</v>
@@ -22031,7 +22031,7 @@
         <v>795</v>
       </c>
       <c r="B657" s="8" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="C657" s="10">
         <v>974</v>
@@ -22051,7 +22051,7 @@
         <v>1201</v>
       </c>
       <c r="B658" s="8" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="C658" s="11">
         <v>968</v>
@@ -22088,10 +22088,10 @@
     </row>
     <row r="660" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A660" s="8" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="B660" s="8" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="C660" s="11">
         <v>913</v>
@@ -22128,10 +22128,10 @@
     </row>
     <row r="662" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A662" s="8" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="B662" s="8" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="C662" s="11">
         <v>102</v>
@@ -22168,10 +22168,10 @@
     </row>
     <row r="664" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A664" s="8" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="B664" s="8" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C664" s="11">
         <v>122</v>
@@ -22188,10 +22188,10 @@
     </row>
     <row r="665" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A665" s="8" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="B665" s="8" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="C665" s="10">
         <v>759</v>
@@ -22211,7 +22211,7 @@
         <v>1536</v>
       </c>
       <c r="B666" s="8" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="C666" s="11">
         <v>853</v>
@@ -22228,10 +22228,10 @@
     </row>
     <row r="667" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A667" s="8" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="B667" s="8" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="C667" s="10">
         <v>487</v>
@@ -22291,7 +22291,7 @@
         <v>810</v>
       </c>
       <c r="B670" s="8" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="C670" s="11">
         <v>964</v>
@@ -22308,10 +22308,10 @@
     </row>
     <row r="671" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A671" s="8" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="B671" s="8" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C671" s="10">
         <v>877</v>
@@ -22351,7 +22351,7 @@
         <v>1619</v>
       </c>
       <c r="B673" s="8" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="C673" s="10">
         <v>567</v>
@@ -22368,10 +22368,10 @@
     </row>
     <row r="674" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A674" s="8" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="B674" s="8" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="C674" s="11">
         <v>737</v>
@@ -22408,10 +22408,10 @@
     </row>
     <row r="676" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A676" s="8" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="B676" s="8" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="C676" s="11">
         <v>584</v>
@@ -22448,10 +22448,10 @@
     </row>
     <row r="678" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A678" s="8" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="B678" s="8" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="C678" s="11">
         <v>945</v>
@@ -22468,10 +22468,10 @@
     </row>
     <row r="679" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A679" s="8" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B679" s="8" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C679" s="10">
         <v>626</v>
@@ -22508,10 +22508,10 @@
     </row>
     <row r="681" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A681" s="8" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B681" s="8" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="C681" s="10">
         <v>822</v>
@@ -22528,10 +22528,10 @@
     </row>
     <row r="682" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A682" s="8" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B682" s="8" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C682" s="11">
         <v>582</v>
@@ -22551,7 +22551,7 @@
         <v>1578</v>
       </c>
       <c r="B683" s="8" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="C683" s="10">
         <v>423</v>
@@ -22591,7 +22591,7 @@
         <v>828</v>
       </c>
       <c r="B685" s="8" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="C685" s="10">
         <v>681</v>
@@ -22608,10 +22608,10 @@
     </row>
     <row r="686" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A686" s="8" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="B686" s="8" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="C686" s="11">
         <v>878</v>
@@ -22628,10 +22628,10 @@
     </row>
     <row r="687" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A687" s="8" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B687" s="8" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="C687" s="10">
         <v>492</v>
@@ -22648,10 +22648,10 @@
     </row>
     <row r="688" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A688" s="8" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B688" s="8" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="C688" s="11">
         <v>240</v>
@@ -22688,10 +22688,10 @@
     </row>
     <row r="690" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A690" s="8" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B690" s="8" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="C690" s="11">
         <v>520</v>
@@ -22711,7 +22711,7 @@
         <v>835</v>
       </c>
       <c r="B691" s="8" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="C691" s="10">
         <v>252</v>
@@ -22728,10 +22728,10 @@
     </row>
     <row r="692" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A692" s="8" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="B692" s="8" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="C692" s="11">
         <v>91</v>
@@ -22748,10 +22748,10 @@
     </row>
     <row r="693" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A693" s="8" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="B693" s="8" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="C693" s="10">
         <v>317</v>
@@ -22768,10 +22768,10 @@
     </row>
     <row r="694" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A694" s="8" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="B694" s="8" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="C694" s="11">
         <v>948</v>
@@ -22788,10 +22788,10 @@
     </row>
     <row r="695" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A695" s="8" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="B695" s="8" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="C695" s="10">
         <v>526</v>
@@ -22808,10 +22808,10 @@
     </row>
     <row r="696" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A696" s="8" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="B696" s="8" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="C696" s="10">
         <v>484</v>
@@ -22828,10 +22828,10 @@
     </row>
     <row r="697" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A697" s="8" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="B697" s="8" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="C697" s="11">
         <v>882</v>
@@ -22851,7 +22851,7 @@
         <v>841</v>
       </c>
       <c r="B698" s="8" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="C698" s="11">
         <v>128</v>
@@ -22868,10 +22868,10 @@
     </row>
     <row r="699" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A699" s="8" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B699" s="8" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="C699" s="10">
         <v>784</v>
@@ -22891,7 +22891,7 @@
         <v>1555</v>
       </c>
       <c r="B700" s="8" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="C700" s="11">
         <v>746</v>
@@ -22928,10 +22928,10 @@
     </row>
     <row r="702" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A702" s="8" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="B702" s="8" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="C702" s="11">
         <v>929</v>
@@ -22948,10 +22948,10 @@
     </row>
     <row r="703" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A703" s="8" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B703" s="8" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C703" s="10">
         <v>348</v>
@@ -22968,10 +22968,10 @@
     </row>
     <row r="704" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A704" s="8" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B704" s="8" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="C704" s="11">
         <v>835</v>
@@ -22988,10 +22988,10 @@
     </row>
     <row r="705" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A705" s="8" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B705" s="8" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="C705" s="10">
         <v>604</v>
@@ -23008,10 +23008,10 @@
     </row>
     <row r="706" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A706" s="8" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="B706" s="8" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="C706" s="11">
         <v>720</v>
@@ -23051,7 +23051,7 @@
         <v>1548</v>
       </c>
       <c r="B708" s="8" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="C708" s="11">
         <v>537</v>
@@ -23068,10 +23068,10 @@
     </row>
     <row r="709" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A709" s="8" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="B709" s="8" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="C709" s="10">
         <v>930</v>
@@ -23088,10 +23088,10 @@
     </row>
     <row r="710" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A710" s="8" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="B710" s="8" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="C710" s="11">
         <v>854</v>
@@ -23128,10 +23128,10 @@
     </row>
     <row r="712" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A712" s="8" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B712" s="8" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="C712" s="11">
         <v>373</v>
@@ -23151,7 +23151,7 @@
         <v>861</v>
       </c>
       <c r="B713" s="8" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="C713" s="10">
         <v>903</v>
@@ -23168,10 +23168,10 @@
     </row>
     <row r="714" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A714" s="8" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="B714" s="8" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="C714" s="11">
         <v>620</v>
@@ -23188,10 +23188,10 @@
     </row>
     <row r="715" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A715" s="8" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="B715" s="8" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="C715" s="10">
         <v>517</v>
@@ -23268,10 +23268,10 @@
     </row>
     <row r="719" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A719" s="8" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="B719" s="8" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="C719" s="10">
         <v>650</v>
@@ -23288,10 +23288,10 @@
     </row>
     <row r="720" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A720" s="8" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="B720" s="8" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="C720" s="11">
         <v>708</v>
@@ -23308,10 +23308,10 @@
     </row>
     <row r="721" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A721" s="8" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B721" s="8" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="C721" s="10">
         <v>569</v>
@@ -23331,7 +23331,7 @@
         <v>1311</v>
       </c>
       <c r="B722" s="8" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="C722" s="11">
         <v>166</v>
@@ -23351,7 +23351,7 @@
         <v>872</v>
       </c>
       <c r="B723" s="8" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="C723" s="10">
         <v>336</v>
@@ -23371,7 +23371,7 @@
         <v>1310</v>
       </c>
       <c r="B724" s="8" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="C724" s="11">
         <v>113</v>
@@ -23388,10 +23388,10 @@
     </row>
     <row r="725" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A725" s="8" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="B725" s="8" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="C725" s="10">
         <v>263</v>
@@ -23451,7 +23451,7 @@
         <v>880</v>
       </c>
       <c r="B728" s="8" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="C728" s="11">
         <v>489</v>
@@ -23471,7 +23471,7 @@
         <v>882</v>
       </c>
       <c r="B729" s="8" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="C729" s="10">
         <v>621</v>
@@ -23508,10 +23508,10 @@
     </row>
     <row r="731" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A731" s="8" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="B731" s="8" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="C731" s="10">
         <v>311</v>
@@ -23531,7 +23531,7 @@
         <v>887</v>
       </c>
       <c r="B732" s="8" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="C732" s="11">
         <v>786</v>
@@ -23648,10 +23648,10 @@
     </row>
     <row r="738" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A738" s="8" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="B738" s="8" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="C738" s="11">
         <v>3</v>
@@ -23688,10 +23688,10 @@
     </row>
     <row r="740" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A740" s="8" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="B740" s="8" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="C740" s="11">
         <v>284</v>
@@ -23708,10 +23708,10 @@
     </row>
     <row r="741" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A741" s="8" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="B741" s="8" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="C741" s="10">
         <v>126</v>
@@ -23751,7 +23751,7 @@
         <v>1463</v>
       </c>
       <c r="B743" s="8" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="C743" s="10">
         <v>969</v>
@@ -23771,7 +23771,7 @@
         <v>906</v>
       </c>
       <c r="B744" s="8" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="C744" s="11">
         <v>456</v>
@@ -23791,7 +23791,7 @@
         <v>908</v>
       </c>
       <c r="B745" s="8" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="C745" s="10">
         <v>499</v>
@@ -23808,10 +23808,10 @@
     </row>
     <row r="746" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A746" s="8" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="B746" s="8" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="C746" s="11">
         <v>212</v>
@@ -23828,10 +23828,10 @@
     </row>
     <row r="747" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A747" s="8" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="B747" s="8" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="C747" s="10">
         <v>280</v>
@@ -23848,10 +23848,10 @@
     </row>
     <row r="748" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A748" s="8" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="B748" s="8" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="C748" s="11">
         <v>197</v>
@@ -23868,10 +23868,10 @@
     </row>
     <row r="749" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A749" s="8" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="B749" s="8" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="C749" s="10">
         <v>129</v>
@@ -23891,7 +23891,7 @@
         <v>914</v>
       </c>
       <c r="B750" s="8" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="C750" s="11">
         <v>305</v>
@@ -23911,7 +23911,7 @@
         <v>916</v>
       </c>
       <c r="B751" s="8" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="C751" s="10">
         <v>831</v>
@@ -23991,7 +23991,7 @@
         <v>924</v>
       </c>
       <c r="B755" s="8" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="C755" s="10">
         <v>970</v>
@@ -24008,10 +24008,10 @@
     </row>
     <row r="756" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A756" s="8" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="B756" s="8" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="C756" s="11">
         <v>273</v>
@@ -24031,7 +24031,7 @@
         <v>1530</v>
       </c>
       <c r="B757" s="8" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="C757" s="10">
         <v>752</v>
@@ -24051,7 +24051,7 @@
         <v>1313</v>
       </c>
       <c r="B758" s="8" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="C758" s="11">
         <v>256</v>
@@ -24071,7 +24071,7 @@
         <v>1559</v>
       </c>
       <c r="B759" s="8" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="C759" s="10">
         <v>826</v>
@@ -24088,10 +24088,10 @@
     </row>
     <row r="760" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A760" s="8" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="B760" s="8" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="C760" s="11">
         <v>781</v>
@@ -24108,10 +24108,10 @@
     </row>
     <row r="761" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A761" s="8" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="B761" s="8" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="C761" s="10">
         <v>319</v>
@@ -24131,7 +24131,7 @@
         <v>1532</v>
       </c>
       <c r="B762" s="8" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="C762" s="11">
         <v>823</v>
@@ -24148,10 +24148,10 @@
     </row>
     <row r="763" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A763" s="8" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B763" s="8" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="C763" s="10">
         <v>174</v>
@@ -24171,7 +24171,7 @@
         <v>1546</v>
       </c>
       <c r="B764" s="8" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="C764" s="11">
         <v>301</v>
@@ -24188,10 +24188,10 @@
     </row>
     <row r="765" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A765" s="8" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B765" s="8" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="C765" s="10">
         <v>171</v>
@@ -24211,7 +24211,7 @@
         <v>1393</v>
       </c>
       <c r="B766" s="8" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="C766" s="11">
         <v>585</v>
@@ -24231,7 +24231,7 @@
         <v>1618</v>
       </c>
       <c r="B767" s="8" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="C767" s="10">
         <v>561</v>
@@ -24251,7 +24251,7 @@
         <v>1381</v>
       </c>
       <c r="B768" s="8" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="C768" s="11">
         <v>121</v>
@@ -24268,10 +24268,10 @@
     </row>
     <row r="769" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A769" s="8" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="B769" s="8" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="C769" s="10">
         <v>554</v>
@@ -24291,7 +24291,7 @@
         <v>1543</v>
       </c>
       <c r="B770" s="8" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="C770" s="11">
         <v>144</v>
@@ -24351,7 +24351,7 @@
         <v>1333</v>
       </c>
       <c r="B773" s="8" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="C773" s="10">
         <v>765</v>
@@ -24368,10 +24368,10 @@
     </row>
     <row r="774" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A774" s="8" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="B774" s="8" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="C774" s="11">
         <v>651</v>
@@ -24391,7 +24391,7 @@
         <v>1436</v>
       </c>
       <c r="B775" s="8" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="C775" s="10">
         <v>38</v>
@@ -24408,10 +24408,10 @@
     </row>
     <row r="776" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A776" s="8" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B776" s="8" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="C776" s="11">
         <v>722</v>
@@ -24428,10 +24428,10 @@
     </row>
     <row r="777" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A777" s="8" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="B777" s="8" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="C777" s="10">
         <v>535</v>
@@ -24448,10 +24448,10 @@
     </row>
     <row r="778" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A778" s="8" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="B778" s="8" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="C778" s="11">
         <v>647</v>
@@ -24491,7 +24491,7 @@
         <v>1566</v>
       </c>
       <c r="B780" s="8" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="C780" s="10">
         <v>995</v>
@@ -24508,10 +24508,10 @@
     </row>
     <row r="781" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A781" s="8" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="B781" s="8" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="C781" s="11">
         <v>813</v>
@@ -24528,10 +24528,10 @@
     </row>
     <row r="782" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A782" s="8" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="B782" s="8" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="C782" s="11">
         <v>60</v>
@@ -24551,7 +24551,7 @@
         <v>1376</v>
       </c>
       <c r="B783" s="8" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="C783" s="10">
         <v>874</v>
@@ -24571,7 +24571,7 @@
         <v>1302</v>
       </c>
       <c r="B784" s="8" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="C784" s="11">
         <v>662</v>
@@ -24588,10 +24588,10 @@
     </row>
     <row r="785" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A785" s="8" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="B785" s="8" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="C785" s="10">
         <v>551</v>
@@ -24608,10 +24608,10 @@
     </row>
     <row r="786" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A786" s="8" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B786" s="8" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="C786" s="11">
         <v>480</v>
@@ -24631,7 +24631,7 @@
         <v>957</v>
       </c>
       <c r="B787" s="8" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="C787" s="10">
         <v>440</v>
@@ -24651,7 +24651,7 @@
         <v>1394</v>
       </c>
       <c r="B788" s="8" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="C788" s="11">
         <v>879</v>
@@ -24668,10 +24668,10 @@
     </row>
     <row r="789" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A789" s="8" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="B789" s="8" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="C789" s="10">
         <v>398</v>
@@ -24688,10 +24688,10 @@
     </row>
     <row r="790" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A790" s="8" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="B790" s="8" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="C790" s="11">
         <v>939</v>
@@ -24771,7 +24771,7 @@
         <v>1450</v>
       </c>
       <c r="B794" s="8" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="C794" s="11">
         <v>549</v>
@@ -24788,10 +24788,10 @@
     </row>
     <row r="795" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A795" s="8" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="B795" s="8" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="C795" s="10">
         <v>659</v>
@@ -24808,10 +24808,10 @@
     </row>
     <row r="796" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A796" s="8" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B796" s="8" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="C796" s="11">
         <v>214</v>
@@ -24831,7 +24831,7 @@
         <v>1460</v>
       </c>
       <c r="B797" s="8" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="C797" s="10">
         <v>946</v>
@@ -24851,7 +24851,7 @@
         <v>1320</v>
       </c>
       <c r="B798" s="8" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="C798" s="11">
         <v>453</v>
@@ -24891,7 +24891,7 @@
         <v>1518</v>
       </c>
       <c r="B800" s="8" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="C800" s="11">
         <v>341</v>
@@ -24971,7 +24971,7 @@
         <v>976</v>
       </c>
       <c r="B804" s="8" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="C804" s="11">
         <v>889</v>
@@ -24991,7 +24991,7 @@
         <v>1312</v>
       </c>
       <c r="B805" s="8" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="C805" s="10">
         <v>172</v>
@@ -25008,10 +25008,10 @@
     </row>
     <row r="806" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A806" s="8" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B806" s="8" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="C806" s="11">
         <v>568</v>
@@ -25051,7 +25051,7 @@
         <v>1624</v>
       </c>
       <c r="B808" s="8" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="C808" s="11">
         <v>697</v>
@@ -25088,10 +25088,10 @@
     </row>
     <row r="810" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A810" s="8" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="B810" s="8" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="C810" s="11">
         <v>506</v>
@@ -25108,10 +25108,10 @@
     </row>
     <row r="811" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A811" s="8" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="B811" s="8" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="C811" s="10">
         <v>403</v>
@@ -25168,10 +25168,10 @@
     </row>
     <row r="814" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A814" s="8" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="B814" s="8" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="C814" s="11">
         <v>329</v>
@@ -25211,7 +25211,7 @@
         <v>1373</v>
       </c>
       <c r="B816" s="8" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="C816" s="11">
         <v>793</v>
@@ -25251,7 +25251,7 @@
         <v>1571</v>
       </c>
       <c r="B818" s="8" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="C818" s="11">
         <v>302</v>
@@ -25308,10 +25308,10 @@
     </row>
     <row r="821" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A821" s="8" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="B821" s="8" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="C821" s="10">
         <v>575</v>
@@ -25328,10 +25328,10 @@
     </row>
     <row r="822" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A822" s="8" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="B822" s="8" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="C822" s="11">
         <v>883</v>
@@ -25348,10 +25348,10 @@
     </row>
     <row r="823" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A823" s="8" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="B823" s="8" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="C823" s="10">
         <v>289</v>
@@ -25368,10 +25368,10 @@
     </row>
     <row r="824" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A824" s="8" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="B824" s="8" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="C824" s="11">
         <v>496</v>
@@ -25411,7 +25411,7 @@
         <v>1003</v>
       </c>
       <c r="B826" s="8" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="C826" s="11">
         <v>16</v>
@@ -25431,7 +25431,7 @@
         <v>1005</v>
       </c>
       <c r="B827" s="8" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="C827" s="10">
         <v>79</v>
@@ -25451,7 +25451,7 @@
         <v>1007</v>
       </c>
       <c r="B828" s="8" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="C828" s="11">
         <v>791</v>
@@ -25471,7 +25471,7 @@
         <v>1208</v>
       </c>
       <c r="B829" s="8" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="C829" s="10">
         <v>359</v>
@@ -25488,10 +25488,10 @@
     </row>
     <row r="830" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A830" s="8" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B830" s="8" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="C830" s="11">
         <v>261</v>
@@ -25591,7 +25591,7 @@
         <v>1521</v>
       </c>
       <c r="B835" s="8" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="C835" s="10">
         <v>507</v>
@@ -25608,10 +25608,10 @@
     </row>
     <row r="836" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A836" s="8" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="B836" s="8" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="C836" s="11">
         <v>717</v>
@@ -25651,7 +25651,7 @@
         <v>1020</v>
       </c>
       <c r="B838" s="8" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="C838" s="11">
         <v>362</v>
@@ -25668,10 +25668,10 @@
     </row>
     <row r="839" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A839" s="8" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="B839" s="8" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="C839" s="10">
         <v>372</v>
@@ -25691,7 +25691,7 @@
         <v>1207</v>
       </c>
       <c r="B840" s="8" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="C840" s="11">
         <v>320</v>
@@ -25711,7 +25711,7 @@
         <v>1602</v>
       </c>
       <c r="B841" s="8" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="C841" s="10">
         <v>246</v>
@@ -25731,7 +25731,7 @@
         <v>1025</v>
       </c>
       <c r="B842" s="8" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="C842" s="11">
         <v>897</v>
@@ -25751,7 +25751,7 @@
         <v>1505</v>
       </c>
       <c r="B843" s="8" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="C843" s="11">
         <v>176</v>
@@ -25768,10 +25768,10 @@
     </row>
     <row r="844" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A844" s="8" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="B844" s="8" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="C844" s="10">
         <v>325</v>
@@ -25811,7 +25811,7 @@
         <v>1581</v>
       </c>
       <c r="B846" s="8" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="C846" s="11">
         <v>583</v>
@@ -25828,10 +25828,10 @@
     </row>
     <row r="847" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A847" s="8" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="B847" s="8" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="C847" s="10">
         <v>497</v>
@@ -25848,10 +25848,10 @@
     </row>
     <row r="848" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A848" s="8" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="B848" s="8" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="C848" s="11">
         <v>639</v>
@@ -25871,7 +25871,7 @@
         <v>1299</v>
       </c>
       <c r="B849" s="8" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="C849" s="10">
         <v>532</v>
@@ -25908,10 +25908,10 @@
     </row>
     <row r="851" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A851" s="8" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B851" s="8" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="C851" s="10">
         <v>599</v>
@@ -25928,10 +25928,10 @@
     </row>
     <row r="852" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A852" s="8" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B852" s="8" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="C852" s="11">
         <v>473</v>
@@ -25951,7 +25951,7 @@
         <v>1366</v>
       </c>
       <c r="B853" s="8" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="C853" s="10">
         <v>648</v>
@@ -25971,7 +25971,7 @@
         <v>1350</v>
       </c>
       <c r="B854" s="8" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="C854" s="11">
         <v>232</v>
@@ -25991,7 +25991,7 @@
         <v>1453</v>
       </c>
       <c r="B855" s="8" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="C855" s="10">
         <v>703</v>
@@ -26031,7 +26031,7 @@
         <v>1410</v>
       </c>
       <c r="B857" s="8" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="C857" s="10">
         <v>678</v>
@@ -26071,7 +26071,7 @@
         <v>1442</v>
       </c>
       <c r="B859" s="8" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="C859" s="10">
         <v>168</v>
@@ -26091,7 +26091,7 @@
         <v>1379</v>
       </c>
       <c r="B860" s="8" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="C860" s="11">
         <v>989</v>
@@ -26151,7 +26151,7 @@
         <v>1549</v>
       </c>
       <c r="B863" s="8" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="C863" s="10">
         <v>538</v>
@@ -26171,7 +26171,7 @@
         <v>1050</v>
       </c>
       <c r="B864" s="8" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="C864" s="11">
         <v>848</v>
@@ -26188,10 +26188,10 @@
     </row>
     <row r="865" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A865" s="8" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="B865" s="8" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="C865" s="10">
         <v>17</v>
@@ -26231,7 +26231,7 @@
         <v>1547</v>
       </c>
       <c r="B867" s="8" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="C867" s="10">
         <v>454</v>
@@ -26288,10 +26288,10 @@
     </row>
     <row r="870" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A870" s="8" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="B870" s="8" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="C870" s="11">
         <v>714</v>
@@ -26308,10 +26308,10 @@
     </row>
     <row r="871" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A871" s="8" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B871" s="8" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="C871" s="10">
         <v>668</v>
@@ -26328,10 +26328,10 @@
     </row>
     <row r="872" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A872" s="8" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="B872" s="8" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="C872" s="11">
         <v>623</v>
@@ -26348,10 +26348,10 @@
     </row>
     <row r="873" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A873" s="8" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="B873" s="8" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="C873" s="10">
         <v>99</v>
@@ -26391,7 +26391,7 @@
         <v>1063</v>
       </c>
       <c r="B875" s="8" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="C875" s="10">
         <v>588</v>
@@ -26411,7 +26411,7 @@
         <v>1300</v>
       </c>
       <c r="B876" s="8" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="C876" s="11">
         <v>570</v>
@@ -26428,10 +26428,10 @@
     </row>
     <row r="877" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A877" s="8" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="B877" s="8" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="C877" s="10">
         <v>937</v>
@@ -26448,10 +26448,10 @@
     </row>
     <row r="878" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A878" s="8" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="B878" s="8" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="C878" s="11">
         <v>762</v>
@@ -26468,10 +26468,10 @@
     </row>
     <row r="879" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A879" s="8" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B879" s="8" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="C879" s="10">
         <v>27</v>
@@ -26491,7 +26491,7 @@
         <v>1573</v>
       </c>
       <c r="B880" s="8" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="C880" s="11">
         <v>369</v>
@@ -26511,7 +26511,7 @@
         <v>1508</v>
       </c>
       <c r="B881" s="8" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="C881" s="10">
         <v>203</v>
@@ -26611,7 +26611,7 @@
         <v>1580</v>
       </c>
       <c r="B886" s="8" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="C886" s="11">
         <v>534</v>
@@ -26631,7 +26631,7 @@
         <v>1509</v>
       </c>
       <c r="B887" s="8" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="C887" s="10">
         <v>216</v>
@@ -26668,10 +26668,10 @@
     </row>
     <row r="889" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A889" s="8" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="B889" s="8" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="C889" s="10">
         <v>738</v>
@@ -26691,7 +26691,7 @@
         <v>1277</v>
       </c>
       <c r="B890" s="8" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="C890" s="11">
         <v>386</v>
@@ -26711,7 +26711,7 @@
         <v>1276</v>
       </c>
       <c r="B891" s="8" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="C891" s="10">
         <v>376</v>
@@ -26748,10 +26748,10 @@
     </row>
     <row r="893" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A893" s="8" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B893" s="8" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="C893" s="10">
         <v>255</v>
@@ -26788,10 +26788,10 @@
     </row>
     <row r="895" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A895" s="8" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B895" s="8" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="C895" s="10">
         <v>485</v>
@@ -26811,7 +26811,7 @@
         <v>1480</v>
       </c>
       <c r="B896" s="8" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="C896" s="10">
         <v>430</v>
@@ -26828,10 +26828,10 @@
     </row>
     <row r="897" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A897" s="8" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="B897" s="8" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="C897" s="11">
         <v>89</v>
@@ -26848,10 +26848,10 @@
     </row>
     <row r="898" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A898" s="8" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="B898" s="8" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="C898" s="10">
         <v>529</v>
@@ -26868,10 +26868,10 @@
     </row>
     <row r="899" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A899" s="8" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B899" s="8" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="C899" s="11">
         <v>775</v>
@@ -26891,7 +26891,7 @@
         <v>1568</v>
       </c>
       <c r="B900" s="8" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="C900" s="10">
         <v>106</v>
@@ -26928,10 +26928,10 @@
     </row>
     <row r="902" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A902" s="8" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="B902" s="8" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="C902" s="11">
         <v>474</v>
@@ -26971,7 +26971,7 @@
         <v>1368</v>
       </c>
       <c r="B904" s="8" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="C904" s="11">
         <v>705</v>
@@ -27031,7 +27031,7 @@
         <v>1346</v>
       </c>
       <c r="B907" s="8" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="C907" s="10">
         <v>153</v>
@@ -27068,10 +27068,10 @@
     </row>
     <row r="909" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A909" s="8" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="B909" s="8" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="C909" s="10">
         <v>293</v>
@@ -27111,7 +27111,7 @@
         <v>1499</v>
       </c>
       <c r="B911" s="8" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="C911" s="10">
         <v>78</v>
@@ -27131,7 +27131,7 @@
         <v>1250</v>
       </c>
       <c r="B912" s="8" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="C912" s="11">
         <v>297</v>
@@ -27148,10 +27148,10 @@
     </row>
     <row r="913" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A913" s="8" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="B913" s="8" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="C913" s="10">
         <v>213</v>
@@ -27168,10 +27168,10 @@
     </row>
     <row r="914" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A914" s="8" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="B914" s="8" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="C914" s="11">
         <v>431</v>
@@ -27191,7 +27191,7 @@
         <v>1522</v>
       </c>
       <c r="B915" s="8" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="C915" s="10">
         <v>533</v>
@@ -27208,10 +27208,10 @@
     </row>
     <row r="916" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A916" s="8" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="B916" s="8" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="C916" s="11">
         <v>807</v>
@@ -27231,7 +27231,7 @@
         <v>1352</v>
       </c>
       <c r="B917" s="8" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="C917" s="10">
         <v>275</v>
@@ -27248,10 +27248,10 @@
     </row>
     <row r="918" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A918" s="8" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B918" s="8" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="C918" s="11">
         <v>9</v>
@@ -27268,10 +27268,10 @@
     </row>
     <row r="919" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A919" s="8" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="B919" s="8" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="C919" s="10">
         <v>56</v>
@@ -27288,10 +27288,10 @@
     </row>
     <row r="920" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A920" s="8" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="B920" s="8" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="C920" s="11">
         <v>323</v>
@@ -27308,10 +27308,10 @@
     </row>
     <row r="921" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A921" s="8" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="B921" s="8" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="C921" s="10">
         <v>868</v>
@@ -27348,10 +27348,10 @@
     </row>
     <row r="923" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A923" s="8" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B923" s="8" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="C923" s="10">
         <v>365</v>
@@ -27368,10 +27368,10 @@
     </row>
     <row r="924" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A924" s="8" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="B924" s="8" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="C924" s="11">
         <v>44</v>
@@ -27408,10 +27408,10 @@
     </row>
     <row r="926" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A926" s="8" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="B926" s="8" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="C926" s="11">
         <v>178</v>
@@ -27451,7 +27451,7 @@
         <v>1166</v>
       </c>
       <c r="B928" s="8" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="C928" s="11">
         <v>600</v>
@@ -27468,10 +27468,10 @@
     </row>
     <row r="929" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A929" s="8" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="B929" s="8" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="C929" s="10">
         <v>257</v>
@@ -27571,7 +27571,7 @@
         <v>1497</v>
       </c>
       <c r="B934" s="8" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="C934" s="11">
         <v>53</v>
@@ -27588,10 +27588,10 @@
     </row>
     <row r="935" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A935" s="8" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="B935" s="8" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="C935" s="11">
         <v>82</v>
@@ -27611,7 +27611,7 @@
         <v>1187</v>
       </c>
       <c r="B936" s="8" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="C936" s="10">
         <v>527</v>
@@ -27631,7 +27631,7 @@
         <v>1319</v>
       </c>
       <c r="B937" s="8" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="C937" s="11">
         <v>446</v>
@@ -27648,10 +27648,10 @@
     </row>
     <row r="938" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A938" s="8" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="B938" s="8" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="C938" s="10">
         <v>15</v>
@@ -27691,7 +27691,7 @@
         <v>1488</v>
       </c>
       <c r="B940" s="8" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="C940" s="10">
         <v>850</v>
@@ -27711,7 +27711,7 @@
         <v>1479</v>
       </c>
       <c r="B941" s="8" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="C941" s="11">
         <v>330</v>
@@ -27748,10 +27748,10 @@
     </row>
     <row r="943" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A943" s="8" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="B943" s="8" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="C943" s="11">
         <v>552</v>
@@ -27771,7 +27771,7 @@
         <v>1528</v>
       </c>
       <c r="B944" s="8" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="C944" s="10">
         <v>724</v>
@@ -27808,10 +27808,10 @@
     </row>
     <row r="946" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A946" s="8" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="B946" s="8" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="C946" s="10">
         <v>674</v>
@@ -27828,10 +27828,10 @@
     </row>
     <row r="947" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A947" s="8" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B947" s="8" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="C947" s="11">
         <v>539</v>
@@ -27908,10 +27908,10 @@
     </row>
     <row r="951" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A951" s="8" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B951" s="8" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="C951" s="11">
         <v>684</v>
@@ -27948,10 +27948,10 @@
     </row>
     <row r="953" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A953" s="8" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="B953" s="8" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="C953" s="10">
         <v>632</v>
@@ -28011,7 +28011,7 @@
         <v>1540</v>
       </c>
       <c r="B956" s="8" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="C956" s="11">
         <v>63</v>
@@ -28048,10 +28048,10 @@
     </row>
     <row r="958" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A958" s="8" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B958" s="8" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C958" s="11">
         <v>188</v>
@@ -28071,7 +28071,7 @@
         <v>1136</v>
       </c>
       <c r="B959" s="8" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="C959" s="10">
         <v>983</v>
@@ -28111,7 +28111,7 @@
         <v>1139</v>
       </c>
       <c r="B961" s="8" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="C961" s="10">
         <v>280</v>
@@ -28131,7 +28131,7 @@
         <v>1545</v>
       </c>
       <c r="B962" s="8" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="C962" s="11">
         <v>288</v>
@@ -28148,10 +28148,10 @@
     </row>
     <row r="963" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A963" s="8" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="B963" s="8" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="C963" s="10">
         <v>410</v>
@@ -28168,10 +28168,10 @@
     </row>
     <row r="964" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A964" s="8" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="B964" s="8" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="C964" s="11">
         <v>282</v>
@@ -28188,10 +28188,10 @@
     </row>
     <row r="965" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A965" s="8" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="B965" s="8" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="C965" s="10">
         <v>716</v>
@@ -28228,10 +28228,10 @@
     </row>
     <row r="967" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A967" s="8" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="B967" s="8" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="C967" s="10">
         <v>665</v>
@@ -28248,10 +28248,10 @@
     </row>
     <row r="968" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A968" s="8" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="B968" s="8" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="C968" s="11">
         <v>295</v>
@@ -28268,10 +28268,10 @@
     </row>
     <row r="969" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A969" s="8" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="B969" s="8" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="C969" s="10">
         <v>196</v>
@@ -28291,7 +28291,7 @@
         <v>1396</v>
       </c>
       <c r="B970" s="8" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="C970" s="11">
         <v>940</v>
@@ -28308,10 +28308,10 @@
     </row>
     <row r="971" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A971" s="8" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B971" s="8" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C971" s="10">
         <v>340</v>
@@ -28328,10 +28328,10 @@
     </row>
     <row r="972" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A972" s="8" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B972" s="8" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="C972" s="11">
         <v>750</v>
@@ -28348,10 +28348,10 @@
     </row>
     <row r="973" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A973" s="8" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="B973" s="8" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="C973" s="10">
         <v>31</v>
@@ -28368,10 +28368,10 @@
     </row>
     <row r="974" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A974" s="8" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="B974" s="8" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="C974" s="11">
         <v>101</v>
@@ -28388,10 +28388,10 @@
     </row>
     <row r="975" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A975" s="8" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B975" s="8" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C975" s="10">
         <v>594</v>
@@ -28411,7 +28411,7 @@
         <v>1233</v>
       </c>
       <c r="B976" s="8" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="C976" s="11">
         <v>640</v>
@@ -28451,7 +28451,7 @@
         <v>1592</v>
       </c>
       <c r="B978" s="8" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="C978" s="11">
         <v>418</v>
@@ -28471,7 +28471,7 @@
         <v>1597</v>
       </c>
       <c r="B979" s="8" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="C979" s="10">
         <v>111</v>
@@ -28488,10 +28488,10 @@
     </row>
     <row r="980" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A980" s="8" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B980" s="8" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="C980" s="11">
         <v>115</v>
@@ -28511,7 +28511,7 @@
         <v>1438</v>
       </c>
       <c r="B981" s="8" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="C981" s="10">
         <v>87</v>
@@ -28548,10 +28548,10 @@
     </row>
     <row r="983" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A983" s="8" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="B983" s="8" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="C983" s="10">
         <v>881</v>
@@ -28571,7 +28571,7 @@
         <v>1441</v>
       </c>
       <c r="B984" s="8" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="C984" s="11">
         <v>156</v>
@@ -28608,10 +28608,10 @@
     </row>
     <row r="986" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A986" s="8" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="B986" s="8" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="C986" s="10">
         <v>158</v>
@@ -28631,7 +28631,7 @@
         <v>1344</v>
       </c>
       <c r="B987" s="8" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="C987" s="11">
         <v>66</v>
@@ -28691,7 +28691,7 @@
         <v>1375</v>
       </c>
       <c r="B990" s="8" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="C990" s="10">
         <v>859</v>
@@ -28708,10 +28708,10 @@
     </row>
     <row r="991" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A991" s="8" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B991" s="8" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="C991" s="11">
         <v>378</v>
@@ -28731,7 +28731,7 @@
         <v>1182</v>
       </c>
       <c r="B992" s="8" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="C992" s="10">
         <v>130</v>
@@ -28748,10 +28748,10 @@
     </row>
     <row r="993" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A993" s="8" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="B993" s="8" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="C993" s="11">
         <v>334</v>
@@ -28768,10 +28768,10 @@
     </row>
     <row r="994" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A994" s="8" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="B994" s="8" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="C994" s="10">
         <v>169</v>
@@ -28791,7 +28791,7 @@
         <v>1196</v>
       </c>
       <c r="B995" s="8" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="C995" s="11">
         <v>991</v>
@@ -28808,10 +28808,10 @@
     </row>
     <row r="996" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A996" s="8" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="B996" s="8" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="C996" s="10">
         <v>675</v>
@@ -28828,10 +28828,10 @@
     </row>
     <row r="997" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A997" s="8" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="B997" s="8" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="C997" s="11">
         <v>327</v>
@@ -28848,10 +28848,10 @@
     </row>
     <row r="998" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A998" s="8" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="B998" s="8" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="C998" s="10">
         <v>209</v>
@@ -28893,19 +28893,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
+        <v>2029</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2030</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2031</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2032</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>2033</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2034</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28916,16 +28916,16 @@
         <v>1335</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>2036</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>2037</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>2038</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>2039</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28936,13 +28936,13 @@
         <v>1474</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>2040</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>2041</v>
       </c>
       <c r="F3" s="5"/>
     </row>
@@ -28951,19 +28951,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>2041</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>2042</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>2043</v>
-      </c>
       <c r="F4" s="5" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28974,13 +28974,13 @@
         <v>1344</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>2043</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>2044</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>2045</v>
       </c>
       <c r="F5" s="5"/>
     </row>
@@ -28992,16 +28992,16 @@
         <v>375</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>2050</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>2051</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>2052</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>2053</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29009,19 +29009,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>2053</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>2054</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>2055</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>2056</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29029,19 +29029,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>2056</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>2057</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>2058</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>2059</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29055,13 +29055,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>2059</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>2060</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>2061</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>2062</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29075,13 +29075,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>2062</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>2063</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>2064</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>2065</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29095,13 +29095,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>2065</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>2066</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>2067</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>2068</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29115,13 +29115,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>2069</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>2070</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>2071</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29129,19 +29129,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>2071</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>2072</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>2073</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>2074</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29149,19 +29149,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>2076</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>2077</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>2078</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29175,13 +29175,13 @@
         <v>1</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>2078</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>2079</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>2080</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>2081</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29189,19 +29189,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>2081</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>2082</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>2083</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29209,19 +29209,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="C17" s="5">
         <v>2</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="E17" s="5" t="s">
+        <v>2092</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>2093</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>2094</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29235,13 +29235,13 @@
         <v>2</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29255,13 +29255,13 @@
         <v>2</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="E19" s="5" t="s">
+        <v>2095</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>2096</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>2097</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29275,13 +29275,13 @@
         <v>2</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29295,10 +29295,10 @@
         <v>2</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -29313,13 +29313,13 @@
         <v>2</v>
       </c>
       <c r="D22" s="5" t="s">
+        <v>2098</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>2099</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>2100</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>2101</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29333,13 +29333,13 @@
         <v>2</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29347,19 +29347,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="C24" s="5">
         <v>2</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29373,13 +29373,13 @@
         <v>2</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29393,13 +29393,13 @@
         <v>2</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="E26" s="5" t="s">
+        <v>2109</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>2110</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>2111</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29410,16 +29410,16 @@
         <v>1475</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D27" s="5" t="s">
+        <v>2111</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>2112</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="F27" s="5" t="s">
         <v>2113</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>2114</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29427,19 +29427,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D28" s="5" t="s">
+        <v>2114</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>2115</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="F28" s="5" t="s">
         <v>2116</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>2117</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29447,19 +29447,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29467,19 +29467,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="C30" s="5">
         <v>3</v>
       </c>
       <c r="D30" s="5" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>2119</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="F30" s="5" t="s">
         <v>2120</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>2121</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29487,19 +29487,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="C31" s="5">
         <v>3</v>
       </c>
       <c r="D31" s="5" t="s">
+        <v>2121</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>2122</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="F31" s="5" t="s">
         <v>2123</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>2124</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29513,13 +29513,13 @@
         <v>3</v>
       </c>
       <c r="D32" s="5" t="s">
+        <v>2124</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>2125</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>2126</v>
-      </c>
       <c r="F32" s="5" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29527,19 +29527,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="C33" s="5">
         <v>3</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="E33" s="5" t="s">
+        <v>2128</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>2129</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>2130</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29547,19 +29547,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="C34" s="5">
         <v>3</v>
       </c>
       <c r="D34" s="5" t="s">
+        <v>2130</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>2131</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="F34" s="5" t="s">
         <v>2132</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>2133</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29573,13 +29573,13 @@
         <v>3</v>
       </c>
       <c r="D35" s="5" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>2134</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="F35" s="5" t="s">
         <v>2135</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>2136</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29593,13 +29593,13 @@
         <v>3</v>
       </c>
       <c r="D36" s="5" t="s">
+        <v>2136</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>2138</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>2137</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>2139</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>2138</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29607,19 +29607,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="C37" s="5">
         <v>3</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29627,19 +29627,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="C38" s="5">
         <v>3</v>
       </c>
       <c r="D38" s="5" t="s">
+        <v>2140</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>2141</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="F38" s="5" t="s">
         <v>2142</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>2143</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29653,13 +29653,13 @@
         <v>3</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="E39" s="5" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>2147</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>2148</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29673,13 +29673,13 @@
         <v>3</v>
       </c>
       <c r="D40" s="5" t="s">
+        <v>2148</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>2149</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="F40" s="5" t="s">
         <v>2150</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>2151</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29687,19 +29687,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="C41" s="5">
         <v>3</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29707,19 +29707,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="C42" s="5">
         <v>3</v>
       </c>
       <c r="D42" s="5" t="s">
+        <v>2153</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>2154</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="F42" s="5" t="s">
         <v>2155</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>2156</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29727,19 +29727,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="C43" s="5">
         <v>3</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="E43" s="5" t="s">
+        <v>2159</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>2160</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>2161</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29747,19 +29747,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="C44" s="5">
         <v>3</v>
       </c>
       <c r="D44" s="5" t="s">
+        <v>2161</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>2162</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="F44" s="5" t="s">
         <v>2163</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>2164</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29767,19 +29767,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C45" s="5">
         <v>3</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29787,19 +29787,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="C46" s="5">
         <v>3</v>
       </c>
       <c r="D46" s="5" t="s">
+        <v>2167</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>2168</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="F46" s="5" t="s">
         <v>2169</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>2170</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29813,13 +29813,13 @@
         <v>3</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29833,13 +29833,13 @@
         <v>3</v>
       </c>
       <c r="D48" s="5" t="s">
+        <v>2171</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>2172</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="F48" s="5" t="s">
         <v>2173</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>2174</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29847,19 +29847,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C49" s="5">
         <v>3</v>
       </c>
       <c r="D49" s="5" t="s">
+        <v>2174</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>2175</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="F49" s="5" t="s">
         <v>2176</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>2177</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29873,10 +29873,10 @@
         <v>4</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>1204</v>
@@ -29893,13 +29893,13 @@
         <v>4</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29913,13 +29913,13 @@
         <v>4</v>
       </c>
       <c r="D52" s="5" t="s">
+        <v>2182</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>2183</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="F52" s="5" t="s">
         <v>2184</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>2185</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -29933,13 +29933,13 @@
         <v>4</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="E53" s="5" t="s">
+        <v>2187</v>
+      </c>
+      <c r="F53" s="5" t="s">
         <v>2188</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>2189</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29947,19 +29947,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="C54" s="5">
         <v>4</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29967,19 +29967,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="C55" s="5">
         <v>4</v>
       </c>
       <c r="D55" s="5" t="s">
+        <v>2191</v>
+      </c>
+      <c r="E55" s="5" t="s">
         <v>2192</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="F55" s="5" t="s">
         <v>2193</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>2194</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29987,19 +29987,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="C56" s="5">
         <v>4</v>
       </c>
       <c r="D56" s="5" t="s">
+        <v>2195</v>
+      </c>
+      <c r="E56" s="5" t="s">
         <v>2196</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="F56" s="5" t="s">
         <v>2197</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>2198</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30013,11 +30013,11 @@
         <v>3</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30025,17 +30025,17 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="C58" s="5">
         <v>4</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30049,11 +30049,11 @@
         <v>4</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30067,11 +30067,11 @@
         <v>3</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30079,17 +30079,17 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="C61" s="5">
         <v>3</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30103,11 +30103,11 @@
         <v>3</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30115,17 +30115,17 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="C63" s="5">
         <v>1</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30139,11 +30139,11 @@
         <v>1</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30157,11 +30157,11 @@
         <v>3</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30169,17 +30169,17 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="C66" s="5">
         <v>1</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30277,15 +30277,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002A0EEB8DA4CC604E82D6976E9C0827D8" ma:contentTypeVersion="39" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="499bdf2e92cd005e954ee1f014534fd1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c4fc04fa-4910-4407-9f8a-04884c1f40b6" xmlns:ns4="f6d2dbfd-717b-42c5-99f9-d183cf681612" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="711321eb69d913c58afadf6eda11a348" ns3:_="" ns4:_="">
     <xsd:import namespace="c4fc04fa-4910-4407-9f8a-04884c1f40b6"/>
@@ -30732,6 +30723,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1FB0C47-BA9F-42F7-8C8E-9EB410CA4EAB}">
   <ds:schemaRefs>
@@ -30750,14 +30750,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{077E51B5-AEFE-451C-807B-A8AA2E70ABEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{017E94B7-83A8-4BA8-B926-03A17BF39722}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30774,4 +30766,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{077E51B5-AEFE-451C-807B-A8AA2E70ABEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/Latin Core Vocab.xlsx
+++ b/data/Latin Core Vocab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\pythonProject4\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F260898-AD03-459A-8314-AC8235D309DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BFB082-14DF-4BC3-8D9C-01858A812C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-9135" windowWidth="16440" windowHeight="28440" xr2:uid="{B2777398-3BB5-4106-8B6D-26F43E5CCFA5}"/>
+    <workbookView xWindow="45" yWindow="0" windowWidth="9465" windowHeight="15075" xr2:uid="{B2777398-3BB5-4106-8B6D-26F43E5CCFA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5249" uniqueCount="2789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5249" uniqueCount="2788">
   <si>
     <t>Headword</t>
   </si>
@@ -8369,9 +8369,6 @@
   </si>
   <si>
     <t>tantum</t>
-  </si>
-  <si>
-    <t>se</t>
   </si>
   <si>
     <t>ex</t>
@@ -8893,8 +8890,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F998"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A843" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B866" sqref="B866"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8913,7 +8910,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>4</v>
@@ -8930,7 +8927,7 @@
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>2219</v>
@@ -13373,7 +13370,7 @@
         <v>311</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="C224" s="11">
         <v>150</v>
@@ -13770,10 +13767,10 @@
     </row>
     <row r="244" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A244" s="8" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="C244" s="11">
         <v>361</v>
@@ -14710,10 +14707,10 @@
     </row>
     <row r="291" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A291" s="8" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="C291" s="10">
         <v>26</v>
@@ -15748,7 +15745,7 @@
     </row>
     <row r="343" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A343" s="8" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="B343" s="8" t="s">
         <v>1275</v>
@@ -17348,10 +17345,10 @@
     </row>
     <row r="423" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A423" s="8" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="B423" s="8" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="C423" s="10">
         <v>163</v>
@@ -20208,10 +20205,10 @@
     </row>
     <row r="566" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A566" s="8" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="B566" s="8" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="C566" s="10">
         <v>55</v>
@@ -20268,10 +20265,10 @@
     </row>
     <row r="569" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A569" s="8" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="B569" s="8" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="C569" s="10">
         <v>100</v>
@@ -21528,7 +21525,7 @@
     </row>
     <row r="632" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A632" s="8" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="B632" s="8" t="s">
         <v>2774</v>
@@ -26191,7 +26188,7 @@
         <v>1653</v>
       </c>
       <c r="B865" s="8" t="s">
-        <v>2777</v>
+        <v>1653</v>
       </c>
       <c r="C865" s="10">
         <v>17</v>
@@ -30277,6 +30274,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002A0EEB8DA4CC604E82D6976E9C0827D8" ma:contentTypeVersion="39" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="499bdf2e92cd005e954ee1f014534fd1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c4fc04fa-4910-4407-9f8a-04884c1f40b6" xmlns:ns4="f6d2dbfd-717b-42c5-99f9-d183cf681612" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="711321eb69d913c58afadf6eda11a348" ns3:_="" ns4:_="">
     <xsd:import namespace="c4fc04fa-4910-4407-9f8a-04884c1f40b6"/>
@@ -30723,15 +30729,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1FB0C47-BA9F-42F7-8C8E-9EB410CA4EAB}">
   <ds:schemaRefs>
@@ -30750,6 +30747,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{077E51B5-AEFE-451C-807B-A8AA2E70ABEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{017E94B7-83A8-4BA8-B926-03A17BF39722}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30766,12 +30771,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{077E51B5-AEFE-451C-807B-A8AA2E70ABEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/Latin Core Vocab.xlsx
+++ b/data/Latin Core Vocab.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\pythonProject4\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BFB082-14DF-4BC3-8D9C-01858A812C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47BFC3B-EBB8-4BB0-B877-7C934D61A665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="0" windowWidth="9465" windowHeight="15075" xr2:uid="{B2777398-3BB5-4106-8B6D-26F43E5CCFA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B2777398-3BB5-4106-8B6D-26F43E5CCFA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$998</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$F$998</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -8890,14 +8890,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A843" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B866" sqref="B866"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="32.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="60.7109375" style="1" customWidth="1"/>
@@ -8907,10 +8907,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
+        <v>2783</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>2783</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>4</v>
@@ -8927,10 +8927,10 @@
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>2787</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>2219</v>
       </c>
       <c r="C2" s="11">
         <v>21</v>
@@ -8947,10 +8947,10 @@
     </row>
     <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>1551</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>2220</v>
       </c>
       <c r="C3" s="10">
         <v>553</v>
@@ -9007,10 +9007,10 @@
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>1553</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>2221</v>
       </c>
       <c r="C6" s="11">
         <v>614</v>
@@ -9027,10 +9027,10 @@
     </row>
     <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>1557</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>2222</v>
       </c>
       <c r="C7" s="10">
         <v>799</v>
@@ -9047,10 +9047,10 @@
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>1698</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>2223</v>
       </c>
       <c r="C8" s="11">
         <v>110</v>
@@ -9067,10 +9067,10 @@
     </row>
     <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>1582</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>2224</v>
       </c>
       <c r="C9" s="10">
         <v>587</v>
@@ -9087,10 +9087,10 @@
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>1995</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>2225</v>
       </c>
       <c r="C10" s="11">
         <v>439</v>
@@ -9127,10 +9127,10 @@
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>1710</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>2226</v>
       </c>
       <c r="C12" s="11">
         <v>433</v>
@@ -9147,10 +9147,10 @@
     </row>
     <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>1909</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>2227</v>
       </c>
       <c r="C13" s="10">
         <v>886</v>
@@ -9167,10 +9167,10 @@
     </row>
     <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>2228</v>
       </c>
       <c r="C14" s="10">
         <v>555</v>
@@ -9187,10 +9187,10 @@
     </row>
     <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>2228</v>
       </c>
       <c r="C15" s="11">
         <v>595</v>
@@ -9207,10 +9207,10 @@
     </row>
     <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>1492</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>2229</v>
       </c>
       <c r="C16" s="11">
         <v>959</v>
@@ -9227,10 +9227,10 @@
     </row>
     <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>2230</v>
       </c>
       <c r="C17" s="10">
         <v>379</v>
@@ -9267,10 +9267,10 @@
     </row>
     <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>1886</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>2231</v>
       </c>
       <c r="C19" s="11">
         <v>987</v>
@@ -9327,10 +9327,10 @@
     </row>
     <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>1565</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>2232</v>
       </c>
       <c r="C22" s="10">
         <v>986</v>
@@ -9347,10 +9347,10 @@
     </row>
     <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>1822</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>2233</v>
       </c>
       <c r="C23" s="11">
         <v>965</v>
@@ -9387,10 +9387,10 @@
     </row>
     <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>2234</v>
       </c>
       <c r="C25" s="11">
         <v>984</v>
@@ -9407,10 +9407,10 @@
     </row>
     <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
+        <v>2235</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>2235</v>
       </c>
       <c r="C26" s="10">
         <v>904</v>
@@ -9467,10 +9467,10 @@
     </row>
     <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
+        <v>2236</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>1215</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>2236</v>
       </c>
       <c r="C29" s="11">
         <v>845</v>
@@ -9507,10 +9507,10 @@
     </row>
     <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
+        <v>2237</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>1427</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>2237</v>
       </c>
       <c r="C31" s="11">
         <v>308</v>
@@ -9547,10 +9547,10 @@
     </row>
     <row r="33" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>1216</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>2238</v>
       </c>
       <c r="C33" s="11">
         <v>851</v>
@@ -9587,10 +9587,10 @@
     </row>
     <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
+        <v>2239</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>1918</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>2239</v>
       </c>
       <c r="C35" s="11">
         <v>514</v>
@@ -9607,10 +9607,10 @@
     </row>
     <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
+        <v>2240</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>1731</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>2240</v>
       </c>
       <c r="C36" s="10">
         <v>958</v>
@@ -9647,10 +9647,10 @@
     </row>
     <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>1896</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>2241</v>
       </c>
       <c r="C38" s="10">
         <v>578</v>
@@ -9667,10 +9667,10 @@
     </row>
     <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>1989</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>2242</v>
       </c>
       <c r="C39" s="11">
         <v>358</v>
@@ -9687,10 +9687,10 @@
     </row>
     <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
+        <v>2243</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>1888</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>2243</v>
       </c>
       <c r="C40" s="10">
         <v>69</v>
@@ -9707,10 +9707,10 @@
     </row>
     <row r="41" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
+        <v>2244</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>2244</v>
       </c>
       <c r="C41" s="11">
         <v>406</v>
@@ -9747,10 +9747,10 @@
     </row>
     <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>1388</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>2245</v>
       </c>
       <c r="C43" s="11">
         <v>367</v>
@@ -9767,10 +9767,10 @@
     </row>
     <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
+        <v>2246</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>2246</v>
       </c>
       <c r="C44" s="10">
         <v>763</v>
@@ -9847,10 +9847,10 @@
     </row>
     <row r="48" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
+        <v>2247</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>1455</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>2247</v>
       </c>
       <c r="C48" s="10">
         <v>817</v>
@@ -9907,10 +9907,10 @@
     </row>
     <row r="51" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
+        <v>2248</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>1718</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>2248</v>
       </c>
       <c r="C51" s="11">
         <v>690</v>
@@ -9927,10 +9927,10 @@
     </row>
     <row r="52" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
+        <v>2249</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>1599</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>2249</v>
       </c>
       <c r="C52" s="10">
         <v>198</v>
@@ -9947,10 +9947,10 @@
     </row>
     <row r="53" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
+        <v>2250</v>
+      </c>
+      <c r="B53" s="8" t="s">
         <v>1894</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>2250</v>
       </c>
       <c r="C53" s="11">
         <v>486</v>
@@ -9987,10 +9987,10 @@
     </row>
     <row r="55" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B55" s="8" t="s">
         <v>1467</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>2251</v>
       </c>
       <c r="C55" s="11">
         <v>219</v>
@@ -10187,10 +10187,10 @@
     </row>
     <row r="65" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B65" s="8" t="s">
         <v>1428</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>2252</v>
       </c>
       <c r="C65" s="11">
         <v>617</v>
@@ -10207,10 +10207,10 @@
     </row>
     <row r="66" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
+        <v>2253</v>
+      </c>
+      <c r="B66" s="8" t="s">
         <v>1821</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>2253</v>
       </c>
       <c r="C66" s="10">
         <v>837</v>
@@ -10227,10 +10227,10 @@
     </row>
     <row r="67" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B67" s="8" t="s">
         <v>1967</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>2254</v>
       </c>
       <c r="C67" s="11">
         <v>830</v>
@@ -10247,10 +10247,10 @@
     </row>
     <row r="68" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
+        <v>2255</v>
+      </c>
+      <c r="B68" s="8" t="s">
         <v>1720</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>2255</v>
       </c>
       <c r="C68" s="10">
         <v>700</v>
@@ -10327,10 +10327,10 @@
     </row>
     <row r="72" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
+        <v>2256</v>
+      </c>
+      <c r="B72" s="8" t="s">
         <v>1683</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>2256</v>
       </c>
       <c r="C72" s="10">
         <v>374</v>
@@ -10387,10 +10387,10 @@
     </row>
     <row r="75" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
+        <v>2257</v>
+      </c>
+      <c r="B75" s="8" t="s">
         <v>1212</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>2257</v>
       </c>
       <c r="C75" s="11">
         <v>618</v>
@@ -10507,10 +10507,10 @@
     </row>
     <row r="81" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
+        <v>2258</v>
+      </c>
+      <c r="B81" s="8" t="s">
         <v>1887</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>2258</v>
       </c>
       <c r="C81" s="11">
         <v>990</v>
@@ -10527,10 +10527,10 @@
     </row>
     <row r="82" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
+        <v>2259</v>
+      </c>
+      <c r="B82" s="8" t="s">
         <v>1958</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>2259</v>
       </c>
       <c r="C82" s="10">
         <v>483</v>
@@ -10627,10 +10627,10 @@
     </row>
     <row r="87" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B87" s="8" t="s">
         <v>1729</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>2260</v>
       </c>
       <c r="C87" s="10">
         <v>898</v>
@@ -10647,10 +10647,10 @@
     </row>
     <row r="88" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
+        <v>2261</v>
+      </c>
+      <c r="B88" s="8" t="s">
         <v>1633</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>2261</v>
       </c>
       <c r="C88" s="11">
         <v>876</v>
@@ -10667,10 +10667,10 @@
     </row>
     <row r="89" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
+        <v>2262</v>
+      </c>
+      <c r="B89" s="8" t="s">
         <v>1603</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>2262</v>
       </c>
       <c r="C89" s="10">
         <v>270</v>
@@ -10687,10 +10687,10 @@
     </row>
     <row r="90" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
+        <v>2263</v>
+      </c>
+      <c r="B90" s="8" t="s">
         <v>1569</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>2263</v>
       </c>
       <c r="C90" s="11">
         <v>165</v>
@@ -10707,10 +10707,10 @@
     </row>
     <row r="91" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B91" s="8" t="s">
         <v>1919</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>2264</v>
       </c>
       <c r="C91" s="10">
         <v>556</v>
@@ -10727,10 +10727,10 @@
     </row>
     <row r="92" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
+        <v>2265</v>
+      </c>
+      <c r="B92" s="8" t="s">
         <v>1486</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>2265</v>
       </c>
       <c r="C92" s="11">
         <v>709</v>
@@ -10927,10 +10927,10 @@
     </row>
     <row r="102" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B102" s="8" t="s">
         <v>1608</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>2266</v>
       </c>
       <c r="C102" s="11">
         <v>408</v>
@@ -11027,10 +11027,10 @@
     </row>
     <row r="107" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A107" s="8" t="s">
+        <v>2267</v>
+      </c>
+      <c r="B107" s="8" t="s">
         <v>1235</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>2267</v>
       </c>
       <c r="C107" s="10">
         <v>808</v>
@@ -11087,10 +11087,10 @@
     </row>
     <row r="110" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
+        <v>2268</v>
+      </c>
+      <c r="B110" s="8" t="s">
         <v>1926</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>2268</v>
       </c>
       <c r="C110" s="11">
         <v>210</v>
@@ -11127,10 +11127,10 @@
     </row>
     <row r="112" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
+        <v>2269</v>
+      </c>
+      <c r="B112" s="8" t="s">
         <v>1935</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>2269</v>
       </c>
       <c r="C112" s="11">
         <v>415</v>
@@ -11147,10 +11147,10 @@
     </row>
     <row r="113" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B113" s="8" t="s">
         <v>1941</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>2270</v>
       </c>
       <c r="C113" s="10">
         <v>612</v>
@@ -11267,10 +11267,10 @@
     </row>
     <row r="119" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
+        <v>2271</v>
+      </c>
+      <c r="B119" s="8" t="s">
         <v>2019</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>2271</v>
       </c>
       <c r="C119" s="10">
         <v>389</v>
@@ -11287,10 +11287,10 @@
     </row>
     <row r="120" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
+        <v>2272</v>
+      </c>
+      <c r="B120" s="8" t="s">
         <v>1974</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>2272</v>
       </c>
       <c r="C120" s="11">
         <v>131</v>
@@ -11327,10 +11327,10 @@
     </row>
     <row r="122" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B122" s="8" t="s">
         <v>1257</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>2273</v>
       </c>
       <c r="C122" s="11">
         <v>572</v>
@@ -11367,10 +11367,10 @@
     </row>
     <row r="124" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
+        <v>2274</v>
+      </c>
+      <c r="B124" s="8" t="s">
         <v>1614</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>2274</v>
       </c>
       <c r="C124" s="11">
         <v>462</v>
@@ -11427,10 +11427,10 @@
     </row>
     <row r="127" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B127" s="8" t="s">
         <v>1933</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>2155</v>
       </c>
       <c r="C127" s="10">
         <v>344</v>
@@ -11467,10 +11467,10 @@
     </row>
     <row r="129" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B129" s="8" t="s">
         <v>1951</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>2275</v>
       </c>
       <c r="C129" s="11">
         <v>941</v>
@@ -11487,10 +11487,10 @@
     </row>
     <row r="130" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B130" s="8" t="s">
         <v>1985</v>
-      </c>
-      <c r="B130" s="8" t="s">
-        <v>2276</v>
       </c>
       <c r="C130" s="11">
         <v>304</v>
@@ -11507,10 +11507,10 @@
     </row>
     <row r="131" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B131" s="8" t="s">
         <v>1811</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>2277</v>
       </c>
       <c r="C131" s="10">
         <v>893</v>
@@ -11567,10 +11567,10 @@
     </row>
     <row r="134" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A134" s="8" t="s">
+        <v>2278</v>
+      </c>
+      <c r="B134" s="8" t="s">
         <v>1339</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>2278</v>
       </c>
       <c r="C134" s="11">
         <v>928</v>
@@ -11607,10 +11607,10 @@
     </row>
     <row r="136" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A136" s="8" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B136" s="8" t="s">
         <v>1329</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>2279</v>
       </c>
       <c r="C136" s="11">
         <v>655</v>
@@ -11627,10 +11627,10 @@
     </row>
     <row r="137" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A137" s="8" t="s">
+        <v>2280</v>
+      </c>
+      <c r="B137" s="8" t="s">
         <v>212</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>2280</v>
       </c>
       <c r="C137" s="10">
         <v>601</v>
@@ -11647,10 +11647,10 @@
     </row>
     <row r="138" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A138" s="8" t="s">
+        <v>2281</v>
+      </c>
+      <c r="B138" s="8" t="s">
         <v>1246</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>2281</v>
       </c>
       <c r="C138" s="11">
         <v>864</v>
@@ -11687,10 +11687,10 @@
     </row>
     <row r="140" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A140" s="8" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B140" s="8" t="s">
         <v>217</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>2282</v>
       </c>
       <c r="C140" s="11">
         <v>571</v>
@@ -11707,10 +11707,10 @@
     </row>
     <row r="141" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A141" s="8" t="s">
+        <v>2283</v>
+      </c>
+      <c r="B141" s="8" t="s">
         <v>1676</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>2283</v>
       </c>
       <c r="C141" s="10">
         <v>596</v>
@@ -11747,10 +11747,10 @@
     </row>
     <row r="143" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A143" s="8" t="s">
+        <v>2284</v>
+      </c>
+      <c r="B143" s="8" t="s">
         <v>2015</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>2284</v>
       </c>
       <c r="C143" s="10">
         <v>814</v>
@@ -11787,10 +11787,10 @@
     </row>
     <row r="145" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A145" s="8" t="s">
+        <v>2285</v>
+      </c>
+      <c r="B145" s="8" t="s">
         <v>223</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>2285</v>
       </c>
       <c r="C145" s="10">
         <v>735</v>
@@ -11827,10 +11827,10 @@
     </row>
     <row r="147" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A147" s="8" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B147" s="8" t="s">
         <v>1792</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>2286</v>
       </c>
       <c r="C147" s="10">
         <v>471</v>
@@ -11847,10 +11847,10 @@
     </row>
     <row r="148" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A148" s="8" t="s">
+        <v>2287</v>
+      </c>
+      <c r="B148" s="8" t="s">
         <v>1791</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>2287</v>
       </c>
       <c r="C148" s="11">
         <v>346</v>
@@ -11867,10 +11867,10 @@
     </row>
     <row r="149" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A149" s="8" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B149" s="8" t="s">
         <v>1745</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>2288</v>
       </c>
       <c r="C149" s="10">
         <v>605</v>
@@ -11887,10 +11887,10 @@
     </row>
     <row r="150" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A150" s="8" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B150" s="8" t="s">
         <v>1607</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>2289</v>
       </c>
       <c r="C150" s="11">
         <v>395</v>
@@ -11927,10 +11927,10 @@
     </row>
     <row r="152" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A152" s="8" t="s">
+        <v>2290</v>
+      </c>
+      <c r="B152" s="8" t="s">
         <v>1815</v>
-      </c>
-      <c r="B152" s="8" t="s">
-        <v>2290</v>
       </c>
       <c r="C152" s="11">
         <v>392</v>
@@ -11947,10 +11947,10 @@
     </row>
     <row r="153" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A153" s="8" t="s">
+        <v>2291</v>
+      </c>
+      <c r="B153" s="8" t="s">
         <v>1847</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>2291</v>
       </c>
       <c r="C153" s="10">
         <v>312</v>
@@ -11967,10 +11967,10 @@
     </row>
     <row r="154" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A154" s="8" t="s">
+        <v>2292</v>
+      </c>
+      <c r="B154" s="8" t="s">
         <v>1323</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>2292</v>
       </c>
       <c r="C154" s="11">
         <v>515</v>
@@ -11987,10 +11987,10 @@
     </row>
     <row r="155" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A155" s="8" t="s">
+        <v>2293</v>
+      </c>
+      <c r="B155" s="8" t="s">
         <v>1315</v>
-      </c>
-      <c r="B155" s="8" t="s">
-        <v>2293</v>
       </c>
       <c r="C155" s="10">
         <v>339</v>
@@ -12007,10 +12007,10 @@
     </row>
     <row r="156" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A156" s="8" t="s">
+        <v>2294</v>
+      </c>
+      <c r="B156" s="8" t="s">
         <v>1893</v>
-      </c>
-      <c r="B156" s="8" t="s">
-        <v>2294</v>
       </c>
       <c r="C156" s="11">
         <v>250</v>
@@ -12047,10 +12047,10 @@
     </row>
     <row r="158" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A158" s="8" t="s">
+        <v>2295</v>
+      </c>
+      <c r="B158" s="8" t="s">
         <v>1907</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>2295</v>
       </c>
       <c r="C158" s="11">
         <v>820</v>
@@ -12067,10 +12067,10 @@
     </row>
     <row r="159" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A159" s="8" t="s">
+        <v>2296</v>
+      </c>
+      <c r="B159" s="8" t="s">
         <v>1224</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>2296</v>
       </c>
       <c r="C159" s="10">
         <v>333</v>
@@ -12147,10 +12147,10 @@
     </row>
     <row r="163" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A163" s="8" t="s">
+        <v>2297</v>
+      </c>
+      <c r="B163" s="8" t="s">
         <v>1717</v>
-      </c>
-      <c r="B163" s="8" t="s">
-        <v>2297</v>
       </c>
       <c r="C163" s="10">
         <v>608</v>
@@ -12167,10 +12167,10 @@
     </row>
     <row r="164" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A164" s="8" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B164" s="8" t="s">
         <v>1803</v>
-      </c>
-      <c r="B164" s="8" t="s">
-        <v>2298</v>
       </c>
       <c r="C164" s="11">
         <v>660</v>
@@ -12187,10 +12187,10 @@
     </row>
     <row r="165" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A165" s="8" t="s">
+        <v>2299</v>
+      </c>
+      <c r="B165" s="8" t="s">
         <v>1269</v>
-      </c>
-      <c r="B165" s="8" t="s">
-        <v>2299</v>
       </c>
       <c r="C165" s="10">
         <v>890</v>
@@ -12207,10 +12207,10 @@
     </row>
     <row r="166" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A166" s="8" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B166" s="8" t="s">
         <v>1481</v>
-      </c>
-      <c r="B166" s="8" t="s">
-        <v>2300</v>
       </c>
       <c r="C166" s="11">
         <v>443</v>
@@ -12227,10 +12227,10 @@
     </row>
     <row r="167" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A167" s="8" t="s">
+        <v>2301</v>
+      </c>
+      <c r="B167" s="8" t="s">
         <v>2007</v>
-      </c>
-      <c r="B167" s="8" t="s">
-        <v>2301</v>
       </c>
       <c r="C167" s="10">
         <v>663</v>
@@ -12247,10 +12247,10 @@
     </row>
     <row r="168" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A168" s="8" t="s">
+        <v>2302</v>
+      </c>
+      <c r="B168" s="8" t="s">
         <v>1272</v>
-      </c>
-      <c r="B168" s="8" t="s">
-        <v>2302</v>
       </c>
       <c r="C168" s="11">
         <v>920</v>
@@ -12267,10 +12267,10 @@
     </row>
     <row r="169" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A169" s="8" t="s">
+        <v>2303</v>
+      </c>
+      <c r="B169" s="8" t="s">
         <v>1795</v>
-      </c>
-      <c r="B169" s="8" t="s">
-        <v>2303</v>
       </c>
       <c r="C169" s="10">
         <v>540</v>
@@ -12287,10 +12287,10 @@
     </row>
     <row r="170" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A170" s="8" t="s">
+        <v>2304</v>
+      </c>
+      <c r="B170" s="8" t="s">
         <v>1921</v>
-      </c>
-      <c r="B170" s="8" t="s">
-        <v>2304</v>
       </c>
       <c r="C170" s="11">
         <v>645</v>
@@ -12307,10 +12307,10 @@
     </row>
     <row r="171" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A171" s="8" t="s">
+        <v>2305</v>
+      </c>
+      <c r="B171" s="8" t="s">
         <v>1949</v>
-      </c>
-      <c r="B171" s="8" t="s">
-        <v>2305</v>
       </c>
       <c r="C171" s="10">
         <v>894</v>
@@ -12327,10 +12327,10 @@
     </row>
     <row r="172" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A172" s="8" t="s">
+        <v>2306</v>
+      </c>
+      <c r="B172" s="8" t="s">
         <v>1423</v>
-      </c>
-      <c r="B172" s="8" t="s">
-        <v>2306</v>
       </c>
       <c r="C172" s="11">
         <v>972</v>
@@ -12367,10 +12367,10 @@
     </row>
     <row r="174" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A174" s="8" t="s">
+        <v>2307</v>
+      </c>
+      <c r="B174" s="8" t="s">
         <v>1490</v>
-      </c>
-      <c r="B174" s="8" t="s">
-        <v>2307</v>
       </c>
       <c r="C174" s="11">
         <v>905</v>
@@ -12387,10 +12387,10 @@
     </row>
     <row r="175" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A175" s="8" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B175" s="8" t="s">
         <v>1564</v>
-      </c>
-      <c r="B175" s="8" t="s">
-        <v>2308</v>
       </c>
       <c r="C175" s="10">
         <v>917</v>
@@ -12407,10 +12407,10 @@
     </row>
     <row r="176" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A176" s="8" t="s">
+        <v>2309</v>
+      </c>
+      <c r="B176" s="8" t="s">
         <v>1785</v>
-      </c>
-      <c r="B176" s="8" t="s">
-        <v>2309</v>
       </c>
       <c r="C176" s="11">
         <v>217</v>
@@ -12427,10 +12427,10 @@
     </row>
     <row r="177" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A177" s="8" t="s">
+        <v>2310</v>
+      </c>
+      <c r="B177" s="8" t="s">
         <v>1751</v>
-      </c>
-      <c r="B177" s="8" t="s">
-        <v>2310</v>
       </c>
       <c r="C177" s="10">
         <v>780</v>
@@ -12447,10 +12447,10 @@
     </row>
     <row r="178" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A178" s="8" t="s">
+        <v>2311</v>
+      </c>
+      <c r="B178" s="8" t="s">
         <v>1485</v>
-      </c>
-      <c r="B178" s="8" t="s">
-        <v>2311</v>
       </c>
       <c r="C178" s="11">
         <v>652</v>
@@ -12467,10 +12467,10 @@
     </row>
     <row r="179" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A179" s="8" t="s">
+        <v>2312</v>
+      </c>
+      <c r="B179" s="8" t="s">
         <v>1748</v>
-      </c>
-      <c r="B179" s="8" t="s">
-        <v>2312</v>
       </c>
       <c r="C179" s="10">
         <v>731</v>
@@ -12487,10 +12487,10 @@
     </row>
     <row r="180" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A180" s="8" t="s">
+        <v>2313</v>
+      </c>
+      <c r="B180" s="8" t="s">
         <v>1637</v>
-      </c>
-      <c r="B180" s="8" t="s">
-        <v>2313</v>
       </c>
       <c r="C180" s="11">
         <v>954</v>
@@ -12507,10 +12507,10 @@
     </row>
     <row r="181" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A181" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B181" s="8" t="s">
         <v>1788</v>
-      </c>
-      <c r="B181" s="8" t="s">
-        <v>261</v>
       </c>
       <c r="C181" s="10">
         <v>321</v>
@@ -12527,10 +12527,10 @@
     </row>
     <row r="182" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A182" s="8" t="s">
+        <v>2314</v>
+      </c>
+      <c r="B182" s="8" t="s">
         <v>1806</v>
-      </c>
-      <c r="B182" s="8" t="s">
-        <v>2314</v>
       </c>
       <c r="C182" s="11">
         <v>757</v>
@@ -12547,10 +12547,10 @@
     </row>
     <row r="183" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A183" s="8" t="s">
+        <v>2315</v>
+      </c>
+      <c r="B183" s="8" t="s">
         <v>1459</v>
-      </c>
-      <c r="B183" s="8" t="s">
-        <v>2315</v>
       </c>
       <c r="C183" s="10">
         <v>869</v>
@@ -12567,10 +12567,10 @@
     </row>
     <row r="184" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A184" s="8" t="s">
+        <v>2316</v>
+      </c>
+      <c r="B184" s="8" t="s">
         <v>1365</v>
-      </c>
-      <c r="B184" s="8" t="s">
-        <v>2316</v>
       </c>
       <c r="C184" s="11">
         <v>615</v>
@@ -12587,10 +12587,10 @@
     </row>
     <row r="185" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A185" s="8" t="s">
+        <v>2317</v>
+      </c>
+      <c r="B185" s="8" t="s">
         <v>1906</v>
-      </c>
-      <c r="B185" s="8" t="s">
-        <v>2317</v>
       </c>
       <c r="C185" s="10">
         <v>804</v>
@@ -12607,10 +12607,10 @@
     </row>
     <row r="186" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A186" s="8" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B186" s="8" t="s">
         <v>1643</v>
-      </c>
-      <c r="B186" s="8" t="s">
-        <v>2318</v>
       </c>
       <c r="C186" s="11">
         <v>494</v>
@@ -12627,10 +12627,10 @@
     </row>
     <row r="187" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A187" s="8" t="s">
+        <v>2319</v>
+      </c>
+      <c r="B187" s="8" t="s">
         <v>268</v>
-      </c>
-      <c r="B187" s="8" t="s">
-        <v>2319</v>
       </c>
       <c r="C187" s="10">
         <v>271</v>
@@ -12647,10 +12647,10 @@
     </row>
     <row r="188" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A188" s="8" t="s">
+        <v>2320</v>
+      </c>
+      <c r="B188" s="8" t="s">
         <v>1719</v>
-      </c>
-      <c r="B188" s="8" t="s">
-        <v>2320</v>
       </c>
       <c r="C188" s="11">
         <v>698</v>
@@ -12667,10 +12667,10 @@
     </row>
     <row r="189" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A189" s="8" t="s">
+        <v>2321</v>
+      </c>
+      <c r="B189" s="8" t="s">
         <v>1560</v>
-      </c>
-      <c r="B189" s="8" t="s">
-        <v>2321</v>
       </c>
       <c r="C189" s="10">
         <v>834</v>
@@ -12687,10 +12687,10 @@
     </row>
     <row r="190" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A190" s="8" t="s">
+        <v>2322</v>
+      </c>
+      <c r="B190" s="8" t="s">
         <v>1730</v>
-      </c>
-      <c r="B190" s="8" t="s">
-        <v>2322</v>
       </c>
       <c r="C190" s="11">
         <v>921</v>
@@ -12707,10 +12707,10 @@
     </row>
     <row r="191" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A191" s="8" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B191" s="8" t="s">
         <v>1986</v>
-      </c>
-      <c r="B191" s="8" t="s">
-        <v>2323</v>
       </c>
       <c r="C191" s="10">
         <v>331</v>
@@ -12787,10 +12787,10 @@
     </row>
     <row r="195" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A195" s="8" t="s">
+        <v>2324</v>
+      </c>
+      <c r="B195" s="8" t="s">
         <v>1948</v>
-      </c>
-      <c r="B195" s="8" t="s">
-        <v>2324</v>
       </c>
       <c r="C195" s="10">
         <v>870</v>
@@ -12807,10 +12807,10 @@
     </row>
     <row r="196" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A196" s="8" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B196" s="8" t="s">
         <v>1309</v>
-      </c>
-      <c r="B196" s="8" t="s">
-        <v>2325</v>
       </c>
       <c r="C196" s="11">
         <v>109</v>
@@ -12827,10 +12827,10 @@
     </row>
     <row r="197" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A197" s="8" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B197" s="8" t="s">
         <v>1493</v>
-      </c>
-      <c r="B197" s="8" t="s">
-        <v>2326</v>
       </c>
       <c r="C197" s="10">
         <v>978</v>
@@ -12847,10 +12847,10 @@
     </row>
     <row r="198" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A198" s="8" t="s">
+        <v>2327</v>
+      </c>
+      <c r="B198" s="8" t="s">
         <v>1231</v>
-      </c>
-      <c r="B198" s="8" t="s">
-        <v>2327</v>
       </c>
       <c r="C198" s="11">
         <v>609</v>
@@ -12867,10 +12867,10 @@
     </row>
     <row r="199" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A199" s="8" t="s">
+        <v>2328</v>
+      </c>
+      <c r="B199" s="8" t="s">
         <v>1405</v>
-      </c>
-      <c r="B199" s="8" t="s">
-        <v>2328</v>
       </c>
       <c r="C199" s="10">
         <v>475</v>
@@ -12927,10 +12927,10 @@
     </row>
     <row r="202" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A202" s="8" t="s">
+        <v>2329</v>
+      </c>
+      <c r="B202" s="8" t="s">
         <v>1516</v>
-      </c>
-      <c r="B202" s="8" t="s">
-        <v>2329</v>
       </c>
       <c r="C202" s="11">
         <v>292</v>
@@ -12947,10 +12947,10 @@
     </row>
     <row r="203" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A203" s="8" t="s">
+        <v>2330</v>
+      </c>
+      <c r="B203" s="8" t="s">
         <v>1472</v>
-      </c>
-      <c r="B203" s="8" t="s">
-        <v>2330</v>
       </c>
       <c r="C203" s="10">
         <v>906</v>
@@ -12967,10 +12967,10 @@
     </row>
     <row r="204" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A204" s="8" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B204" s="8" t="s">
         <v>1468</v>
-      </c>
-      <c r="B204" s="8" t="s">
-        <v>2331</v>
       </c>
       <c r="C204" s="11">
         <v>441</v>
@@ -12987,10 +12987,10 @@
     </row>
     <row r="205" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A205" s="8" t="s">
+        <v>2332</v>
+      </c>
+      <c r="B205" s="8" t="s">
         <v>288</v>
-      </c>
-      <c r="B205" s="8" t="s">
-        <v>2332</v>
       </c>
       <c r="C205" s="10">
         <v>404</v>
@@ -13007,10 +13007,10 @@
     </row>
     <row r="206" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A206" s="8" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B206" s="8" t="s">
         <v>1466</v>
-      </c>
-      <c r="B206" s="8" t="s">
-        <v>2333</v>
       </c>
       <c r="C206" s="11">
         <v>186</v>
@@ -13027,10 +13027,10 @@
     </row>
     <row r="207" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A207" s="8" t="s">
+        <v>2334</v>
+      </c>
+      <c r="B207" s="8" t="s">
         <v>1469</v>
-      </c>
-      <c r="B207" s="8" t="s">
-        <v>2334</v>
       </c>
       <c r="C207" s="10">
         <v>743</v>
@@ -13047,10 +13047,10 @@
     </row>
     <row r="208" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A208" s="8" t="s">
+        <v>2335</v>
+      </c>
+      <c r="B208" s="8" t="s">
         <v>1244</v>
-      </c>
-      <c r="B208" s="8" t="s">
-        <v>2335</v>
       </c>
       <c r="C208" s="11">
         <v>562</v>
@@ -13107,10 +13107,10 @@
     </row>
     <row r="211" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A211" s="8" t="s">
+        <v>2336</v>
+      </c>
+      <c r="B211" s="8" t="s">
         <v>1835</v>
-      </c>
-      <c r="B211" s="8" t="s">
-        <v>2336</v>
       </c>
       <c r="C211" s="10">
         <v>622</v>
@@ -13127,10 +13127,10 @@
     </row>
     <row r="212" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A212" s="8" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B212" s="8" t="s">
         <v>1415</v>
-      </c>
-      <c r="B212" s="8" t="s">
-        <v>2337</v>
       </c>
       <c r="C212" s="11">
         <v>751</v>
@@ -13167,10 +13167,10 @@
     </row>
     <row r="214" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A214" s="8" t="s">
+        <v>2338</v>
+      </c>
+      <c r="B214" s="8" t="s">
         <v>298</v>
-      </c>
-      <c r="B214" s="8" t="s">
-        <v>2338</v>
       </c>
       <c r="C214" s="11">
         <v>46</v>
@@ -13187,10 +13187,10 @@
     </row>
     <row r="215" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A215" s="8" t="s">
+        <v>2339</v>
+      </c>
+      <c r="B215" s="8" t="s">
         <v>1248</v>
-      </c>
-      <c r="B215" s="8" t="s">
-        <v>2339</v>
       </c>
       <c r="C215" s="10">
         <v>155</v>
@@ -13227,10 +13227,10 @@
     </row>
     <row r="217" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A217" s="8" t="s">
+        <v>2340</v>
+      </c>
+      <c r="B217" s="8" t="s">
         <v>1337</v>
-      </c>
-      <c r="B217" s="8" t="s">
-        <v>2340</v>
       </c>
       <c r="C217" s="10">
         <v>800</v>
@@ -13287,10 +13287,10 @@
     </row>
     <row r="220" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A220" s="8" t="s">
+        <v>2341</v>
+      </c>
+      <c r="B220" s="8" t="s">
         <v>1875</v>
-      </c>
-      <c r="B220" s="8" t="s">
-        <v>2341</v>
       </c>
       <c r="C220" s="11">
         <v>661</v>
@@ -13307,10 +13307,10 @@
     </row>
     <row r="221" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A221" s="8" t="s">
+        <v>2342</v>
+      </c>
+      <c r="B221" s="8" t="s">
         <v>2006</v>
-      </c>
-      <c r="B221" s="8" t="s">
-        <v>2342</v>
       </c>
       <c r="C221" s="10">
         <v>653</v>
@@ -13327,10 +13327,10 @@
     </row>
     <row r="222" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A222" s="8" t="s">
+        <v>2343</v>
+      </c>
+      <c r="B222" s="8" t="s">
         <v>1922</v>
-      </c>
-      <c r="B222" s="8" t="s">
-        <v>2343</v>
       </c>
       <c r="C222" s="11">
         <v>805</v>
@@ -13347,10 +13347,10 @@
     </row>
     <row r="223" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A223" s="8" t="s">
+        <v>2344</v>
+      </c>
+      <c r="B223" s="8" t="s">
         <v>2010</v>
-      </c>
-      <c r="B223" s="8" t="s">
-        <v>2344</v>
       </c>
       <c r="C223" s="10">
         <v>676</v>
@@ -13367,10 +13367,10 @@
     </row>
     <row r="224" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A224" s="8" t="s">
+        <v>2781</v>
+      </c>
+      <c r="B224" s="8" t="s">
         <v>311</v>
-      </c>
-      <c r="B224" s="8" t="s">
-        <v>2781</v>
       </c>
       <c r="C224" s="11">
         <v>150</v>
@@ -13387,10 +13387,10 @@
     </row>
     <row r="225" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A225" s="8" t="s">
+        <v>2345</v>
+      </c>
+      <c r="B225" s="8" t="s">
         <v>313</v>
-      </c>
-      <c r="B225" s="8" t="s">
-        <v>2345</v>
       </c>
       <c r="C225" s="10">
         <v>796</v>
@@ -13407,10 +13407,10 @@
     </row>
     <row r="226" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A226" s="8" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B226" s="8" t="s">
         <v>1880</v>
-      </c>
-      <c r="B226" s="8" t="s">
-        <v>2346</v>
       </c>
       <c r="C226" s="11">
         <v>802</v>
@@ -13427,10 +13427,10 @@
     </row>
     <row r="227" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A227" s="8" t="s">
+        <v>2347</v>
+      </c>
+      <c r="B227" s="8" t="s">
         <v>1550</v>
-      </c>
-      <c r="B227" s="8" t="s">
-        <v>2347</v>
       </c>
       <c r="C227" s="10">
         <v>544</v>
@@ -13447,10 +13447,10 @@
     </row>
     <row r="228" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A228" s="8" t="s">
+        <v>2348</v>
+      </c>
+      <c r="B228" s="8" t="s">
         <v>1471</v>
-      </c>
-      <c r="B228" s="8" t="s">
-        <v>2348</v>
       </c>
       <c r="C228" s="11">
         <v>892</v>
@@ -13467,10 +13467,10 @@
     </row>
     <row r="229" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A229" s="8" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B229" s="8" t="s">
         <v>1554</v>
-      </c>
-      <c r="B229" s="8" t="s">
-        <v>2349</v>
       </c>
       <c r="C229" s="10">
         <v>624</v>
@@ -13487,10 +13487,10 @@
     </row>
     <row r="230" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A230" s="8" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B230" s="8" t="s">
         <v>1254</v>
-      </c>
-      <c r="B230" s="8" t="s">
-        <v>2350</v>
       </c>
       <c r="C230" s="11">
         <v>463</v>
@@ -13547,10 +13547,10 @@
     </row>
     <row r="233" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A233" s="8" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B233" s="8" t="s">
         <v>1732</v>
-      </c>
-      <c r="B233" s="8" t="s">
-        <v>2351</v>
       </c>
       <c r="C233" s="10">
         <v>33</v>
@@ -13567,10 +13567,10 @@
     </row>
     <row r="234" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A234" s="8" t="s">
+        <v>2352</v>
+      </c>
+      <c r="B234" s="8" t="s">
         <v>1424</v>
-      </c>
-      <c r="B234" s="8" t="s">
-        <v>2352</v>
       </c>
       <c r="C234" s="11">
         <v>54</v>
@@ -13587,10 +13587,10 @@
     </row>
     <row r="235" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A235" s="8" t="s">
+        <v>2353</v>
+      </c>
+      <c r="B235" s="8" t="s">
         <v>1489</v>
-      </c>
-      <c r="B235" s="8" t="s">
-        <v>2353</v>
       </c>
       <c r="C235" s="10">
         <v>880</v>
@@ -13627,10 +13627,10 @@
     </row>
     <row r="237" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A237" s="8" t="s">
+        <v>2354</v>
+      </c>
+      <c r="B237" s="8" t="s">
         <v>1638</v>
-      </c>
-      <c r="B237" s="8" t="s">
-        <v>2354</v>
       </c>
       <c r="C237" s="10">
         <v>956</v>
@@ -13647,10 +13647,10 @@
     </row>
     <row r="238" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A238" s="8" t="s">
+        <v>2355</v>
+      </c>
+      <c r="B238" s="8" t="s">
         <v>1605</v>
-      </c>
-      <c r="B238" s="8" t="s">
-        <v>2355</v>
       </c>
       <c r="C238" s="11">
         <v>291</v>
@@ -13667,10 +13667,10 @@
     </row>
     <row r="239" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A239" s="8" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B239" s="8" t="s">
         <v>1473</v>
-      </c>
-      <c r="B239" s="8" t="s">
-        <v>2356</v>
       </c>
       <c r="C239" s="10">
         <v>973</v>
@@ -13687,10 +13687,10 @@
     </row>
     <row r="240" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A240" s="8" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B240" s="8" t="s">
         <v>1904</v>
-      </c>
-      <c r="B240" s="8" t="s">
-        <v>2357</v>
       </c>
       <c r="C240" s="11">
         <v>777</v>
@@ -13707,10 +13707,10 @@
     </row>
     <row r="241" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A241" s="8" t="s">
+        <v>2358</v>
+      </c>
+      <c r="B241" s="8" t="s">
         <v>1878</v>
-      </c>
-      <c r="B241" s="8" t="s">
-        <v>2358</v>
       </c>
       <c r="C241" s="10">
         <v>726</v>
@@ -13727,10 +13727,10 @@
     </row>
     <row r="242" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A242" s="8" t="s">
+        <v>2359</v>
+      </c>
+      <c r="B242" s="8" t="s">
         <v>1343</v>
-      </c>
-      <c r="B242" s="8" t="s">
-        <v>2359</v>
       </c>
       <c r="C242" s="11">
         <v>982</v>
@@ -13747,10 +13747,10 @@
     </row>
     <row r="243" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A243" s="8" t="s">
+        <v>2360</v>
+      </c>
+      <c r="B243" s="8" t="s">
         <v>1321</v>
-      </c>
-      <c r="B243" s="8" t="s">
-        <v>2360</v>
       </c>
       <c r="C243" s="10">
         <v>465</v>
@@ -13767,10 +13767,10 @@
     </row>
     <row r="244" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A244" s="8" t="s">
+        <v>2782</v>
+      </c>
+      <c r="B244" s="8" t="s">
         <v>2785</v>
-      </c>
-      <c r="B244" s="8" t="s">
-        <v>2782</v>
       </c>
       <c r="C244" s="11">
         <v>361</v>
@@ -13787,10 +13787,10 @@
     </row>
     <row r="245" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A245" s="8" t="s">
+        <v>2361</v>
+      </c>
+      <c r="B245" s="8" t="s">
         <v>1584</v>
-      </c>
-      <c r="B245" s="8" t="s">
-        <v>2361</v>
       </c>
       <c r="C245" s="10">
         <v>641</v>
@@ -13807,10 +13807,10 @@
     </row>
     <row r="246" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A246" s="8" t="s">
+        <v>2362</v>
+      </c>
+      <c r="B246" s="8" t="s">
         <v>1256</v>
-      </c>
-      <c r="B246" s="8" t="s">
-        <v>2362</v>
       </c>
       <c r="C246" s="11">
         <v>564</v>
@@ -13827,10 +13827,10 @@
     </row>
     <row r="247" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A247" s="8" t="s">
+        <v>2363</v>
+      </c>
+      <c r="B247" s="8" t="s">
         <v>1484</v>
-      </c>
-      <c r="B247" s="8" t="s">
-        <v>2363</v>
       </c>
       <c r="C247" s="10">
         <v>628</v>
@@ -13847,10 +13847,10 @@
     </row>
     <row r="248" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A248" s="8" t="s">
+        <v>2364</v>
+      </c>
+      <c r="B248" s="8" t="s">
         <v>1261</v>
-      </c>
-      <c r="B248" s="8" t="s">
-        <v>2364</v>
       </c>
       <c r="C248" s="11">
         <v>712</v>
@@ -13867,10 +13867,10 @@
     </row>
     <row r="249" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A249" s="8" t="s">
+        <v>2365</v>
+      </c>
+      <c r="B249" s="8" t="s">
         <v>1695</v>
-      </c>
-      <c r="B249" s="8" t="s">
-        <v>2365</v>
       </c>
       <c r="C249" s="10">
         <v>962</v>
@@ -13887,10 +13887,10 @@
     </row>
     <row r="250" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A250" s="8" t="s">
+        <v>2366</v>
+      </c>
+      <c r="B250" s="8" t="s">
         <v>1697</v>
-      </c>
-      <c r="B250" s="8" t="s">
-        <v>2366</v>
       </c>
       <c r="C250" s="11">
         <v>28</v>
@@ -13907,10 +13907,10 @@
     </row>
     <row r="251" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A251" s="8" t="s">
+        <v>2367</v>
+      </c>
+      <c r="B251" s="8" t="s">
         <v>1318</v>
-      </c>
-      <c r="B251" s="8" t="s">
-        <v>2367</v>
       </c>
       <c r="C251" s="10">
         <v>393</v>
@@ -13927,10 +13927,10 @@
     </row>
     <row r="252" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A252" s="8" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B252" s="8" t="s">
         <v>1371</v>
-      </c>
-      <c r="B252" s="8" t="s">
-        <v>2368</v>
       </c>
       <c r="C252" s="11">
         <v>785</v>
@@ -14027,10 +14027,10 @@
     </row>
     <row r="257" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A257" s="8" t="s">
+        <v>2369</v>
+      </c>
+      <c r="B257" s="8" t="s">
         <v>347</v>
-      </c>
-      <c r="B257" s="8" t="s">
-        <v>2369</v>
       </c>
       <c r="C257" s="10">
         <v>771</v>
@@ -14047,10 +14047,10 @@
     </row>
     <row r="258" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A258" s="8" t="s">
+        <v>2370</v>
+      </c>
+      <c r="B258" s="8" t="s">
         <v>1716</v>
-      </c>
-      <c r="B258" s="8" t="s">
-        <v>2370</v>
       </c>
       <c r="C258" s="11">
         <v>606</v>
@@ -14067,10 +14067,10 @@
     </row>
     <row r="259" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A259" s="8" t="s">
+        <v>2371</v>
+      </c>
+      <c r="B259" s="8" t="s">
         <v>1714</v>
-      </c>
-      <c r="B259" s="8" t="s">
-        <v>2371</v>
       </c>
       <c r="C259" s="10">
         <v>476</v>
@@ -14087,10 +14087,10 @@
     </row>
     <row r="260" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A260" s="8" t="s">
+        <v>2190</v>
+      </c>
+      <c r="B260" s="8" t="s">
         <v>1464</v>
-      </c>
-      <c r="B260" s="8" t="s">
-        <v>2190</v>
       </c>
       <c r="C260" s="11">
         <v>975</v>
@@ -14107,10 +14107,10 @@
     </row>
     <row r="261" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A261" s="8" t="s">
+        <v>2372</v>
+      </c>
+      <c r="B261" s="8" t="s">
         <v>1324</v>
-      </c>
-      <c r="B261" s="8" t="s">
-        <v>2372</v>
       </c>
       <c r="C261" s="10">
         <v>521</v>
@@ -14147,10 +14147,10 @@
     </row>
     <row r="263" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A263" s="8" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B263" s="8" t="s">
         <v>1890</v>
-      </c>
-      <c r="B263" s="8" t="s">
-        <v>2373</v>
       </c>
       <c r="C263" s="10">
         <v>133</v>
@@ -14227,10 +14227,10 @@
     </row>
     <row r="267" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A267" s="8" t="s">
+        <v>2374</v>
+      </c>
+      <c r="B267" s="8" t="s">
         <v>1570</v>
-      </c>
-      <c r="B267" s="8" t="s">
-        <v>2374</v>
       </c>
       <c r="C267" s="10">
         <v>249</v>
@@ -14287,10 +14287,10 @@
     </row>
     <row r="270" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A270" s="8" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B270" s="8" t="s">
         <v>1760</v>
-      </c>
-      <c r="B270" s="8" t="s">
-        <v>2375</v>
       </c>
       <c r="C270" s="11">
         <v>996</v>
@@ -14307,10 +14307,10 @@
     </row>
     <row r="271" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A271" s="8" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B271" s="8" t="s">
         <v>1746</v>
-      </c>
-      <c r="B271" s="8" t="s">
-        <v>2376</v>
       </c>
       <c r="C271" s="10">
         <v>688</v>
@@ -14327,10 +14327,10 @@
     </row>
     <row r="272" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A272" s="8" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B272" s="8" t="s">
         <v>1910</v>
-      </c>
-      <c r="B272" s="8" t="s">
-        <v>2377</v>
       </c>
       <c r="C272" s="11">
         <v>935</v>
@@ -14347,10 +14347,10 @@
     </row>
     <row r="273" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A273" s="8" t="s">
+        <v>2378</v>
+      </c>
+      <c r="B273" s="8" t="s">
         <v>1483</v>
-      </c>
-      <c r="B273" s="8" t="s">
-        <v>2378</v>
       </c>
       <c r="C273" s="10">
         <v>573</v>
@@ -14367,10 +14367,10 @@
     </row>
     <row r="274" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A274" s="8" t="s">
+        <v>2379</v>
+      </c>
+      <c r="B274" s="8" t="s">
         <v>1305</v>
-      </c>
-      <c r="B274" s="8" t="s">
-        <v>2379</v>
       </c>
       <c r="C274" s="11">
         <v>719</v>
@@ -14407,10 +14407,10 @@
     </row>
     <row r="276" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A276" s="8" t="s">
+        <v>2380</v>
+      </c>
+      <c r="B276" s="8" t="s">
         <v>1883</v>
-      </c>
-      <c r="B276" s="8" t="s">
-        <v>2380</v>
       </c>
       <c r="C276" s="11">
         <v>912</v>
@@ -14427,10 +14427,10 @@
     </row>
     <row r="277" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A277" s="8" t="s">
+        <v>2381</v>
+      </c>
+      <c r="B277" s="8" t="s">
         <v>1631</v>
-      </c>
-      <c r="B277" s="8" t="s">
-        <v>2381</v>
       </c>
       <c r="C277" s="10">
         <v>860</v>
@@ -14447,10 +14447,10 @@
     </row>
     <row r="278" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A278" s="8" t="s">
+        <v>2382</v>
+      </c>
+      <c r="B278" s="8" t="s">
         <v>1812</v>
-      </c>
-      <c r="B278" s="8" t="s">
-        <v>2382</v>
       </c>
       <c r="C278" s="11">
         <v>942</v>
@@ -14487,10 +14487,10 @@
     </row>
     <row r="280" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A280" s="8" t="s">
+        <v>2383</v>
+      </c>
+      <c r="B280" s="8" t="s">
         <v>375</v>
-      </c>
-      <c r="B280" s="8" t="s">
-        <v>2383</v>
       </c>
       <c r="C280" s="10">
         <v>470</v>
@@ -14507,10 +14507,10 @@
     </row>
     <row r="281" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A281" s="8" t="s">
+        <v>2383</v>
+      </c>
+      <c r="B281" s="8" t="s">
         <v>375</v>
-      </c>
-      <c r="B281" s="8" t="s">
-        <v>2383</v>
       </c>
       <c r="C281" s="11">
         <v>97</v>
@@ -14587,10 +14587,10 @@
     </row>
     <row r="285" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A285" s="8" t="s">
+        <v>2384</v>
+      </c>
+      <c r="B285" s="8" t="s">
         <v>380</v>
-      </c>
-      <c r="B285" s="8" t="s">
-        <v>2384</v>
       </c>
       <c r="C285" s="10">
         <v>134</v>
@@ -14607,10 +14607,10 @@
     </row>
     <row r="286" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A286" s="8" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B286" s="8" t="s">
         <v>1916</v>
-      </c>
-      <c r="B286" s="8" t="s">
-        <v>2385</v>
       </c>
       <c r="C286" s="11">
         <v>349</v>
@@ -14627,10 +14627,10 @@
     </row>
     <row r="287" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A287" s="8" t="s">
+        <v>2386</v>
+      </c>
+      <c r="B287" s="8" t="s">
         <v>1869</v>
-      </c>
-      <c r="B287" s="8" t="s">
-        <v>2386</v>
       </c>
       <c r="C287" s="10">
         <v>402</v>
@@ -14727,10 +14727,10 @@
     </row>
     <row r="292" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A292" s="8" t="s">
+        <v>2387</v>
+      </c>
+      <c r="B292" s="8" t="s">
         <v>1917</v>
-      </c>
-      <c r="B292" s="8" t="s">
-        <v>2387</v>
       </c>
       <c r="C292" s="11">
         <v>394</v>
@@ -14767,10 +14767,10 @@
     </row>
     <row r="294" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A294" s="8" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B294" s="8" t="s">
         <v>1552</v>
-      </c>
-      <c r="B294" s="8" t="s">
-        <v>2388</v>
       </c>
       <c r="C294" s="11">
         <v>597</v>
@@ -14787,10 +14787,10 @@
     </row>
     <row r="295" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A295" s="8" t="s">
+        <v>2389</v>
+      </c>
+      <c r="B295" s="8" t="s">
         <v>1245</v>
-      </c>
-      <c r="B295" s="8" t="s">
-        <v>2389</v>
       </c>
       <c r="C295" s="10">
         <v>576</v>
@@ -14827,10 +14827,10 @@
     </row>
     <row r="297" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A297" s="8" t="s">
+        <v>2390</v>
+      </c>
+      <c r="B297" s="8" t="s">
         <v>1895</v>
-      </c>
-      <c r="B297" s="8" t="s">
-        <v>2390</v>
       </c>
       <c r="C297" s="10">
         <v>500</v>
@@ -14847,10 +14847,10 @@
     </row>
     <row r="298" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A298" s="8" t="s">
+        <v>2391</v>
+      </c>
+      <c r="B298" s="8" t="s">
         <v>1327</v>
-      </c>
-      <c r="B298" s="8" t="s">
-        <v>2391</v>
       </c>
       <c r="C298" s="11">
         <v>613</v>
@@ -14907,10 +14907,10 @@
     </row>
     <row r="301" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A301" s="8" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B301" s="8" t="s">
         <v>1955</v>
-      </c>
-      <c r="B301" s="8" t="s">
-        <v>2392</v>
       </c>
       <c r="C301" s="10">
         <v>442</v>
@@ -14927,10 +14927,10 @@
     </row>
     <row r="302" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A302" s="8" t="s">
+        <v>2393</v>
+      </c>
+      <c r="B302" s="8" t="s">
         <v>1389</v>
-      </c>
-      <c r="B302" s="8" t="s">
-        <v>2393</v>
       </c>
       <c r="C302" s="11">
         <v>385</v>
@@ -14947,10 +14947,10 @@
     </row>
     <row r="303" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A303" s="8" t="s">
+        <v>2394</v>
+      </c>
+      <c r="B303" s="8" t="s">
         <v>2028</v>
-      </c>
-      <c r="B303" s="8" t="s">
-        <v>2394</v>
       </c>
       <c r="C303" s="10">
         <v>966</v>
@@ -14967,10 +14967,10 @@
     </row>
     <row r="304" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A304" s="8" t="s">
+        <v>2395</v>
+      </c>
+      <c r="B304" s="8" t="s">
         <v>1957</v>
-      </c>
-      <c r="B304" s="8" t="s">
-        <v>2395</v>
       </c>
       <c r="C304" s="11">
         <v>479</v>
@@ -15027,10 +15027,10 @@
     </row>
     <row r="307" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A307" s="8" t="s">
+        <v>2396</v>
+      </c>
+      <c r="B307" s="8" t="s">
         <v>1475</v>
-      </c>
-      <c r="B307" s="8" t="s">
-        <v>2396</v>
       </c>
       <c r="C307" s="10">
         <v>32</v>
@@ -15067,10 +15067,10 @@
     </row>
     <row r="309" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A309" s="8" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B309" s="8" t="s">
         <v>1278</v>
-      </c>
-      <c r="B309" s="8" t="s">
-        <v>2397</v>
       </c>
       <c r="C309" s="10">
         <v>503</v>
@@ -15107,10 +15107,10 @@
     </row>
     <row r="311" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A311" s="8" t="s">
+        <v>2398</v>
+      </c>
+      <c r="B311" s="8" t="s">
         <v>1736</v>
-      </c>
-      <c r="B311" s="8" t="s">
-        <v>2398</v>
       </c>
       <c r="C311" s="10">
         <v>278</v>
@@ -15127,10 +15127,10 @@
     </row>
     <row r="312" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A312" s="8" t="s">
+        <v>2399</v>
+      </c>
+      <c r="B312" s="8" t="s">
         <v>1456</v>
-      </c>
-      <c r="B312" s="8" t="s">
-        <v>2399</v>
       </c>
       <c r="C312" s="11">
         <v>828</v>
@@ -15187,10 +15187,10 @@
     </row>
     <row r="315" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A315" s="8" t="s">
+        <v>2400</v>
+      </c>
+      <c r="B315" s="8" t="s">
         <v>1681</v>
-      </c>
-      <c r="B315" s="8" t="s">
-        <v>2400</v>
       </c>
       <c r="C315" s="10">
         <v>157</v>
@@ -15227,10 +15227,10 @@
     </row>
     <row r="317" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A317" s="8" t="s">
+        <v>2401</v>
+      </c>
+      <c r="B317" s="8" t="s">
         <v>415</v>
-      </c>
-      <c r="B317" s="8" t="s">
-        <v>2401</v>
       </c>
       <c r="C317" s="10">
         <v>994</v>
@@ -15247,10 +15247,10 @@
     </row>
     <row r="318" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A318" s="8" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B318" s="8" t="s">
         <v>1606</v>
-      </c>
-      <c r="B318" s="8" t="s">
-        <v>2402</v>
       </c>
       <c r="C318" s="11">
         <v>309</v>
@@ -15267,10 +15267,10 @@
     </row>
     <row r="319" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A319" s="8" t="s">
+        <v>2403</v>
+      </c>
+      <c r="B319" s="8" t="s">
         <v>1593</v>
-      </c>
-      <c r="B319" s="8" t="s">
-        <v>2403</v>
       </c>
       <c r="C319" s="10">
         <v>501</v>
@@ -15287,10 +15287,10 @@
     </row>
     <row r="320" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A320" s="8" t="s">
+        <v>2404</v>
+      </c>
+      <c r="B320" s="8" t="s">
         <v>420</v>
-      </c>
-      <c r="B320" s="8" t="s">
-        <v>2404</v>
       </c>
       <c r="C320" s="11">
         <v>907</v>
@@ -15307,10 +15307,10 @@
     </row>
     <row r="321" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A321" s="8" t="s">
+        <v>2405</v>
+      </c>
+      <c r="B321" s="8" t="s">
         <v>1911</v>
-      </c>
-      <c r="B321" s="8" t="s">
-        <v>2405</v>
       </c>
       <c r="C321" s="10">
         <v>45</v>
@@ -15387,10 +15387,10 @@
     </row>
     <row r="325" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A325" s="8" t="s">
+        <v>2406</v>
+      </c>
+      <c r="B325" s="8" t="s">
         <v>1639</v>
-      </c>
-      <c r="B325" s="8" t="s">
-        <v>2406</v>
       </c>
       <c r="C325" s="10">
         <v>979</v>
@@ -15407,10 +15407,10 @@
     </row>
     <row r="326" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A326" s="8" t="s">
+        <v>2407</v>
+      </c>
+      <c r="B326" s="8" t="s">
         <v>1598</v>
-      </c>
-      <c r="B326" s="8" t="s">
-        <v>2407</v>
       </c>
       <c r="C326" s="11">
         <v>184</v>
@@ -15427,10 +15427,10 @@
     </row>
     <row r="327" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A327" s="8" t="s">
+        <v>2408</v>
+      </c>
+      <c r="B327" s="8" t="s">
         <v>1840</v>
-      </c>
-      <c r="B327" s="8" t="s">
-        <v>2408</v>
       </c>
       <c r="C327" s="10">
         <v>909</v>
@@ -15447,10 +15447,10 @@
     </row>
     <row r="328" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A328" s="8" t="s">
+        <v>2409</v>
+      </c>
+      <c r="B328" s="8" t="s">
         <v>1487</v>
-      </c>
-      <c r="B328" s="8" t="s">
-        <v>2409</v>
       </c>
       <c r="C328" s="11">
         <v>721</v>
@@ -15467,10 +15467,10 @@
     </row>
     <row r="329" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A329" s="8" t="s">
+        <v>2410</v>
+      </c>
+      <c r="B329" s="8" t="s">
         <v>1383</v>
-      </c>
-      <c r="B329" s="8" t="s">
-        <v>2410</v>
       </c>
       <c r="C329" s="10">
         <v>236</v>
@@ -15487,10 +15487,10 @@
     </row>
     <row r="330" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A330" s="8" t="s">
+        <v>2411</v>
+      </c>
+      <c r="B330" s="8" t="s">
         <v>1440</v>
-      </c>
-      <c r="B330" s="8" t="s">
-        <v>2411</v>
       </c>
       <c r="C330" s="11">
         <v>146</v>
@@ -15527,10 +15527,10 @@
     </row>
     <row r="332" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A332" s="8" t="s">
+        <v>2412</v>
+      </c>
+      <c r="B332" s="8" t="s">
         <v>1357</v>
-      </c>
-      <c r="B332" s="8" t="s">
-        <v>2412</v>
       </c>
       <c r="C332" s="11">
         <v>457</v>
@@ -15547,10 +15547,10 @@
     </row>
     <row r="333" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A333" s="8" t="s">
+        <v>2413</v>
+      </c>
+      <c r="B333" s="8" t="s">
         <v>1236</v>
-      </c>
-      <c r="B333" s="8" t="s">
-        <v>2413</v>
       </c>
       <c r="C333" s="10">
         <v>818</v>
@@ -15587,10 +15587,10 @@
     </row>
     <row r="335" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A335" s="8" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B335" s="8" t="s">
         <v>1288</v>
-      </c>
-      <c r="B335" s="8" t="s">
-        <v>2414</v>
       </c>
       <c r="C335" s="10">
         <v>283</v>
@@ -15607,10 +15607,10 @@
     </row>
     <row r="336" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A336" s="8" t="s">
+        <v>2415</v>
+      </c>
+      <c r="B336" s="8" t="s">
         <v>1307</v>
-      </c>
-      <c r="B336" s="8" t="s">
-        <v>2415</v>
       </c>
       <c r="C336" s="11">
         <v>772</v>
@@ -15647,10 +15647,10 @@
     </row>
     <row r="338" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A338" s="8" t="s">
+        <v>2416</v>
+      </c>
+      <c r="B338" s="8" t="s">
         <v>1304</v>
-      </c>
-      <c r="B338" s="8" t="s">
-        <v>2416</v>
       </c>
       <c r="C338" s="11">
         <v>706</v>
@@ -15705,10 +15705,10 @@
     </row>
     <row r="341" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A341" s="8" t="s">
+        <v>2417</v>
+      </c>
+      <c r="B341" s="8" t="s">
         <v>1577</v>
-      </c>
-      <c r="B341" s="8" t="s">
-        <v>2417</v>
       </c>
       <c r="C341" s="11">
         <v>422</v>
@@ -15745,10 +15745,10 @@
     </row>
     <row r="343" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A343" s="8" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B343" s="8" t="s">
         <v>2784</v>
-      </c>
-      <c r="B343" s="8" t="s">
-        <v>1275</v>
       </c>
       <c r="C343" s="11">
         <v>833</v>
@@ -15805,10 +15805,10 @@
     </row>
     <row r="346" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A346" s="8" t="s">
+        <v>2418</v>
+      </c>
+      <c r="B346" s="8" t="s">
         <v>1680</v>
-      </c>
-      <c r="B346" s="8" t="s">
-        <v>2418</v>
       </c>
       <c r="C346" s="10">
         <v>138</v>
@@ -15845,10 +15845,10 @@
     </row>
     <row r="348" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A348" s="8" t="s">
+        <v>2419</v>
+      </c>
+      <c r="B348" s="8" t="s">
         <v>1934</v>
-      </c>
-      <c r="B348" s="8" t="s">
-        <v>2419</v>
       </c>
       <c r="C348" s="10">
         <v>345</v>
@@ -15865,10 +15865,10 @@
     </row>
     <row r="349" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A349" s="8" t="s">
+        <v>2420</v>
+      </c>
+      <c r="B349" s="8" t="s">
         <v>1829</v>
-      </c>
-      <c r="B349" s="8" t="s">
-        <v>2420</v>
       </c>
       <c r="C349" s="11">
         <v>225</v>
@@ -15885,10 +15885,10 @@
     </row>
     <row r="350" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A350" s="8" t="s">
+        <v>2421</v>
+      </c>
+      <c r="B350" s="8" t="s">
         <v>1539</v>
-      </c>
-      <c r="B350" s="8" t="s">
-        <v>2421</v>
       </c>
       <c r="C350" s="10">
         <v>918</v>
@@ -15905,10 +15905,10 @@
     </row>
     <row r="351" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A351" s="8" t="s">
+        <v>2422</v>
+      </c>
+      <c r="B351" s="8" t="s">
         <v>1777</v>
-      </c>
-      <c r="B351" s="8" t="s">
-        <v>2422</v>
       </c>
       <c r="C351" s="11">
         <v>559</v>
@@ -15925,10 +15925,10 @@
     </row>
     <row r="352" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A352" s="8" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B352" s="8" t="s">
         <v>1238</v>
-      </c>
-      <c r="B352" s="8" t="s">
-        <v>2423</v>
       </c>
       <c r="C352" s="10">
         <v>927</v>
@@ -15945,10 +15945,10 @@
     </row>
     <row r="353" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A353" s="8" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B353" s="8" t="s">
         <v>1239</v>
-      </c>
-      <c r="B353" s="8" t="s">
-        <v>2424</v>
       </c>
       <c r="C353" s="11">
         <v>936</v>
@@ -15985,10 +15985,10 @@
     </row>
     <row r="355" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A355" s="8" t="s">
+        <v>2425</v>
+      </c>
+      <c r="B355" s="8" t="s">
         <v>456</v>
-      </c>
-      <c r="B355" s="8" t="s">
-        <v>2425</v>
       </c>
       <c r="C355" s="11">
         <v>694</v>
@@ -16025,10 +16025,10 @@
     </row>
     <row r="357" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A357" s="8" t="s">
+        <v>2426</v>
+      </c>
+      <c r="B357" s="8" t="s">
         <v>1861</v>
-      </c>
-      <c r="B357" s="8" t="s">
-        <v>2426</v>
       </c>
       <c r="C357" s="11">
         <v>177</v>
@@ -16045,10 +16045,10 @@
     </row>
     <row r="358" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A358" s="8" t="s">
+        <v>2427</v>
+      </c>
+      <c r="B358" s="8" t="s">
         <v>1885</v>
-      </c>
-      <c r="B358" s="8" t="s">
-        <v>2427</v>
       </c>
       <c r="C358" s="10">
         <v>957</v>
@@ -16065,10 +16065,10 @@
     </row>
     <row r="359" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A359" s="8" t="s">
+        <v>2428</v>
+      </c>
+      <c r="B359" s="8" t="s">
         <v>1298</v>
-      </c>
-      <c r="B359" s="8" t="s">
-        <v>2428</v>
       </c>
       <c r="C359" s="11">
         <v>523</v>
@@ -16085,10 +16085,10 @@
     </row>
     <row r="360" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A360" s="8" t="s">
+        <v>2429</v>
+      </c>
+      <c r="B360" s="8" t="s">
         <v>1689</v>
-      </c>
-      <c r="B360" s="8" t="s">
-        <v>2429</v>
       </c>
       <c r="C360" s="10">
         <v>524</v>
@@ -16125,10 +16125,10 @@
     </row>
     <row r="362" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A362" s="8" t="s">
+        <v>2430</v>
+      </c>
+      <c r="B362" s="8" t="s">
         <v>1354</v>
-      </c>
-      <c r="B362" s="8" t="s">
-        <v>2430</v>
       </c>
       <c r="C362" s="11">
         <v>407</v>
@@ -16165,10 +16165,10 @@
     </row>
     <row r="364" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A364" s="8" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B364" s="8" t="s">
         <v>1827</v>
-      </c>
-      <c r="B364" s="8" t="s">
-        <v>2431</v>
       </c>
       <c r="C364" s="11">
         <v>194</v>
@@ -16205,10 +16205,10 @@
     </row>
     <row r="366" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A366" s="8" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B366" s="8" t="s">
         <v>1978</v>
-      </c>
-      <c r="B366" s="8" t="s">
-        <v>2432</v>
       </c>
       <c r="C366" s="11">
         <v>237</v>
@@ -16225,10 +16225,10 @@
     </row>
     <row r="367" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A367" s="8" t="s">
+        <v>2433</v>
+      </c>
+      <c r="B367" s="8" t="s">
         <v>1452</v>
-      </c>
-      <c r="B367" s="8" t="s">
-        <v>2433</v>
       </c>
       <c r="C367" s="10">
         <v>667</v>
@@ -16265,10 +16265,10 @@
     </row>
     <row r="369" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A369" s="8" t="s">
+        <v>2434</v>
+      </c>
+      <c r="B369" s="8" t="s">
         <v>1704</v>
-      </c>
-      <c r="B369" s="8" t="s">
-        <v>2434</v>
       </c>
       <c r="C369" s="10">
         <v>360</v>
@@ -16305,10 +16305,10 @@
     </row>
     <row r="371" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A371" s="8" t="s">
+        <v>2435</v>
+      </c>
+      <c r="B371" s="8" t="s">
         <v>1708</v>
-      </c>
-      <c r="B371" s="8" t="s">
-        <v>2435</v>
       </c>
       <c r="C371" s="10">
         <v>380</v>
@@ -16325,10 +16325,10 @@
     </row>
     <row r="372" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A372" s="8" t="s">
+        <v>2436</v>
+      </c>
+      <c r="B372" s="8" t="s">
         <v>1611</v>
-      </c>
-      <c r="B372" s="8" t="s">
-        <v>2436</v>
       </c>
       <c r="C372" s="11">
         <v>434</v>
@@ -16365,10 +16365,10 @@
     </row>
     <row r="374" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A374" s="8" t="s">
+        <v>2437</v>
+      </c>
+      <c r="B374" s="8" t="s">
         <v>1567</v>
-      </c>
-      <c r="B374" s="8" t="s">
-        <v>2437</v>
       </c>
       <c r="C374" s="11">
         <v>39</v>
@@ -16425,10 +16425,10 @@
     </row>
     <row r="377" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A377" s="8" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B377" s="8" t="s">
         <v>481</v>
-      </c>
-      <c r="B377" s="8" t="s">
-        <v>1648</v>
       </c>
       <c r="C377" s="10">
         <v>80</v>
@@ -16465,10 +16465,10 @@
     </row>
     <row r="379" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A379" s="8" t="s">
+        <v>2438</v>
+      </c>
+      <c r="B379" s="8" t="s">
         <v>484</v>
-      </c>
-      <c r="B379" s="8" t="s">
-        <v>2438</v>
       </c>
       <c r="C379" s="10">
         <v>981</v>
@@ -16485,10 +16485,10 @@
     </row>
     <row r="380" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A380" s="8" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B380" s="8" t="s">
         <v>1587</v>
-      </c>
-      <c r="B380" s="8" t="s">
-        <v>2439</v>
       </c>
       <c r="C380" s="11">
         <v>88</v>
@@ -16545,10 +16545,10 @@
     </row>
     <row r="383" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A383" s="8" t="s">
+        <v>2440</v>
+      </c>
+      <c r="B383" s="8" t="s">
         <v>1429</v>
-      </c>
-      <c r="B383" s="8" t="s">
-        <v>2440</v>
       </c>
       <c r="C383" s="10">
         <v>664</v>
@@ -16625,10 +16625,10 @@
     </row>
     <row r="387" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A387" s="8" t="s">
+        <v>2441</v>
+      </c>
+      <c r="B387" s="8" t="s">
         <v>493</v>
-      </c>
-      <c r="B387" s="8" t="s">
-        <v>2441</v>
       </c>
       <c r="C387" s="10">
         <v>368</v>
@@ -16645,10 +16645,10 @@
     </row>
     <row r="388" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A388" s="8" t="s">
+        <v>2442</v>
+      </c>
+      <c r="B388" s="8" t="s">
         <v>1591</v>
-      </c>
-      <c r="B388" s="8" t="s">
-        <v>2442</v>
       </c>
       <c r="C388" s="11">
         <v>355</v>
@@ -16685,10 +16685,10 @@
     </row>
     <row r="390" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A390" s="8" t="s">
+        <v>2443</v>
+      </c>
+      <c r="B390" s="8" t="s">
         <v>1814</v>
-      </c>
-      <c r="B390" s="8" t="s">
-        <v>2443</v>
       </c>
       <c r="C390" s="11">
         <v>228</v>
@@ -16705,10 +16705,10 @@
     </row>
     <row r="391" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A391" s="8" t="s">
+        <v>2444</v>
+      </c>
+      <c r="B391" s="8" t="s">
         <v>1247</v>
-      </c>
-      <c r="B391" s="8" t="s">
-        <v>2444</v>
       </c>
       <c r="C391" s="10">
         <v>899</v>
@@ -16765,10 +16765,10 @@
     </row>
     <row r="394" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A394" s="8" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B394" s="8" t="s">
         <v>1947</v>
-      </c>
-      <c r="B394" s="8" t="s">
-        <v>2445</v>
       </c>
       <c r="C394" s="11">
         <v>819</v>
@@ -16785,10 +16785,10 @@
     </row>
     <row r="395" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A395" s="8" t="s">
+        <v>2446</v>
+      </c>
+      <c r="B395" s="8" t="s">
         <v>1662</v>
-      </c>
-      <c r="B395" s="8" t="s">
-        <v>2446</v>
       </c>
       <c r="C395" s="10">
         <v>59</v>
@@ -16805,10 +16805,10 @@
     </row>
     <row r="396" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A396" s="8" t="s">
+        <v>2447</v>
+      </c>
+      <c r="B396" s="8" t="s">
         <v>505</v>
-      </c>
-      <c r="B396" s="8" t="s">
-        <v>2447</v>
       </c>
       <c r="C396" s="11">
         <v>679</v>
@@ -16885,10 +16885,10 @@
     </row>
     <row r="400" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A400" s="8" t="s">
+        <v>2448</v>
+      </c>
+      <c r="B400" s="8" t="s">
         <v>510</v>
-      </c>
-      <c r="B400" s="8" t="s">
-        <v>2448</v>
       </c>
       <c r="C400" s="11">
         <v>396</v>
@@ -16905,10 +16905,10 @@
     </row>
     <row r="401" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A401" s="8" t="s">
+        <v>2449</v>
+      </c>
+      <c r="B401" s="8" t="s">
         <v>512</v>
-      </c>
-      <c r="B401" s="8" t="s">
-        <v>2449</v>
       </c>
       <c r="C401" s="10">
         <v>955</v>
@@ -16925,10 +16925,10 @@
     </row>
     <row r="402" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A402" s="8" t="s">
+        <v>2450</v>
+      </c>
+      <c r="B402" s="8" t="s">
         <v>1965</v>
-      </c>
-      <c r="B402" s="8" t="s">
-        <v>2450</v>
       </c>
       <c r="C402" s="11">
         <v>754</v>
@@ -16945,10 +16945,10 @@
     </row>
     <row r="403" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A403" s="8" t="s">
+        <v>2451</v>
+      </c>
+      <c r="B403" s="8" t="s">
         <v>2011</v>
-      </c>
-      <c r="B403" s="8" t="s">
-        <v>2451</v>
       </c>
       <c r="C403" s="10">
         <v>723</v>
@@ -16985,10 +16985,10 @@
     </row>
     <row r="405" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A405" s="8" t="s">
+        <v>2452</v>
+      </c>
+      <c r="B405" s="8" t="s">
         <v>2004</v>
-      </c>
-      <c r="B405" s="8" t="s">
-        <v>2452</v>
       </c>
       <c r="C405" s="10">
         <v>602</v>
@@ -17025,10 +17025,10 @@
     </row>
     <row r="407" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A407" s="8" t="s">
+        <v>2453</v>
+      </c>
+      <c r="B407" s="8" t="s">
         <v>1303</v>
-      </c>
-      <c r="B407" s="8" t="s">
-        <v>2453</v>
       </c>
       <c r="C407" s="10">
         <v>671</v>
@@ -17045,10 +17045,10 @@
     </row>
     <row r="408" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A408" s="8" t="s">
+        <v>2454</v>
+      </c>
+      <c r="B408" s="8" t="s">
         <v>1519</v>
-      </c>
-      <c r="B408" s="8" t="s">
-        <v>2454</v>
       </c>
       <c r="C408" s="11">
         <v>437</v>
@@ -17085,10 +17085,10 @@
     </row>
     <row r="410" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A410" s="8" t="s">
+        <v>2455</v>
+      </c>
+      <c r="B410" s="8" t="s">
         <v>1561</v>
-      </c>
-      <c r="B410" s="8" t="s">
-        <v>2455</v>
       </c>
       <c r="C410" s="11">
         <v>871</v>
@@ -17105,10 +17105,10 @@
     </row>
     <row r="411" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A411" s="8" t="s">
+        <v>2456</v>
+      </c>
+      <c r="B411" s="8" t="s">
         <v>1849</v>
-      </c>
-      <c r="B411" s="8" t="s">
-        <v>2456</v>
       </c>
       <c r="C411" s="10">
         <v>411</v>
@@ -17145,10 +17145,10 @@
     </row>
     <row r="413" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A413" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="B413" s="8" t="s">
         <v>1759</v>
-      </c>
-      <c r="B413" s="8" t="s">
-        <v>2457</v>
       </c>
       <c r="C413" s="10">
         <v>980</v>
@@ -17165,10 +17165,10 @@
     </row>
     <row r="414" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A414" s="8" t="s">
+        <v>2458</v>
+      </c>
+      <c r="B414" s="8" t="s">
         <v>2012</v>
-      </c>
-      <c r="B414" s="8" t="s">
-        <v>2458</v>
       </c>
       <c r="C414" s="11">
         <v>742</v>
@@ -17185,10 +17185,10 @@
     </row>
     <row r="415" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A415" s="8" t="s">
+        <v>2459</v>
+      </c>
+      <c r="B415" s="8" t="s">
         <v>1390</v>
-      </c>
-      <c r="B415" s="8" t="s">
-        <v>2459</v>
       </c>
       <c r="C415" s="10">
         <v>428</v>
@@ -17225,10 +17225,10 @@
     </row>
     <row r="417" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A417" s="8" t="s">
+        <v>2460</v>
+      </c>
+      <c r="B417" s="8" t="s">
         <v>1507</v>
-      </c>
-      <c r="B417" s="8" t="s">
-        <v>2460</v>
       </c>
       <c r="C417" s="10">
         <v>202</v>
@@ -17245,10 +17245,10 @@
     </row>
     <row r="418" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A418" s="8" t="s">
+        <v>2461</v>
+      </c>
+      <c r="B418" s="8" t="s">
         <v>1621</v>
-      </c>
-      <c r="B418" s="8" t="s">
-        <v>2461</v>
       </c>
       <c r="C418" s="11">
         <v>592</v>
@@ -17285,10 +17285,10 @@
     </row>
     <row r="420" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A420" s="8" t="s">
+        <v>2462</v>
+      </c>
+      <c r="B420" s="8" t="s">
         <v>1636</v>
-      </c>
-      <c r="B420" s="8" t="s">
-        <v>2462</v>
       </c>
       <c r="C420" s="11">
         <v>952</v>
@@ -17325,10 +17325,10 @@
     </row>
     <row r="422" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A422" s="8" t="s">
+        <v>2463</v>
+      </c>
+      <c r="B422" s="8" t="s">
         <v>1404</v>
-      </c>
-      <c r="B422" s="8" t="s">
-        <v>2463</v>
       </c>
       <c r="C422" s="11">
         <v>381</v>
@@ -17365,10 +17365,10 @@
     </row>
     <row r="424" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A424" s="8" t="s">
+        <v>2464</v>
+      </c>
+      <c r="B424" s="8" t="s">
         <v>1491</v>
-      </c>
-      <c r="B424" s="8" t="s">
-        <v>2464</v>
       </c>
       <c r="C424" s="11">
         <v>931</v>
@@ -17385,10 +17385,10 @@
     </row>
     <row r="425" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A425" s="8" t="s">
+        <v>2465</v>
+      </c>
+      <c r="B425" s="8" t="s">
         <v>1395</v>
-      </c>
-      <c r="B425" s="8" t="s">
-        <v>2465</v>
       </c>
       <c r="C425" s="10">
         <v>908</v>
@@ -17425,10 +17425,10 @@
     </row>
     <row r="427" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A427" s="8" t="s">
+        <v>2466</v>
+      </c>
+      <c r="B427" s="8" t="s">
         <v>1322</v>
-      </c>
-      <c r="B427" s="8" t="s">
-        <v>2466</v>
       </c>
       <c r="C427" s="10">
         <v>512</v>
@@ -17445,10 +17445,10 @@
     </row>
     <row r="428" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A428" s="8" t="s">
+        <v>2467</v>
+      </c>
+      <c r="B428" s="8" t="s">
         <v>1563</v>
-      </c>
-      <c r="B428" s="8" t="s">
-        <v>2467</v>
       </c>
       <c r="C428" s="11">
         <v>895</v>
@@ -17485,10 +17485,10 @@
     </row>
     <row r="430" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A430" s="8" t="s">
+        <v>2468</v>
+      </c>
+      <c r="B430" s="8" t="s">
         <v>1943</v>
-      </c>
-      <c r="B430" s="8" t="s">
-        <v>2468</v>
       </c>
       <c r="C430" s="11">
         <v>699</v>
@@ -17525,10 +17525,10 @@
     </row>
     <row r="432" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A432" s="8" t="s">
+        <v>2469</v>
+      </c>
+      <c r="B432" s="8" t="s">
         <v>1758</v>
-      </c>
-      <c r="B432" s="8" t="s">
-        <v>2469</v>
       </c>
       <c r="C432" s="11">
         <v>953</v>
@@ -17565,10 +17565,10 @@
     </row>
     <row r="434" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A434" s="8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="B434" s="8" t="s">
         <v>549</v>
-      </c>
-      <c r="B434" s="8" t="s">
-        <v>2470</v>
       </c>
       <c r="C434" s="11">
         <v>704</v>
@@ -17585,10 +17585,10 @@
     </row>
     <row r="435" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A435" s="8" t="s">
+        <v>2471</v>
+      </c>
+      <c r="B435" s="8" t="s">
         <v>1556</v>
-      </c>
-      <c r="B435" s="8" t="s">
-        <v>2471</v>
       </c>
       <c r="C435" s="10">
         <v>766</v>
@@ -17605,10 +17605,10 @@
     </row>
     <row r="436" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A436" s="8" t="s">
+        <v>2472</v>
+      </c>
+      <c r="B436" s="8" t="s">
         <v>1864</v>
-      </c>
-      <c r="B436" s="8" t="s">
-        <v>2472</v>
       </c>
       <c r="C436" s="11">
         <v>316</v>
@@ -17665,10 +17665,10 @@
     </row>
     <row r="439" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A439" s="8" t="s">
+        <v>2473</v>
+      </c>
+      <c r="B439" s="8" t="s">
         <v>1347</v>
-      </c>
-      <c r="B439" s="8" t="s">
-        <v>2473</v>
       </c>
       <c r="C439" s="10">
         <v>187</v>
@@ -17685,10 +17685,10 @@
     </row>
     <row r="440" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A440" s="8" t="s">
+        <v>2474</v>
+      </c>
+      <c r="B440" s="8" t="s">
         <v>1374</v>
-      </c>
-      <c r="B440" s="8" t="s">
-        <v>2474</v>
       </c>
       <c r="C440" s="11">
         <v>809</v>
@@ -17845,10 +17845,10 @@
     </row>
     <row r="448" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A448" s="8" t="s">
+        <v>2475</v>
+      </c>
+      <c r="B448" s="8" t="s">
         <v>1397</v>
-      </c>
-      <c r="B448" s="8" t="s">
-        <v>2475</v>
       </c>
       <c r="C448" s="11">
         <v>84</v>
@@ -17865,10 +17865,10 @@
     </row>
     <row r="449" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A449" s="8" t="s">
+        <v>2476</v>
+      </c>
+      <c r="B449" s="8" t="s">
         <v>1420</v>
-      </c>
-      <c r="B449" s="8" t="s">
-        <v>2476</v>
       </c>
       <c r="C449" s="10">
         <v>839</v>
@@ -17885,10 +17885,10 @@
     </row>
     <row r="450" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A450" s="8" t="s">
+        <v>2477</v>
+      </c>
+      <c r="B450" s="8" t="s">
         <v>1414</v>
-      </c>
-      <c r="B450" s="8" t="s">
-        <v>2477</v>
       </c>
       <c r="C450" s="11">
         <v>749</v>
@@ -17905,10 +17905,10 @@
     </row>
     <row r="451" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A451" s="8" t="s">
+        <v>2478</v>
+      </c>
+      <c r="B451" s="8" t="s">
         <v>1407</v>
-      </c>
-      <c r="B451" s="8" t="s">
-        <v>2478</v>
       </c>
       <c r="C451" s="10">
         <v>565</v>
@@ -17945,10 +17945,10 @@
     </row>
     <row r="453" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A453" s="8" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B453" s="8" t="s">
         <v>1482</v>
-      </c>
-      <c r="B453" s="8" t="s">
-        <v>2479</v>
       </c>
       <c r="C453" s="10">
         <v>513</v>
@@ -17965,10 +17965,10 @@
     </row>
     <row r="454" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A454" s="8" t="s">
+        <v>2480</v>
+      </c>
+      <c r="B454" s="8" t="s">
         <v>1422</v>
-      </c>
-      <c r="B454" s="8" t="s">
-        <v>2480</v>
       </c>
       <c r="C454" s="11">
         <v>896</v>
@@ -17985,10 +17985,10 @@
     </row>
     <row r="455" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A455" s="8" t="s">
+        <v>2481</v>
+      </c>
+      <c r="B455" s="8" t="s">
         <v>1402</v>
-      </c>
-      <c r="B455" s="8" t="s">
-        <v>2481</v>
       </c>
       <c r="C455" s="10">
         <v>314</v>
@@ -18005,10 +18005,10 @@
     </row>
     <row r="456" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A456" s="8" t="s">
+        <v>2482</v>
+      </c>
+      <c r="B456" s="8" t="s">
         <v>1417</v>
-      </c>
-      <c r="B456" s="8" t="s">
-        <v>2482</v>
       </c>
       <c r="C456" s="11">
         <v>770</v>
@@ -18045,10 +18045,10 @@
     </row>
     <row r="458" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A458" s="8" t="s">
+        <v>2483</v>
+      </c>
+      <c r="B458" s="8" t="s">
         <v>1709</v>
-      </c>
-      <c r="B458" s="8" t="s">
-        <v>2483</v>
       </c>
       <c r="C458" s="11">
         <v>390</v>
@@ -18085,10 +18085,10 @@
     </row>
     <row r="460" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A460" s="8" t="s">
+        <v>2484</v>
+      </c>
+      <c r="B460" s="8" t="s">
         <v>1270</v>
-      </c>
-      <c r="B460" s="8" t="s">
-        <v>2484</v>
       </c>
       <c r="C460" s="11">
         <v>900</v>
@@ -18125,10 +18125,10 @@
     </row>
     <row r="462" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A462" s="8" t="s">
+        <v>2485</v>
+      </c>
+      <c r="B462" s="8" t="s">
         <v>1945</v>
-      </c>
-      <c r="B462" s="8" t="s">
-        <v>2485</v>
       </c>
       <c r="C462" s="11">
         <v>783</v>
@@ -18185,10 +18185,10 @@
     </row>
     <row r="465" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A465" s="8" t="s">
+        <v>2486</v>
+      </c>
+      <c r="B465" s="8" t="s">
         <v>1281</v>
-      </c>
-      <c r="B465" s="8" t="s">
-        <v>2486</v>
       </c>
       <c r="C465" s="10">
         <v>695</v>
@@ -18225,10 +18225,10 @@
     </row>
     <row r="467" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A467" s="8" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B467" s="8" t="s">
         <v>1533</v>
-      </c>
-      <c r="B467" s="8" t="s">
-        <v>1772</v>
       </c>
       <c r="C467" s="10">
         <v>824</v>
@@ -18245,10 +18245,10 @@
     </row>
     <row r="468" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A468" s="8" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B468" s="8" t="s">
         <v>1711</v>
-      </c>
-      <c r="B468" s="8" t="s">
-        <v>2487</v>
       </c>
       <c r="C468" s="11">
         <v>435</v>
@@ -18285,10 +18285,10 @@
     </row>
     <row r="470" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A470" s="8" t="s">
+        <v>2488</v>
+      </c>
+      <c r="B470" s="8" t="s">
         <v>1997</v>
-      </c>
-      <c r="B470" s="8" t="s">
-        <v>2488</v>
       </c>
       <c r="C470" s="11">
         <v>464</v>
@@ -18305,10 +18305,10 @@
     </row>
     <row r="471" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A471" s="8" t="s">
+        <v>2489</v>
+      </c>
+      <c r="B471" s="8" t="s">
         <v>1991</v>
-      </c>
-      <c r="B471" s="8" t="s">
-        <v>2489</v>
       </c>
       <c r="C471" s="10">
         <v>370</v>
@@ -18325,10 +18325,10 @@
     </row>
     <row r="472" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A472" s="8" t="s">
+        <v>2490</v>
+      </c>
+      <c r="B472" s="8" t="s">
         <v>2020</v>
-      </c>
-      <c r="B472" s="8" t="s">
-        <v>2490</v>
       </c>
       <c r="C472" s="11">
         <v>419</v>
@@ -18365,10 +18365,10 @@
     </row>
     <row r="474" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A474" s="8" t="s">
+        <v>2491</v>
+      </c>
+      <c r="B474" s="8" t="s">
         <v>1401</v>
-      </c>
-      <c r="B474" s="8" t="s">
-        <v>2491</v>
       </c>
       <c r="C474" s="11">
         <v>264</v>
@@ -18405,10 +18405,10 @@
     </row>
     <row r="476" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A476" s="8" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B476" s="8" t="s">
         <v>1400</v>
-      </c>
-      <c r="B476" s="8" t="s">
-        <v>2025</v>
       </c>
       <c r="C476" s="11">
         <v>229</v>
@@ -18425,10 +18425,10 @@
     </row>
     <row r="477" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A477" s="8" t="s">
+        <v>2492</v>
+      </c>
+      <c r="B477" s="8" t="s">
         <v>1793</v>
-      </c>
-      <c r="B477" s="8" t="s">
-        <v>2492</v>
       </c>
       <c r="C477" s="10">
         <v>495</v>
@@ -18465,10 +18465,10 @@
     </row>
     <row r="479" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A479" s="8" t="s">
+        <v>2493</v>
+      </c>
+      <c r="B479" s="8" t="s">
         <v>1470</v>
-      </c>
-      <c r="B479" s="8" t="s">
-        <v>2493</v>
       </c>
       <c r="C479" s="10">
         <v>761</v>
@@ -18525,10 +18525,10 @@
     </row>
     <row r="482" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A482" s="8" t="s">
+        <v>2494</v>
+      </c>
+      <c r="B482" s="8" t="s">
         <v>1819</v>
-      </c>
-      <c r="B482" s="8" t="s">
-        <v>2494</v>
       </c>
       <c r="C482" s="11">
         <v>516</v>
@@ -18585,10 +18585,10 @@
     </row>
     <row r="485" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A485" s="8" t="s">
+        <v>2495</v>
+      </c>
+      <c r="B485" s="8" t="s">
         <v>1385</v>
-      </c>
-      <c r="B485" s="8" t="s">
-        <v>2495</v>
       </c>
       <c r="C485" s="10">
         <v>245</v>
@@ -18625,10 +18625,10 @@
     </row>
     <row r="487" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A487" s="8" t="s">
+        <v>2496</v>
+      </c>
+      <c r="B487" s="8" t="s">
         <v>608</v>
-      </c>
-      <c r="B487" s="8" t="s">
-        <v>2496</v>
       </c>
       <c r="C487" s="10">
         <v>400</v>
@@ -18685,10 +18685,10 @@
     </row>
     <row r="490" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A490" s="8" t="s">
+        <v>2497</v>
+      </c>
+      <c r="B490" s="8" t="s">
         <v>1954</v>
-      </c>
-      <c r="B490" s="8" t="s">
-        <v>2497</v>
       </c>
       <c r="C490" s="11">
         <v>375</v>
@@ -18705,10 +18705,10 @@
     </row>
     <row r="491" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A491" s="8" t="s">
+        <v>2498</v>
+      </c>
+      <c r="B491" s="8" t="s">
         <v>1217</v>
-      </c>
-      <c r="B491" s="8" t="s">
-        <v>2498</v>
       </c>
       <c r="C491" s="10">
         <v>902</v>
@@ -18725,10 +18725,10 @@
     </row>
     <row r="492" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A492" s="8" t="s">
+        <v>2499</v>
+      </c>
+      <c r="B492" s="8" t="s">
         <v>1206</v>
-      </c>
-      <c r="B492" s="8" t="s">
-        <v>2499</v>
       </c>
       <c r="C492" s="11">
         <v>299</v>
@@ -18805,10 +18805,10 @@
     </row>
     <row r="496" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A496" s="8" t="s">
+        <v>2500</v>
+      </c>
+      <c r="B496" s="8" t="s">
         <v>1525</v>
-      </c>
-      <c r="B496" s="8" t="s">
-        <v>2500</v>
       </c>
       <c r="C496" s="11">
         <v>672</v>
@@ -18825,10 +18825,10 @@
     </row>
     <row r="497" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A497" s="8" t="s">
+        <v>2501</v>
+      </c>
+      <c r="B497" s="8" t="s">
         <v>1495</v>
-      </c>
-      <c r="B497" s="8" t="s">
-        <v>2501</v>
       </c>
       <c r="C497" s="10">
         <v>25</v>
@@ -18845,10 +18845,10 @@
     </row>
     <row r="498" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A498" s="8" t="s">
+        <v>2502</v>
+      </c>
+      <c r="B498" s="8" t="s">
         <v>1837</v>
-      </c>
-      <c r="B498" s="8" t="s">
-        <v>2502</v>
       </c>
       <c r="C498" s="11">
         <v>764</v>
@@ -18885,10 +18885,10 @@
     </row>
     <row r="500" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A500" s="8" t="s">
+        <v>2503</v>
+      </c>
+      <c r="B500" s="8" t="s">
         <v>1364</v>
-      </c>
-      <c r="B500" s="8" t="s">
-        <v>2503</v>
       </c>
       <c r="C500" s="11">
         <v>598</v>
@@ -18925,10 +18925,10 @@
     </row>
     <row r="502" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A502" s="8" t="s">
+        <v>2504</v>
+      </c>
+      <c r="B502" s="8" t="s">
         <v>1867</v>
-      </c>
-      <c r="B502" s="8" t="s">
-        <v>2504</v>
       </c>
       <c r="C502" s="11">
         <v>357</v>
@@ -18985,10 +18985,10 @@
     </row>
     <row r="505" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A505" s="8" t="s">
+        <v>2505</v>
+      </c>
+      <c r="B505" s="8" t="s">
         <v>1836</v>
-      </c>
-      <c r="B505" s="8" t="s">
-        <v>2505</v>
       </c>
       <c r="C505" s="10">
         <v>654</v>
@@ -19005,10 +19005,10 @@
     </row>
     <row r="506" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A506" s="8" t="s">
+        <v>2506</v>
+      </c>
+      <c r="B506" s="8" t="s">
         <v>1824</v>
-      </c>
-      <c r="B506" s="8" t="s">
-        <v>2506</v>
       </c>
       <c r="C506" s="11">
         <v>127</v>
@@ -19025,10 +19025,10 @@
     </row>
     <row r="507" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A507" s="8" t="s">
+        <v>2507</v>
+      </c>
+      <c r="B507" s="8" t="s">
         <v>1752</v>
-      </c>
-      <c r="B507" s="8" t="s">
-        <v>2507</v>
       </c>
       <c r="C507" s="10">
         <v>857</v>
@@ -19085,10 +19085,10 @@
     </row>
     <row r="510" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A510" s="8" t="s">
+        <v>2508</v>
+      </c>
+      <c r="B510" s="8" t="s">
         <v>1330</v>
-      </c>
-      <c r="B510" s="8" t="s">
-        <v>2508</v>
       </c>
       <c r="C510" s="11">
         <v>670</v>
@@ -19125,10 +19125,10 @@
     </row>
     <row r="512" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A512" s="8" t="s">
+        <v>2509</v>
+      </c>
+      <c r="B512" s="8" t="s">
         <v>1765</v>
-      </c>
-      <c r="B512" s="8" t="s">
-        <v>2509</v>
       </c>
       <c r="C512" s="11">
         <v>173</v>
@@ -19145,10 +19145,10 @@
     </row>
     <row r="513" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A513" s="8" t="s">
+        <v>2510</v>
+      </c>
+      <c r="B513" s="8" t="s">
         <v>1820</v>
-      </c>
-      <c r="B513" s="8" t="s">
-        <v>2510</v>
       </c>
       <c r="C513" s="10">
         <v>747</v>
@@ -19165,10 +19165,10 @@
     </row>
     <row r="514" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A514" s="8" t="s">
+        <v>2511</v>
+      </c>
+      <c r="B514" s="8" t="s">
         <v>1268</v>
-      </c>
-      <c r="B514" s="8" t="s">
-        <v>2511</v>
       </c>
       <c r="C514" s="11">
         <v>852</v>
@@ -19185,10 +19185,10 @@
     </row>
     <row r="515" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A515" s="8" t="s">
+        <v>2512</v>
+      </c>
+      <c r="B515" s="8" t="s">
         <v>1355</v>
-      </c>
-      <c r="B515" s="8" t="s">
-        <v>2512</v>
       </c>
       <c r="C515" s="10">
         <v>429</v>
@@ -19245,10 +19245,10 @@
     </row>
     <row r="518" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A518" s="8" t="s">
+        <v>2513</v>
+      </c>
+      <c r="B518" s="8" t="s">
         <v>1975</v>
-      </c>
-      <c r="B518" s="8" t="s">
-        <v>2513</v>
       </c>
       <c r="C518" s="11">
         <v>161</v>
@@ -19265,10 +19265,10 @@
     </row>
     <row r="519" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A519" s="8" t="s">
+        <v>2514</v>
+      </c>
+      <c r="B519" s="8" t="s">
         <v>1513</v>
-      </c>
-      <c r="B519" s="8" t="s">
-        <v>2514</v>
       </c>
       <c r="C519" s="10">
         <v>247</v>
@@ -19285,10 +19285,10 @@
     </row>
     <row r="520" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A520" s="8" t="s">
+        <v>2515</v>
+      </c>
+      <c r="B520" s="8" t="s">
         <v>1360</v>
-      </c>
-      <c r="B520" s="8" t="s">
-        <v>2515</v>
       </c>
       <c r="C520" s="11">
         <v>504</v>
@@ -19305,10 +19305,10 @@
     </row>
     <row r="521" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A521" s="8" t="s">
+        <v>2516</v>
+      </c>
+      <c r="B521" s="8" t="s">
         <v>1294</v>
-      </c>
-      <c r="B521" s="8" t="s">
-        <v>2516</v>
       </c>
       <c r="C521" s="10">
         <v>425</v>
@@ -19345,10 +19345,10 @@
     </row>
     <row r="523" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A523" s="8" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B523" s="8" t="s">
         <v>1889</v>
-      </c>
-      <c r="B523" s="8" t="s">
-        <v>2517</v>
       </c>
       <c r="C523" s="10">
         <v>114</v>
@@ -19445,10 +19445,10 @@
     </row>
     <row r="528" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A528" s="8" t="s">
+        <v>2518</v>
+      </c>
+      <c r="B528" s="8" t="s">
         <v>1747</v>
-      </c>
-      <c r="B528" s="8" t="s">
-        <v>2518</v>
       </c>
       <c r="C528" s="11">
         <v>711</v>
@@ -19465,10 +19465,10 @@
     </row>
     <row r="529" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A529" s="8" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B529" s="8" t="s">
         <v>1384</v>
-      </c>
-      <c r="B529" s="8" t="s">
-        <v>2519</v>
       </c>
       <c r="C529" s="10">
         <v>242</v>
@@ -19585,10 +19585,10 @@
     </row>
     <row r="535" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A535" s="8" t="s">
+        <v>2520</v>
+      </c>
+      <c r="B535" s="8" t="s">
         <v>1462</v>
-      </c>
-      <c r="B535" s="8" t="s">
-        <v>2520</v>
       </c>
       <c r="C535" s="10">
         <v>950</v>
@@ -19605,10 +19605,10 @@
     </row>
     <row r="536" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A536" s="8" t="s">
+        <v>2521</v>
+      </c>
+      <c r="B536" s="8" t="s">
         <v>1700</v>
-      </c>
-      <c r="B536" s="8" t="s">
-        <v>2521</v>
       </c>
       <c r="C536" s="11">
         <v>181</v>
@@ -19625,10 +19625,10 @@
     </row>
     <row r="537" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A537" s="8" t="s">
+        <v>2522</v>
+      </c>
+      <c r="B537" s="8" t="s">
         <v>1544</v>
-      </c>
-      <c r="B537" s="8" t="s">
-        <v>2522</v>
       </c>
       <c r="C537" s="10">
         <v>192</v>
@@ -19685,10 +19685,10 @@
     </row>
     <row r="540" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A540" s="8" t="s">
+        <v>2523</v>
+      </c>
+      <c r="B540" s="8" t="s">
         <v>1529</v>
-      </c>
-      <c r="B540" s="8" t="s">
-        <v>2523</v>
       </c>
       <c r="C540" s="11">
         <v>733</v>
@@ -19765,10 +19765,10 @@
     </row>
     <row r="544" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A544" s="8" t="s">
+        <v>2524</v>
+      </c>
+      <c r="B544" s="8" t="s">
         <v>1702</v>
-      </c>
-      <c r="B544" s="8" t="s">
-        <v>2524</v>
       </c>
       <c r="C544" s="11">
         <v>276</v>
@@ -19785,10 +19785,10 @@
     </row>
     <row r="545" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A545" s="8" t="s">
+        <v>2525</v>
+      </c>
+      <c r="B545" s="8" t="s">
         <v>1818</v>
-      </c>
-      <c r="B545" s="8" t="s">
-        <v>2525</v>
       </c>
       <c r="C545" s="10">
         <v>508</v>
@@ -19805,10 +19805,10 @@
     </row>
     <row r="546" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A546" s="8" t="s">
+        <v>2526</v>
+      </c>
+      <c r="B546" s="8" t="s">
         <v>1478</v>
-      </c>
-      <c r="B546" s="8" t="s">
-        <v>2526</v>
       </c>
       <c r="C546" s="11">
         <v>315</v>
@@ -19845,10 +19845,10 @@
     </row>
     <row r="548" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A548" s="8" t="s">
+        <v>2527</v>
+      </c>
+      <c r="B548" s="8" t="s">
         <v>1755</v>
-      </c>
-      <c r="B548" s="8" t="s">
-        <v>2527</v>
       </c>
       <c r="C548" s="11">
         <v>910</v>
@@ -19865,10 +19865,10 @@
     </row>
     <row r="549" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A549" s="8" t="s">
+        <v>2528</v>
+      </c>
+      <c r="B549" s="8" t="s">
         <v>1445</v>
-      </c>
-      <c r="B549" s="8" t="s">
-        <v>2528</v>
       </c>
       <c r="C549" s="10">
         <v>266</v>
@@ -19885,10 +19885,10 @@
     </row>
     <row r="550" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A550" s="8" t="s">
+        <v>2529</v>
+      </c>
+      <c r="B550" s="8" t="s">
         <v>1443</v>
-      </c>
-      <c r="B550" s="8" t="s">
-        <v>2529</v>
       </c>
       <c r="C550" s="11">
         <v>180</v>
@@ -19905,10 +19905,10 @@
     </row>
     <row r="551" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A551" s="8" t="s">
+        <v>2208</v>
+      </c>
+      <c r="B551" s="8" t="s">
         <v>1446</v>
-      </c>
-      <c r="B551" s="8" t="s">
-        <v>2208</v>
       </c>
       <c r="C551" s="10">
         <v>211</v>
@@ -19925,10 +19925,10 @@
     </row>
     <row r="552" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A552" s="8" t="s">
+        <v>2530</v>
+      </c>
+      <c r="B552" s="8" t="s">
         <v>1866</v>
-      </c>
-      <c r="B552" s="8" t="s">
-        <v>2530</v>
       </c>
       <c r="C552" s="11">
         <v>353</v>
@@ -19965,10 +19965,10 @@
     </row>
     <row r="554" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A554" s="8" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B554" s="8" t="s">
         <v>679</v>
-      </c>
-      <c r="B554" s="8" t="s">
-        <v>1670</v>
       </c>
       <c r="C554" s="11">
         <v>47</v>
@@ -20025,10 +20025,10 @@
     </row>
     <row r="557" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A557" s="8" t="s">
+        <v>2531</v>
+      </c>
+      <c r="B557" s="8" t="s">
         <v>1271</v>
-      </c>
-      <c r="B557" s="8" t="s">
-        <v>2531</v>
       </c>
       <c r="C557" s="10">
         <v>911</v>
@@ -20045,10 +20045,10 @@
     </row>
     <row r="558" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A558" s="8" t="s">
+        <v>2532</v>
+      </c>
+      <c r="B558" s="8" t="s">
         <v>1406</v>
-      </c>
-      <c r="B558" s="8" t="s">
-        <v>2532</v>
       </c>
       <c r="C558" s="11">
         <v>541</v>
@@ -20065,10 +20065,10 @@
     </row>
     <row r="559" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A559" s="8" t="s">
+        <v>2533</v>
+      </c>
+      <c r="B559" s="8" t="s">
         <v>1737</v>
-      </c>
-      <c r="B559" s="8" t="s">
-        <v>2533</v>
       </c>
       <c r="C559" s="10">
         <v>294</v>
@@ -20085,10 +20085,10 @@
     </row>
     <row r="560" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A560" s="8" t="s">
+        <v>2534</v>
+      </c>
+      <c r="B560" s="8" t="s">
         <v>1266</v>
-      </c>
-      <c r="B560" s="8" t="s">
-        <v>2534</v>
       </c>
       <c r="C560" s="11">
         <v>846</v>
@@ -20105,10 +20105,10 @@
     </row>
     <row r="561" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A561" s="8" t="s">
+        <v>2535</v>
+      </c>
+      <c r="B561" s="8" t="s">
         <v>690</v>
-      </c>
-      <c r="B561" s="8" t="s">
-        <v>2535</v>
       </c>
       <c r="C561" s="10">
         <v>179</v>
@@ -20165,10 +20165,10 @@
     </row>
     <row r="564" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A564" s="8" t="s">
+        <v>2536</v>
+      </c>
+      <c r="B564" s="8" t="s">
         <v>1325</v>
-      </c>
-      <c r="B564" s="8" t="s">
-        <v>2536</v>
       </c>
       <c r="C564" s="11">
         <v>525</v>
@@ -20285,10 +20285,10 @@
     </row>
     <row r="570" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A570" s="8" t="s">
+        <v>2537</v>
+      </c>
+      <c r="B570" s="8" t="s">
         <v>1613</v>
-      </c>
-      <c r="B570" s="8" t="s">
-        <v>2537</v>
       </c>
       <c r="C570" s="11">
         <v>455</v>
@@ -20305,10 +20305,10 @@
     </row>
     <row r="571" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A571" s="8" t="s">
+        <v>2538</v>
+      </c>
+      <c r="B571" s="8" t="s">
         <v>1939</v>
-      </c>
-      <c r="B571" s="8" t="s">
-        <v>2538</v>
       </c>
       <c r="C571" s="10">
         <v>509</v>
@@ -20325,10 +20325,10 @@
     </row>
     <row r="572" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A572" s="8" t="s">
+        <v>2539</v>
+      </c>
+      <c r="B572" s="8" t="s">
         <v>1358</v>
-      </c>
-      <c r="B572" s="8" t="s">
-        <v>2539</v>
       </c>
       <c r="C572" s="11">
         <v>458</v>
@@ -20345,10 +20345,10 @@
     </row>
     <row r="573" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A573" s="8" t="s">
+        <v>2540</v>
+      </c>
+      <c r="B573" s="8" t="s">
         <v>1699</v>
-      </c>
-      <c r="B573" s="8" t="s">
-        <v>2540</v>
       </c>
       <c r="C573" s="10">
         <v>135</v>
@@ -20365,10 +20365,10 @@
     </row>
     <row r="574" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A574" s="8" t="s">
+        <v>2541</v>
+      </c>
+      <c r="B574" s="8" t="s">
         <v>705</v>
-      </c>
-      <c r="B574" s="8" t="s">
-        <v>2541</v>
       </c>
       <c r="C574" s="11">
         <v>6</v>
@@ -20385,10 +20385,10 @@
     </row>
     <row r="575" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A575" s="8" t="s">
+        <v>2542</v>
+      </c>
+      <c r="B575" s="8" t="s">
         <v>706</v>
-      </c>
-      <c r="B575" s="8" t="s">
-        <v>2542</v>
       </c>
       <c r="C575" s="10">
         <v>436</v>
@@ -20405,10 +20405,10 @@
     </row>
     <row r="576" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A576" s="8" t="s">
+        <v>2543</v>
+      </c>
+      <c r="B576" s="8" t="s">
         <v>1660</v>
-      </c>
-      <c r="B576" s="8" t="s">
-        <v>2543</v>
       </c>
       <c r="C576" s="11">
         <v>51</v>
@@ -20425,10 +20425,10 @@
     </row>
     <row r="577" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A577" s="8" t="s">
+        <v>2544</v>
+      </c>
+      <c r="B577" s="8" t="s">
         <v>1316</v>
-      </c>
-      <c r="B577" s="8" t="s">
-        <v>2544</v>
       </c>
       <c r="C577" s="10">
         <v>347</v>
@@ -20465,10 +20465,10 @@
     </row>
     <row r="579" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A579" s="8" t="s">
+        <v>2545</v>
+      </c>
+      <c r="B579" s="8" t="s">
         <v>1615</v>
-      </c>
-      <c r="B579" s="8" t="s">
-        <v>2545</v>
       </c>
       <c r="C579" s="10">
         <v>477</v>
@@ -20525,10 +20525,10 @@
     </row>
     <row r="582" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A582" s="8" t="s">
+        <v>2546</v>
+      </c>
+      <c r="B582" s="8" t="s">
         <v>1776</v>
-      </c>
-      <c r="B582" s="8" t="s">
-        <v>2546</v>
       </c>
       <c r="C582" s="11">
         <v>545</v>
@@ -20545,10 +20545,10 @@
     </row>
     <row r="583" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A583" s="8" t="s">
+        <v>2547</v>
+      </c>
+      <c r="B583" s="8" t="s">
         <v>1659</v>
-      </c>
-      <c r="B583" s="8" t="s">
-        <v>2547</v>
       </c>
       <c r="C583" s="10">
         <v>49</v>
@@ -20585,10 +20585,10 @@
     </row>
     <row r="585" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A585" s="8" t="s">
+        <v>2548</v>
+      </c>
+      <c r="B585" s="8" t="s">
         <v>1685</v>
-      </c>
-      <c r="B585" s="8" t="s">
-        <v>2548</v>
       </c>
       <c r="C585" s="10">
         <v>452</v>
@@ -20665,10 +20665,10 @@
     </row>
     <row r="589" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A589" s="8" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B589" s="8" t="s">
         <v>1884</v>
-      </c>
-      <c r="B589" s="8" t="s">
-        <v>2549</v>
       </c>
       <c r="C589" s="10">
         <v>919</v>
@@ -20705,10 +20705,10 @@
     </row>
     <row r="591" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A591" s="8" t="s">
+        <v>2550</v>
+      </c>
+      <c r="B591" s="8" t="s">
         <v>1946</v>
-      </c>
-      <c r="B591" s="8" t="s">
-        <v>2550</v>
       </c>
       <c r="C591" s="10">
         <v>801</v>
@@ -20725,10 +20725,10 @@
     </row>
     <row r="592" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A592" s="8" t="s">
+        <v>2551</v>
+      </c>
+      <c r="B592" s="8" t="s">
         <v>1998</v>
-      </c>
-      <c r="B592" s="8" t="s">
-        <v>2551</v>
       </c>
       <c r="C592" s="11">
         <v>472</v>
@@ -20745,10 +20745,10 @@
     </row>
     <row r="593" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A593" s="8" t="s">
+        <v>2552</v>
+      </c>
+      <c r="B593" s="8" t="s">
         <v>1331</v>
-      </c>
-      <c r="B593" s="8" t="s">
-        <v>2552</v>
       </c>
       <c r="C593" s="10">
         <v>677</v>
@@ -20785,10 +20785,10 @@
     </row>
     <row r="595" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A595" s="8" t="s">
+        <v>2553</v>
+      </c>
+      <c r="B595" s="8" t="s">
         <v>1372</v>
-      </c>
-      <c r="B595" s="8" t="s">
-        <v>2553</v>
       </c>
       <c r="C595" s="10">
         <v>790</v>
@@ -20825,10 +20825,10 @@
     </row>
     <row r="597" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A597" s="8" t="s">
+        <v>2554</v>
+      </c>
+      <c r="B597" s="8" t="s">
         <v>1923</v>
-      </c>
-      <c r="B597" s="8" t="s">
-        <v>2554</v>
       </c>
       <c r="C597" s="10">
         <v>812</v>
@@ -20865,10 +20865,10 @@
     </row>
     <row r="599" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A599" s="8" t="s">
+        <v>2555</v>
+      </c>
+      <c r="B599" s="8" t="s">
         <v>735</v>
-      </c>
-      <c r="B599" s="8" t="s">
-        <v>2555</v>
       </c>
       <c r="C599" s="10">
         <v>574</v>
@@ -21005,10 +21005,10 @@
     </row>
     <row r="606" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A606" s="8" t="s">
+        <v>2556</v>
+      </c>
+      <c r="B606" s="8" t="s">
         <v>1610</v>
-      </c>
-      <c r="B606" s="8" t="s">
-        <v>2556</v>
       </c>
       <c r="C606" s="11">
         <v>417</v>
@@ -21045,10 +21045,10 @@
     </row>
     <row r="608" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A608" s="8" t="s">
+        <v>2557</v>
+      </c>
+      <c r="B608" s="8" t="s">
         <v>1749</v>
-      </c>
-      <c r="B608" s="8" t="s">
-        <v>2557</v>
       </c>
       <c r="C608" s="11">
         <v>736</v>
@@ -21085,10 +21085,10 @@
     </row>
     <row r="610" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A610" s="8" t="s">
+        <v>2558</v>
+      </c>
+      <c r="B610" s="8" t="s">
         <v>1994</v>
-      </c>
-      <c r="B610" s="8" t="s">
-        <v>2558</v>
       </c>
       <c r="C610" s="11">
         <v>416</v>
@@ -21125,10 +21125,10 @@
     </row>
     <row r="612" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A612" s="8" t="s">
+        <v>2559</v>
+      </c>
+      <c r="B612" s="8" t="s">
         <v>1693</v>
-      </c>
-      <c r="B612" s="8" t="s">
-        <v>2559</v>
       </c>
       <c r="C612" s="11">
         <v>755</v>
@@ -21165,10 +21165,10 @@
     </row>
     <row r="614" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A614" s="8" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B614" s="8" t="s">
         <v>1764</v>
-      </c>
-      <c r="B614" s="8" t="s">
-        <v>1779</v>
       </c>
       <c r="C614" s="10">
         <v>147</v>
@@ -21185,10 +21185,10 @@
     </row>
     <row r="615" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A615" s="8" t="s">
+        <v>2560</v>
+      </c>
+      <c r="B615" s="8" t="s">
         <v>1574</v>
-      </c>
-      <c r="B615" s="8" t="s">
-        <v>2560</v>
       </c>
       <c r="C615" s="10">
         <v>371</v>
@@ -21205,10 +21205,10 @@
     </row>
     <row r="616" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A616" s="8" t="s">
+        <v>2561</v>
+      </c>
+      <c r="B616" s="8" t="s">
         <v>1721</v>
-      </c>
-      <c r="B616" s="8" t="s">
-        <v>2561</v>
       </c>
       <c r="C616" s="11">
         <v>715</v>
@@ -21245,10 +21245,10 @@
     </row>
     <row r="618" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A618" s="8" t="s">
+        <v>2562</v>
+      </c>
+      <c r="B618" s="8" t="s">
         <v>1514</v>
-      </c>
-      <c r="B618" s="8" t="s">
-        <v>2562</v>
       </c>
       <c r="C618" s="11">
         <v>281</v>
@@ -21265,10 +21265,10 @@
     </row>
     <row r="619" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A619" s="8" t="s">
+        <v>2563</v>
+      </c>
+      <c r="B619" s="8" t="s">
         <v>1993</v>
-      </c>
-      <c r="B619" s="8" t="s">
-        <v>2563</v>
       </c>
       <c r="C619" s="10">
         <v>412</v>
@@ -21285,10 +21285,10 @@
     </row>
     <row r="620" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A620" s="8" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B620" s="8" t="s">
         <v>1826</v>
-      </c>
-      <c r="B620" s="8" t="s">
-        <v>2564</v>
       </c>
       <c r="C620" s="11">
         <v>190</v>
@@ -21305,10 +21305,10 @@
     </row>
     <row r="621" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A621" s="8" t="s">
+        <v>2565</v>
+      </c>
+      <c r="B621" s="8" t="s">
         <v>1908</v>
-      </c>
-      <c r="B621" s="8" t="s">
-        <v>2565</v>
       </c>
       <c r="C621" s="10">
         <v>847</v>
@@ -21325,10 +21325,10 @@
     </row>
     <row r="622" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A622" s="8" t="s">
+        <v>2566</v>
+      </c>
+      <c r="B622" s="8" t="s">
         <v>1457</v>
-      </c>
-      <c r="B622" s="8" t="s">
-        <v>2566</v>
       </c>
       <c r="C622" s="11">
         <v>829</v>
@@ -21345,10 +21345,10 @@
     </row>
     <row r="623" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A623" s="8" t="s">
+        <v>2567</v>
+      </c>
+      <c r="B623" s="8" t="s">
         <v>1477</v>
-      </c>
-      <c r="B623" s="8" t="s">
-        <v>2567</v>
       </c>
       <c r="C623" s="10">
         <v>160</v>
@@ -21425,10 +21425,10 @@
     </row>
     <row r="627" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A627" s="8" t="s">
+        <v>2568</v>
+      </c>
+      <c r="B627" s="8" t="s">
         <v>1392</v>
-      </c>
-      <c r="B627" s="8" t="s">
-        <v>2568</v>
       </c>
       <c r="C627" s="10">
         <v>550</v>
@@ -21505,10 +21505,10 @@
     </row>
     <row r="631" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A631" s="8" t="s">
+        <v>2773</v>
+      </c>
+      <c r="B631" s="8" t="s">
         <v>1537</v>
-      </c>
-      <c r="B631" s="8" t="s">
-        <v>2773</v>
       </c>
       <c r="C631" s="10">
         <v>858</v>
@@ -21525,10 +21525,10 @@
     </row>
     <row r="632" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A632" s="8" t="s">
+        <v>2774</v>
+      </c>
+      <c r="B632" s="8" t="s">
         <v>2786</v>
-      </c>
-      <c r="B632" s="8" t="s">
-        <v>2774</v>
       </c>
       <c r="C632" s="11">
         <v>872</v>
@@ -21565,10 +21565,10 @@
     </row>
     <row r="634" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A634" s="8" t="s">
+        <v>2569</v>
+      </c>
+      <c r="B634" s="8" t="s">
         <v>1992</v>
-      </c>
-      <c r="B634" s="8" t="s">
-        <v>2569</v>
       </c>
       <c r="C634" s="11">
         <v>388</v>
@@ -21585,10 +21585,10 @@
     </row>
     <row r="635" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A635" s="8" t="s">
+        <v>2570</v>
+      </c>
+      <c r="B635" s="8" t="s">
         <v>1418</v>
-      </c>
-      <c r="B635" s="8" t="s">
-        <v>2570</v>
       </c>
       <c r="C635" s="10">
         <v>792</v>
@@ -21625,10 +21625,10 @@
     </row>
     <row r="637" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A637" s="8" t="s">
+        <v>2571</v>
+      </c>
+      <c r="B637" s="8" t="s">
         <v>1255</v>
-      </c>
-      <c r="B637" s="8" t="s">
-        <v>2571</v>
       </c>
       <c r="C637" s="10">
         <v>530</v>
@@ -21665,10 +21665,10 @@
     </row>
     <row r="639" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A639" s="8" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B639" s="8" t="s">
         <v>1940</v>
-      </c>
-      <c r="B639" s="8" t="s">
-        <v>2572</v>
       </c>
       <c r="C639" s="10">
         <v>563</v>
@@ -21685,10 +21685,10 @@
     </row>
     <row r="640" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A640" s="8" t="s">
+        <v>2573</v>
+      </c>
+      <c r="B640" s="8" t="s">
         <v>1273</v>
-      </c>
-      <c r="B640" s="8" t="s">
-        <v>2573</v>
       </c>
       <c r="C640" s="11">
         <v>988</v>
@@ -21725,10 +21725,10 @@
     </row>
     <row r="642" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A642" s="8" t="s">
+        <v>2574</v>
+      </c>
+      <c r="B642" s="8" t="s">
         <v>1938</v>
-      </c>
-      <c r="B642" s="8" t="s">
-        <v>2574</v>
       </c>
       <c r="C642" s="11">
         <v>488</v>
@@ -21745,10 +21745,10 @@
     </row>
     <row r="643" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A643" s="8" t="s">
+        <v>2575</v>
+      </c>
+      <c r="B643" s="8" t="s">
         <v>1929</v>
-      </c>
-      <c r="B643" s="8" t="s">
-        <v>2575</v>
       </c>
       <c r="C643" s="10">
         <v>268</v>
@@ -21765,10 +21765,10 @@
     </row>
     <row r="644" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A644" s="8" t="s">
+        <v>2576</v>
+      </c>
+      <c r="B644" s="8" t="s">
         <v>1558</v>
-      </c>
-      <c r="B644" s="8" t="s">
-        <v>2576</v>
       </c>
       <c r="C644" s="11">
         <v>821</v>
@@ -21785,10 +21785,10 @@
     </row>
     <row r="645" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A645" s="8" t="s">
+        <v>2577</v>
+      </c>
+      <c r="B645" s="8" t="s">
         <v>1928</v>
-      </c>
-      <c r="B645" s="8" t="s">
-        <v>2577</v>
       </c>
       <c r="C645" s="10">
         <v>265</v>
@@ -21805,10 +21805,10 @@
     </row>
     <row r="646" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A646" s="8" t="s">
+        <v>2578</v>
+      </c>
+      <c r="B646" s="8" t="s">
         <v>1901</v>
-      </c>
-      <c r="B646" s="8" t="s">
-        <v>2578</v>
       </c>
       <c r="C646" s="11">
         <v>702</v>
@@ -21845,10 +21845,10 @@
     </row>
     <row r="648" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A648" s="8" t="s">
+        <v>2579</v>
+      </c>
+      <c r="B648" s="8" t="s">
         <v>1338</v>
-      </c>
-      <c r="B648" s="8" t="s">
-        <v>2579</v>
       </c>
       <c r="C648" s="11">
         <v>866</v>
@@ -21865,10 +21865,10 @@
     </row>
     <row r="649" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A649" s="8" t="s">
+        <v>2580</v>
+      </c>
+      <c r="B649" s="8" t="s">
         <v>1870</v>
-      </c>
-      <c r="B649" s="8" t="s">
-        <v>2580</v>
       </c>
       <c r="C649" s="10">
         <v>409</v>
@@ -21885,10 +21885,10 @@
     </row>
     <row r="650" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A650" s="8" t="s">
+        <v>2581</v>
+      </c>
+      <c r="B650" s="8" t="s">
         <v>1767</v>
-      </c>
-      <c r="B650" s="8" t="s">
-        <v>2581</v>
       </c>
       <c r="C650" s="11">
         <v>199</v>
@@ -21905,10 +21905,10 @@
     </row>
     <row r="651" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A651" s="8" t="s">
+        <v>2582</v>
+      </c>
+      <c r="B651" s="8" t="s">
         <v>1541</v>
-      </c>
-      <c r="B651" s="8" t="s">
-        <v>2582</v>
       </c>
       <c r="C651" s="10">
         <v>83</v>
@@ -21925,10 +21925,10 @@
     </row>
     <row r="652" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A652" s="8" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B652" s="8" t="s">
         <v>1838</v>
-      </c>
-      <c r="B652" s="8" t="s">
-        <v>2583</v>
       </c>
       <c r="C652" s="11">
         <v>767</v>
@@ -21965,10 +21965,10 @@
     </row>
     <row r="654" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A654" s="8" t="s">
+        <v>2584</v>
+      </c>
+      <c r="B654" s="8" t="s">
         <v>1703</v>
-      </c>
-      <c r="B654" s="8" t="s">
-        <v>2584</v>
       </c>
       <c r="C654" s="11">
         <v>287</v>
@@ -21985,10 +21985,10 @@
     </row>
     <row r="655" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A655" s="8" t="s">
+        <v>2585</v>
+      </c>
+      <c r="B655" s="8" t="s">
         <v>1802</v>
-      </c>
-      <c r="B655" s="8" t="s">
-        <v>2585</v>
       </c>
       <c r="C655" s="10">
         <v>649</v>
@@ -22005,10 +22005,10 @@
     </row>
     <row r="656" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A656" s="8" t="s">
+        <v>2586</v>
+      </c>
+      <c r="B656" s="8" t="s">
         <v>1520</v>
-      </c>
-      <c r="B656" s="8" t="s">
-        <v>2586</v>
       </c>
       <c r="C656" s="11">
         <v>459</v>
@@ -22025,10 +22025,10 @@
     </row>
     <row r="657" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A657" s="8" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B657" s="8" t="s">
         <v>795</v>
-      </c>
-      <c r="B657" s="8" t="s">
-        <v>2587</v>
       </c>
       <c r="C657" s="10">
         <v>974</v>
@@ -22045,10 +22045,10 @@
     </row>
     <row r="658" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A658" s="8" t="s">
+        <v>2588</v>
+      </c>
+      <c r="B658" s="8" t="s">
         <v>1201</v>
-      </c>
-      <c r="B658" s="8" t="s">
-        <v>2588</v>
       </c>
       <c r="C658" s="11">
         <v>968</v>
@@ -22085,10 +22085,10 @@
     </row>
     <row r="660" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A660" s="8" t="s">
+        <v>2589</v>
+      </c>
+      <c r="B660" s="8" t="s">
         <v>2026</v>
-      </c>
-      <c r="B660" s="8" t="s">
-        <v>2589</v>
       </c>
       <c r="C660" s="11">
         <v>913</v>
@@ -22125,10 +22125,10 @@
     </row>
     <row r="662" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A662" s="8" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B662" s="8" t="s">
         <v>1912</v>
-      </c>
-      <c r="B662" s="8" t="s">
-        <v>2590</v>
       </c>
       <c r="C662" s="11">
         <v>102</v>
@@ -22205,10 +22205,10 @@
     </row>
     <row r="666" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A666" s="8" t="s">
+        <v>2591</v>
+      </c>
+      <c r="B666" s="8" t="s">
         <v>1536</v>
-      </c>
-      <c r="B666" s="8" t="s">
-        <v>2591</v>
       </c>
       <c r="C666" s="11">
         <v>853</v>
@@ -22225,10 +22225,10 @@
     </row>
     <row r="667" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A667" s="8" t="s">
+        <v>2592</v>
+      </c>
+      <c r="B667" s="8" t="s">
         <v>1740</v>
-      </c>
-      <c r="B667" s="8" t="s">
-        <v>2592</v>
       </c>
       <c r="C667" s="10">
         <v>487</v>
@@ -22285,10 +22285,10 @@
     </row>
     <row r="670" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A670" s="8" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B670" s="8" t="s">
         <v>810</v>
-      </c>
-      <c r="B670" s="8" t="s">
-        <v>2593</v>
       </c>
       <c r="C670" s="11">
         <v>964</v>
@@ -22345,10 +22345,10 @@
     </row>
     <row r="673" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A673" s="8" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B673" s="8" t="s">
         <v>1619</v>
-      </c>
-      <c r="B673" s="8" t="s">
-        <v>2594</v>
       </c>
       <c r="C673" s="10">
         <v>567</v>
@@ -22365,10 +22365,10 @@
     </row>
     <row r="674" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A674" s="8" t="s">
+        <v>2595</v>
+      </c>
+      <c r="B674" s="8" t="s">
         <v>1805</v>
-      </c>
-      <c r="B674" s="8" t="s">
-        <v>2595</v>
       </c>
       <c r="C674" s="11">
         <v>737</v>
@@ -22405,10 +22405,10 @@
     </row>
     <row r="676" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A676" s="8" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B676" s="8" t="s">
         <v>1920</v>
-      </c>
-      <c r="B676" s="8" t="s">
-        <v>2596</v>
       </c>
       <c r="C676" s="11">
         <v>584</v>
@@ -22445,10 +22445,10 @@
     </row>
     <row r="678" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A678" s="8" t="s">
+        <v>2597</v>
+      </c>
+      <c r="B678" s="8" t="s">
         <v>1757</v>
-      </c>
-      <c r="B678" s="8" t="s">
-        <v>2597</v>
       </c>
       <c r="C678" s="11">
         <v>945</v>
@@ -22505,10 +22505,10 @@
     </row>
     <row r="681" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A681" s="8" t="s">
+        <v>2598</v>
+      </c>
+      <c r="B681" s="8" t="s">
         <v>1646</v>
-      </c>
-      <c r="B681" s="8" t="s">
-        <v>2598</v>
       </c>
       <c r="C681" s="10">
         <v>822</v>
@@ -22545,10 +22545,10 @@
     </row>
     <row r="683" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A683" s="8" t="s">
+        <v>2599</v>
+      </c>
+      <c r="B683" s="8" t="s">
         <v>1578</v>
-      </c>
-      <c r="B683" s="8" t="s">
-        <v>2599</v>
       </c>
       <c r="C683" s="10">
         <v>423</v>
@@ -22585,10 +22585,10 @@
     </row>
     <row r="685" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A685" s="8" t="s">
+        <v>2600</v>
+      </c>
+      <c r="B685" s="8" t="s">
         <v>828</v>
-      </c>
-      <c r="B685" s="8" t="s">
-        <v>2600</v>
       </c>
       <c r="C685" s="10">
         <v>681</v>
@@ -22645,10 +22645,10 @@
     </row>
     <row r="688" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A688" s="8" t="s">
+        <v>2601</v>
+      </c>
+      <c r="B688" s="8" t="s">
         <v>1980</v>
-      </c>
-      <c r="B688" s="8" t="s">
-        <v>2601</v>
       </c>
       <c r="C688" s="11">
         <v>240</v>
@@ -22705,10 +22705,10 @@
     </row>
     <row r="691" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A691" s="8" t="s">
+        <v>2602</v>
+      </c>
+      <c r="B691" s="8" t="s">
         <v>835</v>
-      </c>
-      <c r="B691" s="8" t="s">
-        <v>2602</v>
       </c>
       <c r="C691" s="10">
         <v>252</v>
@@ -22725,10 +22725,10 @@
     </row>
     <row r="692" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A692" s="8" t="s">
+        <v>2603</v>
+      </c>
+      <c r="B692" s="8" t="s">
         <v>1844</v>
-      </c>
-      <c r="B692" s="8" t="s">
-        <v>2603</v>
       </c>
       <c r="C692" s="11">
         <v>91</v>
@@ -22745,10 +22745,10 @@
     </row>
     <row r="693" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A693" s="8" t="s">
+        <v>2604</v>
+      </c>
+      <c r="B693" s="8" t="s">
         <v>1787</v>
-      </c>
-      <c r="B693" s="8" t="s">
-        <v>2604</v>
       </c>
       <c r="C693" s="10">
         <v>317</v>
@@ -22765,10 +22765,10 @@
     </row>
     <row r="694" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A694" s="8" t="s">
+        <v>2605</v>
+      </c>
+      <c r="B694" s="8" t="s">
         <v>1860</v>
-      </c>
-      <c r="B694" s="8" t="s">
-        <v>2605</v>
       </c>
       <c r="C694" s="11">
         <v>948</v>
@@ -22825,10 +22825,10 @@
     </row>
     <row r="697" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A697" s="8" t="s">
+        <v>2606</v>
+      </c>
+      <c r="B697" s="8" t="s">
         <v>1728</v>
-      </c>
-      <c r="B697" s="8" t="s">
-        <v>2606</v>
       </c>
       <c r="C697" s="11">
         <v>882</v>
@@ -22845,10 +22845,10 @@
     </row>
     <row r="698" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A698" s="8" t="s">
+        <v>2607</v>
+      </c>
+      <c r="B698" s="8" t="s">
         <v>841</v>
-      </c>
-      <c r="B698" s="8" t="s">
-        <v>2607</v>
       </c>
       <c r="C698" s="11">
         <v>128</v>
@@ -22865,10 +22865,10 @@
     </row>
     <row r="699" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A699" s="8" t="s">
+        <v>2608</v>
+      </c>
+      <c r="B699" s="8" t="s">
         <v>1905</v>
-      </c>
-      <c r="B699" s="8" t="s">
-        <v>2608</v>
       </c>
       <c r="C699" s="10">
         <v>784</v>
@@ -22885,10 +22885,10 @@
     </row>
     <row r="700" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A700" s="8" t="s">
+        <v>2609</v>
+      </c>
+      <c r="B700" s="8" t="s">
         <v>1555</v>
-      </c>
-      <c r="B700" s="8" t="s">
-        <v>2609</v>
       </c>
       <c r="C700" s="11">
         <v>746</v>
@@ -22925,10 +22925,10 @@
     </row>
     <row r="702" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A702" s="8" t="s">
+        <v>2610</v>
+      </c>
+      <c r="B702" s="8" t="s">
         <v>1924</v>
-      </c>
-      <c r="B702" s="8" t="s">
-        <v>2610</v>
       </c>
       <c r="C702" s="11">
         <v>929</v>
@@ -22965,10 +22965,10 @@
     </row>
     <row r="704" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A704" s="8" t="s">
+        <v>2611</v>
+      </c>
+      <c r="B704" s="8" t="s">
         <v>1882</v>
-      </c>
-      <c r="B704" s="8" t="s">
-        <v>2611</v>
       </c>
       <c r="C704" s="11">
         <v>835</v>
@@ -22985,10 +22985,10 @@
     </row>
     <row r="705" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A705" s="8" t="s">
+        <v>2612</v>
+      </c>
+      <c r="B705" s="8" t="s">
         <v>1897</v>
-      </c>
-      <c r="B705" s="8" t="s">
-        <v>2612</v>
       </c>
       <c r="C705" s="10">
         <v>604</v>
@@ -23005,10 +23005,10 @@
     </row>
     <row r="706" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A706" s="8" t="s">
+        <v>2613</v>
+      </c>
+      <c r="B706" s="8" t="s">
         <v>1903</v>
-      </c>
-      <c r="B706" s="8" t="s">
-        <v>2613</v>
       </c>
       <c r="C706" s="11">
         <v>720</v>
@@ -23045,10 +23045,10 @@
     </row>
     <row r="708" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A708" s="8" t="s">
+        <v>2614</v>
+      </c>
+      <c r="B708" s="8" t="s">
         <v>1548</v>
-      </c>
-      <c r="B708" s="8" t="s">
-        <v>2614</v>
       </c>
       <c r="C708" s="11">
         <v>537</v>
@@ -23065,10 +23065,10 @@
     </row>
     <row r="709" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A709" s="8" t="s">
+        <v>2615</v>
+      </c>
+      <c r="B709" s="8" t="s">
         <v>1756</v>
-      </c>
-      <c r="B709" s="8" t="s">
-        <v>2615</v>
       </c>
       <c r="C709" s="10">
         <v>930</v>
@@ -23125,10 +23125,10 @@
     </row>
     <row r="712" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A712" s="8" t="s">
+        <v>2616</v>
+      </c>
+      <c r="B712" s="8" t="s">
         <v>1706</v>
-      </c>
-      <c r="B712" s="8" t="s">
-        <v>2616</v>
       </c>
       <c r="C712" s="11">
         <v>373</v>
@@ -23145,10 +23145,10 @@
     </row>
     <row r="713" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A713" s="8" t="s">
+        <v>2617</v>
+      </c>
+      <c r="B713" s="8" t="s">
         <v>861</v>
-      </c>
-      <c r="B713" s="8" t="s">
-        <v>2617</v>
       </c>
       <c r="C713" s="10">
         <v>903</v>
@@ -23165,10 +23165,10 @@
     </row>
     <row r="714" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A714" s="8" t="s">
+        <v>2618</v>
+      </c>
+      <c r="B714" s="8" t="s">
         <v>1799</v>
-      </c>
-      <c r="B714" s="8" t="s">
-        <v>2618</v>
       </c>
       <c r="C714" s="11">
         <v>620</v>
@@ -23185,10 +23185,10 @@
     </row>
     <row r="715" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A715" s="8" t="s">
+        <v>2619</v>
+      </c>
+      <c r="B715" s="8" t="s">
         <v>1794</v>
-      </c>
-      <c r="B715" s="8" t="s">
-        <v>2619</v>
       </c>
       <c r="C715" s="10">
         <v>517</v>
@@ -23265,10 +23265,10 @@
     </row>
     <row r="719" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A719" s="8" t="s">
+        <v>2620</v>
+      </c>
+      <c r="B719" s="8" t="s">
         <v>1942</v>
-      </c>
-      <c r="B719" s="8" t="s">
-        <v>2620</v>
       </c>
       <c r="C719" s="10">
         <v>650</v>
@@ -23285,10 +23285,10 @@
     </row>
     <row r="720" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A720" s="8" t="s">
+        <v>2621</v>
+      </c>
+      <c r="B720" s="8" t="s">
         <v>1944</v>
-      </c>
-      <c r="B720" s="8" t="s">
-        <v>2621</v>
       </c>
       <c r="C720" s="11">
         <v>708</v>
@@ -23325,10 +23325,10 @@
     </row>
     <row r="722" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A722" s="8" t="s">
+        <v>2622</v>
+      </c>
+      <c r="B722" s="8" t="s">
         <v>1311</v>
-      </c>
-      <c r="B722" s="8" t="s">
-        <v>2622</v>
       </c>
       <c r="C722" s="11">
         <v>166</v>
@@ -23345,10 +23345,10 @@
     </row>
     <row r="723" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A723" s="8" t="s">
+        <v>2623</v>
+      </c>
+      <c r="B723" s="8" t="s">
         <v>872</v>
-      </c>
-      <c r="B723" s="8" t="s">
-        <v>2623</v>
       </c>
       <c r="C723" s="10">
         <v>336</v>
@@ -23365,10 +23365,10 @@
     </row>
     <row r="724" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A724" s="8" t="s">
+        <v>2624</v>
+      </c>
+      <c r="B724" s="8" t="s">
         <v>1310</v>
-      </c>
-      <c r="B724" s="8" t="s">
-        <v>2624</v>
       </c>
       <c r="C724" s="11">
         <v>113</v>
@@ -23385,10 +23385,10 @@
     </row>
     <row r="725" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A725" s="8" t="s">
+        <v>2625</v>
+      </c>
+      <c r="B725" s="8" t="s">
         <v>1671</v>
-      </c>
-      <c r="B725" s="8" t="s">
-        <v>2625</v>
       </c>
       <c r="C725" s="10">
         <v>263</v>
@@ -23445,10 +23445,10 @@
     </row>
     <row r="728" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A728" s="8" t="s">
+        <v>2626</v>
+      </c>
+      <c r="B728" s="8" t="s">
         <v>880</v>
-      </c>
-      <c r="B728" s="8" t="s">
-        <v>2626</v>
       </c>
       <c r="C728" s="11">
         <v>489</v>
@@ -23465,10 +23465,10 @@
     </row>
     <row r="729" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A729" s="8" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B729" s="8" t="s">
         <v>882</v>
-      </c>
-      <c r="B729" s="8" t="s">
-        <v>2627</v>
       </c>
       <c r="C729" s="10">
         <v>621</v>
@@ -23525,10 +23525,10 @@
     </row>
     <row r="732" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A732" s="8" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B732" s="8" t="s">
         <v>887</v>
-      </c>
-      <c r="B732" s="8" t="s">
-        <v>2628</v>
       </c>
       <c r="C732" s="11">
         <v>786</v>
@@ -23645,10 +23645,10 @@
     </row>
     <row r="738" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A738" s="8" t="s">
+        <v>2629</v>
+      </c>
+      <c r="B738" s="8" t="s">
         <v>1647</v>
-      </c>
-      <c r="B738" s="8" t="s">
-        <v>2629</v>
       </c>
       <c r="C738" s="11">
         <v>3</v>
@@ -23685,10 +23685,10 @@
     </row>
     <row r="740" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A740" s="8" t="s">
+        <v>2630</v>
+      </c>
+      <c r="B740" s="8" t="s">
         <v>1674</v>
-      </c>
-      <c r="B740" s="8" t="s">
-        <v>2630</v>
       </c>
       <c r="C740" s="11">
         <v>284</v>
@@ -23705,10 +23705,10 @@
     </row>
     <row r="741" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A741" s="8" t="s">
+        <v>2631</v>
+      </c>
+      <c r="B741" s="8" t="s">
         <v>1665</v>
-      </c>
-      <c r="B741" s="8" t="s">
-        <v>2631</v>
       </c>
       <c r="C741" s="10">
         <v>126</v>
@@ -23745,10 +23745,10 @@
     </row>
     <row r="743" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A743" s="8" t="s">
+        <v>2632</v>
+      </c>
+      <c r="B743" s="8" t="s">
         <v>1463</v>
-      </c>
-      <c r="B743" s="8" t="s">
-        <v>2632</v>
       </c>
       <c r="C743" s="10">
         <v>969</v>
@@ -23765,10 +23765,10 @@
     </row>
     <row r="744" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A744" s="8" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B744" s="8" t="s">
         <v>906</v>
-      </c>
-      <c r="B744" s="8" t="s">
-        <v>2633</v>
       </c>
       <c r="C744" s="11">
         <v>456</v>
@@ -23785,10 +23785,10 @@
     </row>
     <row r="745" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A745" s="8" t="s">
+        <v>2634</v>
+      </c>
+      <c r="B745" s="8" t="s">
         <v>908</v>
-      </c>
-      <c r="B745" s="8" t="s">
-        <v>2634</v>
       </c>
       <c r="C745" s="10">
         <v>499</v>
@@ -23885,10 +23885,10 @@
     </row>
     <row r="750" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A750" s="8" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B750" s="8" t="s">
         <v>914</v>
-      </c>
-      <c r="B750" s="8" t="s">
-        <v>2635</v>
       </c>
       <c r="C750" s="11">
         <v>305</v>
@@ -23905,10 +23905,10 @@
     </row>
     <row r="751" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A751" s="8" t="s">
+        <v>2636</v>
+      </c>
+      <c r="B751" s="8" t="s">
         <v>916</v>
-      </c>
-      <c r="B751" s="8" t="s">
-        <v>2636</v>
       </c>
       <c r="C751" s="10">
         <v>831</v>
@@ -23985,10 +23985,10 @@
     </row>
     <row r="755" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A755" s="8" t="s">
+        <v>2637</v>
+      </c>
+      <c r="B755" s="8" t="s">
         <v>924</v>
-      </c>
-      <c r="B755" s="8" t="s">
-        <v>2637</v>
       </c>
       <c r="C755" s="10">
         <v>970</v>
@@ -24005,10 +24005,10 @@
     </row>
     <row r="756" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A756" s="8" t="s">
+        <v>2638</v>
+      </c>
+      <c r="B756" s="8" t="s">
         <v>1930</v>
-      </c>
-      <c r="B756" s="8" t="s">
-        <v>2638</v>
       </c>
       <c r="C756" s="11">
         <v>273</v>
@@ -24025,10 +24025,10 @@
     </row>
     <row r="757" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A757" s="8" t="s">
+        <v>2639</v>
+      </c>
+      <c r="B757" s="8" t="s">
         <v>1530</v>
-      </c>
-      <c r="B757" s="8" t="s">
-        <v>2639</v>
       </c>
       <c r="C757" s="10">
         <v>752</v>
@@ -24045,10 +24045,10 @@
     </row>
     <row r="758" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A758" s="8" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B758" s="8" t="s">
         <v>1313</v>
-      </c>
-      <c r="B758" s="8" t="s">
-        <v>2640</v>
       </c>
       <c r="C758" s="11">
         <v>256</v>
@@ -24065,10 +24065,10 @@
     </row>
     <row r="759" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A759" s="8" t="s">
+        <v>2641</v>
+      </c>
+      <c r="B759" s="8" t="s">
         <v>1559</v>
-      </c>
-      <c r="B759" s="8" t="s">
-        <v>2641</v>
       </c>
       <c r="C759" s="10">
         <v>826</v>
@@ -24085,10 +24085,10 @@
     </row>
     <row r="760" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A760" s="8" t="s">
+        <v>2642</v>
+      </c>
+      <c r="B760" s="8" t="s">
         <v>1857</v>
-      </c>
-      <c r="B760" s="8" t="s">
-        <v>2642</v>
       </c>
       <c r="C760" s="11">
         <v>781</v>
@@ -24105,10 +24105,10 @@
     </row>
     <row r="761" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A761" s="8" t="s">
+        <v>2643</v>
+      </c>
+      <c r="B761" s="8" t="s">
         <v>1915</v>
-      </c>
-      <c r="B761" s="8" t="s">
-        <v>2643</v>
       </c>
       <c r="C761" s="10">
         <v>319</v>
@@ -24125,10 +24125,10 @@
     </row>
     <row r="762" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A762" s="8" t="s">
+        <v>2644</v>
+      </c>
+      <c r="B762" s="8" t="s">
         <v>1532</v>
-      </c>
-      <c r="B762" s="8" t="s">
-        <v>2644</v>
       </c>
       <c r="C762" s="11">
         <v>823</v>
@@ -24145,10 +24145,10 @@
     </row>
     <row r="763" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A763" s="8" t="s">
+        <v>2645</v>
+      </c>
+      <c r="B763" s="8" t="s">
         <v>1914</v>
-      </c>
-      <c r="B763" s="8" t="s">
-        <v>2645</v>
       </c>
       <c r="C763" s="10">
         <v>174</v>
@@ -24165,10 +24165,10 @@
     </row>
     <row r="764" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A764" s="8" t="s">
+        <v>2646</v>
+      </c>
+      <c r="B764" s="8" t="s">
         <v>1546</v>
-      </c>
-      <c r="B764" s="8" t="s">
-        <v>2646</v>
       </c>
       <c r="C764" s="11">
         <v>301</v>
@@ -24185,10 +24185,10 @@
     </row>
     <row r="765" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A765" s="8" t="s">
+        <v>2647</v>
+      </c>
+      <c r="B765" s="8" t="s">
         <v>1913</v>
-      </c>
-      <c r="B765" s="8" t="s">
-        <v>2647</v>
       </c>
       <c r="C765" s="10">
         <v>171</v>
@@ -24205,10 +24205,10 @@
     </row>
     <row r="766" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A766" s="8" t="s">
+        <v>2648</v>
+      </c>
+      <c r="B766" s="8" t="s">
         <v>1393</v>
-      </c>
-      <c r="B766" s="8" t="s">
-        <v>2648</v>
       </c>
       <c r="C766" s="11">
         <v>585</v>
@@ -24225,10 +24225,10 @@
     </row>
     <row r="767" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A767" s="8" t="s">
+        <v>2649</v>
+      </c>
+      <c r="B767" s="8" t="s">
         <v>1618</v>
-      </c>
-      <c r="B767" s="8" t="s">
-        <v>2649</v>
       </c>
       <c r="C767" s="10">
         <v>561</v>
@@ -24245,10 +24245,10 @@
     </row>
     <row r="768" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A768" s="8" t="s">
+        <v>2650</v>
+      </c>
+      <c r="B768" s="8" t="s">
         <v>1381</v>
-      </c>
-      <c r="B768" s="8" t="s">
-        <v>2650</v>
       </c>
       <c r="C768" s="11">
         <v>121</v>
@@ -24265,10 +24265,10 @@
     </row>
     <row r="769" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A769" s="8" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B769" s="8" t="s">
         <v>1796</v>
-      </c>
-      <c r="B769" s="8" t="s">
-        <v>2651</v>
       </c>
       <c r="C769" s="10">
         <v>554</v>
@@ -24285,10 +24285,10 @@
     </row>
     <row r="770" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A770" s="8" t="s">
+        <v>2652</v>
+      </c>
+      <c r="B770" s="8" t="s">
         <v>1543</v>
-      </c>
-      <c r="B770" s="8" t="s">
-        <v>2652</v>
       </c>
       <c r="C770" s="11">
         <v>144</v>
@@ -24345,10 +24345,10 @@
     </row>
     <row r="773" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A773" s="8" t="s">
+        <v>2653</v>
+      </c>
+      <c r="B773" s="8" t="s">
         <v>1333</v>
-      </c>
-      <c r="B773" s="8" t="s">
-        <v>2653</v>
       </c>
       <c r="C773" s="10">
         <v>765</v>
@@ -24365,10 +24365,10 @@
     </row>
     <row r="774" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A774" s="8" t="s">
+        <v>2654</v>
+      </c>
+      <c r="B774" s="8" t="s">
         <v>1899</v>
-      </c>
-      <c r="B774" s="8" t="s">
-        <v>2654</v>
       </c>
       <c r="C774" s="11">
         <v>651</v>
@@ -24385,10 +24385,10 @@
     </row>
     <row r="775" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A775" s="8" t="s">
+        <v>2655</v>
+      </c>
+      <c r="B775" s="8" t="s">
         <v>1436</v>
-      </c>
-      <c r="B775" s="8" t="s">
-        <v>2655</v>
       </c>
       <c r="C775" s="10">
         <v>38</v>
@@ -24425,10 +24425,10 @@
     </row>
     <row r="777" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A777" s="8" t="s">
+        <v>2656</v>
+      </c>
+      <c r="B777" s="8" t="s">
         <v>1742</v>
-      </c>
-      <c r="B777" s="8" t="s">
-        <v>2656</v>
       </c>
       <c r="C777" s="10">
         <v>535</v>
@@ -24445,10 +24445,10 @@
     </row>
     <row r="778" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A778" s="8" t="s">
+        <v>2657</v>
+      </c>
+      <c r="B778" s="8" t="s">
         <v>1898</v>
-      </c>
-      <c r="B778" s="8" t="s">
-        <v>2657</v>
       </c>
       <c r="C778" s="11">
         <v>647</v>
@@ -24485,10 +24485,10 @@
     </row>
     <row r="780" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A780" s="8" t="s">
+        <v>2658</v>
+      </c>
+      <c r="B780" s="8" t="s">
         <v>1566</v>
-      </c>
-      <c r="B780" s="8" t="s">
-        <v>2658</v>
       </c>
       <c r="C780" s="10">
         <v>995</v>
@@ -24505,10 +24505,10 @@
     </row>
     <row r="781" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A781" s="8" t="s">
+        <v>2659</v>
+      </c>
+      <c r="B781" s="8" t="s">
         <v>1725</v>
-      </c>
-      <c r="B781" s="8" t="s">
-        <v>2659</v>
       </c>
       <c r="C781" s="11">
         <v>813</v>
@@ -24525,10 +24525,10 @@
     </row>
     <row r="782" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A782" s="8" t="s">
+        <v>2660</v>
+      </c>
+      <c r="B782" s="8" t="s">
         <v>1782</v>
-      </c>
-      <c r="B782" s="8" t="s">
-        <v>2660</v>
       </c>
       <c r="C782" s="11">
         <v>60</v>
@@ -24545,10 +24545,10 @@
     </row>
     <row r="783" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A783" s="8" t="s">
+        <v>2661</v>
+      </c>
+      <c r="B783" s="8" t="s">
         <v>1376</v>
-      </c>
-      <c r="B783" s="8" t="s">
-        <v>2661</v>
       </c>
       <c r="C783" s="10">
         <v>874</v>
@@ -24565,10 +24565,10 @@
     </row>
     <row r="784" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A784" s="8" t="s">
+        <v>2662</v>
+      </c>
+      <c r="B784" s="8" t="s">
         <v>1302</v>
-      </c>
-      <c r="B784" s="8" t="s">
-        <v>2662</v>
       </c>
       <c r="C784" s="11">
         <v>662</v>
@@ -24585,10 +24585,10 @@
     </row>
     <row r="785" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A785" s="8" t="s">
+        <v>2663</v>
+      </c>
+      <c r="B785" s="8" t="s">
         <v>1743</v>
-      </c>
-      <c r="B785" s="8" t="s">
-        <v>2663</v>
       </c>
       <c r="C785" s="10">
         <v>551</v>
@@ -24605,10 +24605,10 @@
     </row>
     <row r="786" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A786" s="8" t="s">
+        <v>2664</v>
+      </c>
+      <c r="B786" s="8" t="s">
         <v>1937</v>
-      </c>
-      <c r="B786" s="8" t="s">
-        <v>2664</v>
       </c>
       <c r="C786" s="11">
         <v>480</v>
@@ -24625,10 +24625,10 @@
     </row>
     <row r="787" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A787" s="8" t="s">
+        <v>2665</v>
+      </c>
+      <c r="B787" s="8" t="s">
         <v>957</v>
-      </c>
-      <c r="B787" s="8" t="s">
-        <v>2665</v>
       </c>
       <c r="C787" s="10">
         <v>440</v>
@@ -24645,10 +24645,10 @@
     </row>
     <row r="788" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A788" s="8" t="s">
+        <v>2666</v>
+      </c>
+      <c r="B788" s="8" t="s">
         <v>1394</v>
-      </c>
-      <c r="B788" s="8" t="s">
-        <v>2666</v>
       </c>
       <c r="C788" s="11">
         <v>879</v>
@@ -24685,10 +24685,10 @@
     </row>
     <row r="790" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A790" s="8" t="s">
+        <v>2667</v>
+      </c>
+      <c r="B790" s="8" t="s">
         <v>1694</v>
-      </c>
-      <c r="B790" s="8" t="s">
-        <v>2667</v>
       </c>
       <c r="C790" s="11">
         <v>939</v>
@@ -24765,10 +24765,10 @@
     </row>
     <row r="794" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A794" s="8" t="s">
+        <v>2668</v>
+      </c>
+      <c r="B794" s="8" t="s">
         <v>1450</v>
-      </c>
-      <c r="B794" s="8" t="s">
-        <v>2668</v>
       </c>
       <c r="C794" s="11">
         <v>549</v>
@@ -24785,10 +24785,10 @@
     </row>
     <row r="795" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A795" s="8" t="s">
+        <v>2669</v>
+      </c>
+      <c r="B795" s="8" t="s">
         <v>1691</v>
-      </c>
-      <c r="B795" s="8" t="s">
-        <v>2669</v>
       </c>
       <c r="C795" s="10">
         <v>659</v>
@@ -24825,10 +24825,10 @@
     </row>
     <row r="797" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A797" s="8" t="s">
+        <v>2670</v>
+      </c>
+      <c r="B797" s="8" t="s">
         <v>1460</v>
-      </c>
-      <c r="B797" s="8" t="s">
-        <v>2670</v>
       </c>
       <c r="C797" s="10">
         <v>946</v>
@@ -24845,10 +24845,10 @@
     </row>
     <row r="798" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A798" s="8" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B798" s="8" t="s">
         <v>1320</v>
-      </c>
-      <c r="B798" s="8" t="s">
-        <v>2671</v>
       </c>
       <c r="C798" s="11">
         <v>453</v>
@@ -24885,10 +24885,10 @@
     </row>
     <row r="800" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A800" s="8" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B800" s="8" t="s">
         <v>1518</v>
-      </c>
-      <c r="B800" s="8" t="s">
-        <v>2775</v>
       </c>
       <c r="C800" s="11">
         <v>341</v>
@@ -24965,10 +24965,10 @@
     </row>
     <row r="804" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A804" s="8" t="s">
+        <v>2672</v>
+      </c>
+      <c r="B804" s="8" t="s">
         <v>976</v>
-      </c>
-      <c r="B804" s="8" t="s">
-        <v>2672</v>
       </c>
       <c r="C804" s="11">
         <v>889</v>
@@ -24985,10 +24985,10 @@
     </row>
     <row r="805" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A805" s="8" t="s">
+        <v>2673</v>
+      </c>
+      <c r="B805" s="8" t="s">
         <v>1312</v>
-      </c>
-      <c r="B805" s="8" t="s">
-        <v>2673</v>
       </c>
       <c r="C805" s="10">
         <v>172</v>
@@ -25005,10 +25005,10 @@
     </row>
     <row r="806" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A806" s="8" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B806" s="8" t="s">
         <v>2022</v>
-      </c>
-      <c r="B806" s="8" t="s">
-        <v>2674</v>
       </c>
       <c r="C806" s="11">
         <v>568</v>
@@ -25045,10 +25045,10 @@
     </row>
     <row r="808" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A808" s="8" t="s">
+        <v>2675</v>
+      </c>
+      <c r="B808" s="8" t="s">
         <v>1624</v>
-      </c>
-      <c r="B808" s="8" t="s">
-        <v>2675</v>
       </c>
       <c r="C808" s="11">
         <v>697</v>
@@ -25085,10 +25085,10 @@
     </row>
     <row r="810" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A810" s="8" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B810" s="8" t="s">
         <v>1817</v>
-      </c>
-      <c r="B810" s="8" t="s">
-        <v>2676</v>
       </c>
       <c r="C810" s="11">
         <v>506</v>
@@ -25105,10 +25105,10 @@
     </row>
     <row r="811" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A811" s="8" t="s">
+        <v>2677</v>
+      </c>
+      <c r="B811" s="8" t="s">
         <v>1816</v>
-      </c>
-      <c r="B811" s="8" t="s">
-        <v>2677</v>
       </c>
       <c r="C811" s="10">
         <v>403</v>
@@ -25165,10 +25165,10 @@
     </row>
     <row r="814" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A814" s="8" t="s">
+        <v>2678</v>
+      </c>
+      <c r="B814" s="8" t="s">
         <v>1790</v>
-      </c>
-      <c r="B814" s="8" t="s">
-        <v>2678</v>
       </c>
       <c r="C814" s="11">
         <v>329</v>
@@ -25205,10 +25205,10 @@
     </row>
     <row r="816" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A816" s="8" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B816" s="8" t="s">
         <v>1373</v>
-      </c>
-      <c r="B816" s="8" t="s">
-        <v>2188</v>
       </c>
       <c r="C816" s="11">
         <v>793</v>
@@ -25245,10 +25245,10 @@
     </row>
     <row r="818" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A818" s="8" t="s">
+        <v>2679</v>
+      </c>
+      <c r="B818" s="8" t="s">
         <v>1571</v>
-      </c>
-      <c r="B818" s="8" t="s">
-        <v>2679</v>
       </c>
       <c r="C818" s="11">
         <v>302</v>
@@ -25305,10 +25305,10 @@
     </row>
     <row r="821" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A821" s="8" t="s">
+        <v>2680</v>
+      </c>
+      <c r="B821" s="8" t="s">
         <v>1744</v>
-      </c>
-      <c r="B821" s="8" t="s">
-        <v>2680</v>
       </c>
       <c r="C821" s="10">
         <v>575</v>
@@ -25325,10 +25325,10 @@
     </row>
     <row r="822" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A822" s="8" t="s">
+        <v>2681</v>
+      </c>
+      <c r="B822" s="8" t="s">
         <v>1839</v>
-      </c>
-      <c r="B822" s="8" t="s">
-        <v>2681</v>
       </c>
       <c r="C822" s="11">
         <v>883</v>
@@ -25345,10 +25345,10 @@
     </row>
     <row r="823" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A823" s="8" t="s">
+        <v>2682</v>
+      </c>
+      <c r="B823" s="8" t="s">
         <v>1831</v>
-      </c>
-      <c r="B823" s="8" t="s">
-        <v>2682</v>
       </c>
       <c r="C823" s="10">
         <v>289</v>
@@ -25405,10 +25405,10 @@
     </row>
     <row r="826" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A826" s="8" t="s">
+        <v>2683</v>
+      </c>
+      <c r="B826" s="8" t="s">
         <v>1003</v>
-      </c>
-      <c r="B826" s="8" t="s">
-        <v>2683</v>
       </c>
       <c r="C826" s="11">
         <v>16</v>
@@ -25425,10 +25425,10 @@
     </row>
     <row r="827" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A827" s="8" t="s">
+        <v>2684</v>
+      </c>
+      <c r="B827" s="8" t="s">
         <v>1005</v>
-      </c>
-      <c r="B827" s="8" t="s">
-        <v>2684</v>
       </c>
       <c r="C827" s="10">
         <v>79</v>
@@ -25445,10 +25445,10 @@
     </row>
     <row r="828" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A828" s="8" t="s">
+        <v>2685</v>
+      </c>
+      <c r="B828" s="8" t="s">
         <v>1007</v>
-      </c>
-      <c r="B828" s="8" t="s">
-        <v>2685</v>
       </c>
       <c r="C828" s="11">
         <v>791</v>
@@ -25465,10 +25465,10 @@
     </row>
     <row r="829" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A829" s="8" t="s">
+        <v>2686</v>
+      </c>
+      <c r="B829" s="8" t="s">
         <v>1208</v>
-      </c>
-      <c r="B829" s="8" t="s">
-        <v>2686</v>
       </c>
       <c r="C829" s="10">
         <v>359</v>
@@ -25485,10 +25485,10 @@
     </row>
     <row r="830" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A830" s="8" t="s">
+        <v>2687</v>
+      </c>
+      <c r="B830" s="8" t="s">
         <v>1982</v>
-      </c>
-      <c r="B830" s="8" t="s">
-        <v>2687</v>
       </c>
       <c r="C830" s="11">
         <v>261</v>
@@ -25585,10 +25585,10 @@
     </row>
     <row r="835" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A835" s="8" t="s">
+        <v>2688</v>
+      </c>
+      <c r="B835" s="8" t="s">
         <v>1521</v>
-      </c>
-      <c r="B835" s="8" t="s">
-        <v>2688</v>
       </c>
       <c r="C835" s="10">
         <v>507</v>
@@ -25605,10 +25605,10 @@
     </row>
     <row r="836" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A836" s="8" t="s">
+        <v>2689</v>
+      </c>
+      <c r="B836" s="8" t="s">
         <v>1902</v>
-      </c>
-      <c r="B836" s="8" t="s">
-        <v>2689</v>
       </c>
       <c r="C836" s="11">
         <v>717</v>
@@ -25645,10 +25645,10 @@
     </row>
     <row r="838" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A838" s="8" t="s">
+        <v>2690</v>
+      </c>
+      <c r="B838" s="8" t="s">
         <v>1020</v>
-      </c>
-      <c r="B838" s="8" t="s">
-        <v>2690</v>
       </c>
       <c r="C838" s="11">
         <v>362</v>
@@ -25685,10 +25685,10 @@
     </row>
     <row r="840" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A840" s="8" t="s">
+        <v>2691</v>
+      </c>
+      <c r="B840" s="8" t="s">
         <v>1207</v>
-      </c>
-      <c r="B840" s="8" t="s">
-        <v>2691</v>
       </c>
       <c r="C840" s="11">
         <v>320</v>
@@ -25705,10 +25705,10 @@
     </row>
     <row r="841" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A841" s="8" t="s">
+        <v>2692</v>
+      </c>
+      <c r="B841" s="8" t="s">
         <v>1602</v>
-      </c>
-      <c r="B841" s="8" t="s">
-        <v>2692</v>
       </c>
       <c r="C841" s="10">
         <v>246</v>
@@ -25725,10 +25725,10 @@
     </row>
     <row r="842" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A842" s="8" t="s">
+        <v>2693</v>
+      </c>
+      <c r="B842" s="8" t="s">
         <v>1025</v>
-      </c>
-      <c r="B842" s="8" t="s">
-        <v>2693</v>
       </c>
       <c r="C842" s="11">
         <v>897</v>
@@ -25745,10 +25745,10 @@
     </row>
     <row r="843" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A843" s="8" t="s">
+        <v>2694</v>
+      </c>
+      <c r="B843" s="8" t="s">
         <v>1505</v>
-      </c>
-      <c r="B843" s="8" t="s">
-        <v>2694</v>
       </c>
       <c r="C843" s="11">
         <v>176</v>
@@ -25765,10 +25765,10 @@
     </row>
     <row r="844" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A844" s="8" t="s">
+        <v>2695</v>
+      </c>
+      <c r="B844" s="8" t="s">
         <v>1865</v>
-      </c>
-      <c r="B844" s="8" t="s">
-        <v>2695</v>
       </c>
       <c r="C844" s="10">
         <v>325</v>
@@ -25805,10 +25805,10 @@
     </row>
     <row r="846" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A846" s="8" t="s">
+        <v>2696</v>
+      </c>
+      <c r="B846" s="8" t="s">
         <v>1581</v>
-      </c>
-      <c r="B846" s="8" t="s">
-        <v>2696</v>
       </c>
       <c r="C846" s="11">
         <v>583</v>
@@ -25865,10 +25865,10 @@
     </row>
     <row r="849" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A849" s="8" t="s">
+        <v>2697</v>
+      </c>
+      <c r="B849" s="8" t="s">
         <v>1299</v>
-      </c>
-      <c r="B849" s="8" t="s">
-        <v>2697</v>
       </c>
       <c r="C849" s="10">
         <v>532</v>
@@ -25905,10 +25905,10 @@
     </row>
     <row r="851" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A851" s="8" t="s">
+        <v>2698</v>
+      </c>
+      <c r="B851" s="8" t="s">
         <v>1960</v>
-      </c>
-      <c r="B851" s="8" t="s">
-        <v>2698</v>
       </c>
       <c r="C851" s="10">
         <v>599</v>
@@ -25925,10 +25925,10 @@
     </row>
     <row r="852" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A852" s="8" t="s">
+        <v>2699</v>
+      </c>
+      <c r="B852" s="8" t="s">
         <v>1956</v>
-      </c>
-      <c r="B852" s="8" t="s">
-        <v>2699</v>
       </c>
       <c r="C852" s="11">
         <v>473</v>
@@ -25945,10 +25945,10 @@
     </row>
     <row r="853" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A853" s="8" t="s">
+        <v>2700</v>
+      </c>
+      <c r="B853" s="8" t="s">
         <v>1366</v>
-      </c>
-      <c r="B853" s="8" t="s">
-        <v>2700</v>
       </c>
       <c r="C853" s="10">
         <v>648</v>
@@ -25965,10 +25965,10 @@
     </row>
     <row r="854" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A854" s="8" t="s">
+        <v>2701</v>
+      </c>
+      <c r="B854" s="8" t="s">
         <v>1350</v>
-      </c>
-      <c r="B854" s="8" t="s">
-        <v>2701</v>
       </c>
       <c r="C854" s="11">
         <v>232</v>
@@ -25985,10 +25985,10 @@
     </row>
     <row r="855" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A855" s="8" t="s">
+        <v>2702</v>
+      </c>
+      <c r="B855" s="8" t="s">
         <v>1453</v>
-      </c>
-      <c r="B855" s="8" t="s">
-        <v>2702</v>
       </c>
       <c r="C855" s="10">
         <v>703</v>
@@ -26025,10 +26025,10 @@
     </row>
     <row r="857" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A857" s="8" t="s">
+        <v>2703</v>
+      </c>
+      <c r="B857" s="8" t="s">
         <v>1410</v>
-      </c>
-      <c r="B857" s="8" t="s">
-        <v>2703</v>
       </c>
       <c r="C857" s="10">
         <v>678</v>
@@ -26065,10 +26065,10 @@
     </row>
     <row r="859" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A859" s="8" t="s">
+        <v>2704</v>
+      </c>
+      <c r="B859" s="8" t="s">
         <v>1442</v>
-      </c>
-      <c r="B859" s="8" t="s">
-        <v>2704</v>
       </c>
       <c r="C859" s="10">
         <v>168</v>
@@ -26085,10 +26085,10 @@
     </row>
     <row r="860" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A860" s="8" t="s">
+        <v>2705</v>
+      </c>
+      <c r="B860" s="8" t="s">
         <v>1379</v>
-      </c>
-      <c r="B860" s="8" t="s">
-        <v>2705</v>
       </c>
       <c r="C860" s="11">
         <v>989</v>
@@ -26145,10 +26145,10 @@
     </row>
     <row r="863" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A863" s="8" t="s">
+        <v>2706</v>
+      </c>
+      <c r="B863" s="8" t="s">
         <v>1549</v>
-      </c>
-      <c r="B863" s="8" t="s">
-        <v>2706</v>
       </c>
       <c r="C863" s="10">
         <v>538</v>
@@ -26165,10 +26165,10 @@
     </row>
     <row r="864" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A864" s="8" t="s">
+        <v>2707</v>
+      </c>
+      <c r="B864" s="8" t="s">
         <v>1050</v>
-      </c>
-      <c r="B864" s="8" t="s">
-        <v>2707</v>
       </c>
       <c r="C864" s="11">
         <v>848</v>
@@ -26225,10 +26225,10 @@
     </row>
     <row r="867" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A867" s="8" t="s">
+        <v>2708</v>
+      </c>
+      <c r="B867" s="8" t="s">
         <v>1547</v>
-      </c>
-      <c r="B867" s="8" t="s">
-        <v>2708</v>
       </c>
       <c r="C867" s="10">
         <v>454</v>
@@ -26285,10 +26285,10 @@
     </row>
     <row r="870" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A870" s="8" t="s">
+        <v>2709</v>
+      </c>
+      <c r="B870" s="8" t="s">
         <v>1692</v>
-      </c>
-      <c r="B870" s="8" t="s">
-        <v>2709</v>
       </c>
       <c r="C870" s="11">
         <v>714</v>
@@ -26305,10 +26305,10 @@
     </row>
     <row r="871" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A871" s="8" t="s">
+        <v>2710</v>
+      </c>
+      <c r="B871" s="8" t="s">
         <v>2009</v>
-      </c>
-      <c r="B871" s="8" t="s">
-        <v>2710</v>
       </c>
       <c r="C871" s="10">
         <v>668</v>
@@ -26385,10 +26385,10 @@
     </row>
     <row r="875" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A875" s="8" t="s">
+        <v>2711</v>
+      </c>
+      <c r="B875" s="8" t="s">
         <v>1063</v>
-      </c>
-      <c r="B875" s="8" t="s">
-        <v>2711</v>
       </c>
       <c r="C875" s="10">
         <v>588</v>
@@ -26405,10 +26405,10 @@
     </row>
     <row r="876" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A876" s="8" t="s">
+        <v>2712</v>
+      </c>
+      <c r="B876" s="8" t="s">
         <v>1300</v>
-      </c>
-      <c r="B876" s="8" t="s">
-        <v>2712</v>
       </c>
       <c r="C876" s="11">
         <v>570</v>
@@ -26425,10 +26425,10 @@
     </row>
     <row r="877" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A877" s="8" t="s">
+        <v>2713</v>
+      </c>
+      <c r="B877" s="8" t="s">
         <v>1925</v>
-      </c>
-      <c r="B877" s="8" t="s">
-        <v>2713</v>
       </c>
       <c r="C877" s="10">
         <v>937</v>
@@ -26445,10 +26445,10 @@
     </row>
     <row r="878" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A878" s="8" t="s">
+        <v>2714</v>
+      </c>
+      <c r="B878" s="8" t="s">
         <v>1723</v>
-      </c>
-      <c r="B878" s="8" t="s">
-        <v>2714</v>
       </c>
       <c r="C878" s="11">
         <v>762</v>
@@ -26485,10 +26485,10 @@
     </row>
     <row r="880" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A880" s="8" t="s">
+        <v>2715</v>
+      </c>
+      <c r="B880" s="8" t="s">
         <v>1573</v>
-      </c>
-      <c r="B880" s="8" t="s">
-        <v>2715</v>
       </c>
       <c r="C880" s="11">
         <v>369</v>
@@ -26505,10 +26505,10 @@
     </row>
     <row r="881" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A881" s="8" t="s">
+        <v>2716</v>
+      </c>
+      <c r="B881" s="8" t="s">
         <v>1508</v>
-      </c>
-      <c r="B881" s="8" t="s">
-        <v>2716</v>
       </c>
       <c r="C881" s="10">
         <v>203</v>
@@ -26605,10 +26605,10 @@
     </row>
     <row r="886" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A886" s="8" t="s">
+        <v>2717</v>
+      </c>
+      <c r="B886" s="8" t="s">
         <v>1580</v>
-      </c>
-      <c r="B886" s="8" t="s">
-        <v>2717</v>
       </c>
       <c r="C886" s="11">
         <v>534</v>
@@ -26625,10 +26625,10 @@
     </row>
     <row r="887" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A887" s="8" t="s">
+        <v>2776</v>
+      </c>
+      <c r="B887" s="8" t="s">
         <v>1509</v>
-      </c>
-      <c r="B887" s="8" t="s">
-        <v>2776</v>
       </c>
       <c r="C887" s="10">
         <v>216</v>
@@ -26685,10 +26685,10 @@
     </row>
     <row r="890" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A890" s="8" t="s">
+        <v>2718</v>
+      </c>
+      <c r="B890" s="8" t="s">
         <v>1277</v>
-      </c>
-      <c r="B890" s="8" t="s">
-        <v>2718</v>
       </c>
       <c r="C890" s="11">
         <v>386</v>
@@ -26705,10 +26705,10 @@
     </row>
     <row r="891" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A891" s="8" t="s">
+        <v>2719</v>
+      </c>
+      <c r="B891" s="8" t="s">
         <v>1276</v>
-      </c>
-      <c r="B891" s="8" t="s">
-        <v>2719</v>
       </c>
       <c r="C891" s="10">
         <v>376</v>
@@ -26745,10 +26745,10 @@
     </row>
     <row r="893" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A893" s="8" t="s">
+        <v>2720</v>
+      </c>
+      <c r="B893" s="8" t="s">
         <v>1981</v>
-      </c>
-      <c r="B893" s="8" t="s">
-        <v>2720</v>
       </c>
       <c r="C893" s="10">
         <v>255</v>
@@ -26805,10 +26805,10 @@
     </row>
     <row r="896" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A896" s="8" t="s">
+        <v>2721</v>
+      </c>
+      <c r="B896" s="8" t="s">
         <v>1480</v>
-      </c>
-      <c r="B896" s="8" t="s">
-        <v>2721</v>
       </c>
       <c r="C896" s="10">
         <v>430</v>
@@ -26845,10 +26845,10 @@
     </row>
     <row r="898" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A898" s="8" t="s">
+        <v>2722</v>
+      </c>
+      <c r="B898" s="8" t="s">
         <v>1873</v>
-      </c>
-      <c r="B898" s="8" t="s">
-        <v>2722</v>
       </c>
       <c r="C898" s="10">
         <v>529</v>
@@ -26885,10 +26885,10 @@
     </row>
     <row r="900" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A900" s="8" t="s">
+        <v>2723</v>
+      </c>
+      <c r="B900" s="8" t="s">
         <v>1568</v>
-      </c>
-      <c r="B900" s="8" t="s">
-        <v>2723</v>
       </c>
       <c r="C900" s="10">
         <v>106</v>
@@ -26965,10 +26965,10 @@
     </row>
     <row r="904" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A904" s="8" t="s">
+        <v>2724</v>
+      </c>
+      <c r="B904" s="8" t="s">
         <v>1368</v>
-      </c>
-      <c r="B904" s="8" t="s">
-        <v>2724</v>
       </c>
       <c r="C904" s="11">
         <v>705</v>
@@ -27025,10 +27025,10 @@
     </row>
     <row r="907" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A907" s="8" t="s">
+        <v>2725</v>
+      </c>
+      <c r="B907" s="8" t="s">
         <v>1346</v>
-      </c>
-      <c r="B907" s="8" t="s">
-        <v>2725</v>
       </c>
       <c r="C907" s="10">
         <v>153</v>
@@ -27065,10 +27065,10 @@
     </row>
     <row r="909" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A909" s="8" t="s">
+        <v>2726</v>
+      </c>
+      <c r="B909" s="8" t="s">
         <v>1931</v>
-      </c>
-      <c r="B909" s="8" t="s">
-        <v>2726</v>
       </c>
       <c r="C909" s="10">
         <v>293</v>
@@ -27105,10 +27105,10 @@
     </row>
     <row r="911" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A911" s="8" t="s">
+        <v>2727</v>
+      </c>
+      <c r="B911" s="8" t="s">
         <v>1499</v>
-      </c>
-      <c r="B911" s="8" t="s">
-        <v>2727</v>
       </c>
       <c r="C911" s="10">
         <v>78</v>
@@ -27125,10 +27125,10 @@
     </row>
     <row r="912" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A912" s="8" t="s">
+        <v>2728</v>
+      </c>
+      <c r="B912" s="8" t="s">
         <v>1250</v>
-      </c>
-      <c r="B912" s="8" t="s">
-        <v>2728</v>
       </c>
       <c r="C912" s="11">
         <v>297</v>
@@ -27145,10 +27145,10 @@
     </row>
     <row r="913" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A913" s="8" t="s">
+        <v>2729</v>
+      </c>
+      <c r="B913" s="8" t="s">
         <v>1892</v>
-      </c>
-      <c r="B913" s="8" t="s">
-        <v>2729</v>
       </c>
       <c r="C913" s="10">
         <v>213</v>
@@ -27165,10 +27165,10 @@
     </row>
     <row r="914" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A914" s="8" t="s">
+        <v>2730</v>
+      </c>
+      <c r="B914" s="8" t="s">
         <v>1871</v>
-      </c>
-      <c r="B914" s="8" t="s">
-        <v>2730</v>
       </c>
       <c r="C914" s="11">
         <v>431</v>
@@ -27185,10 +27185,10 @@
     </row>
     <row r="915" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A915" s="8" t="s">
+        <v>2731</v>
+      </c>
+      <c r="B915" s="8" t="s">
         <v>1522</v>
-      </c>
-      <c r="B915" s="8" t="s">
-        <v>2731</v>
       </c>
       <c r="C915" s="10">
         <v>533</v>
@@ -27205,10 +27205,10 @@
     </row>
     <row r="916" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A916" s="8" t="s">
+        <v>2732</v>
+      </c>
+      <c r="B916" s="8" t="s">
         <v>1808</v>
-      </c>
-      <c r="B916" s="8" t="s">
-        <v>2732</v>
       </c>
       <c r="C916" s="11">
         <v>807</v>
@@ -27225,10 +27225,10 @@
     </row>
     <row r="917" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A917" s="8" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B917" s="8" t="s">
         <v>1352</v>
-      </c>
-      <c r="B917" s="8" t="s">
-        <v>2733</v>
       </c>
       <c r="C917" s="10">
         <v>275</v>
@@ -27245,10 +27245,10 @@
     </row>
     <row r="918" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A918" s="8" t="s">
+        <v>2734</v>
+      </c>
+      <c r="B918" s="8" t="s">
         <v>1650</v>
-      </c>
-      <c r="B918" s="8" t="s">
-        <v>2734</v>
       </c>
       <c r="C918" s="11">
         <v>9</v>
@@ -27305,10 +27305,10 @@
     </row>
     <row r="921" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A921" s="8" t="s">
+        <v>2735</v>
+      </c>
+      <c r="B921" s="8" t="s">
         <v>1753</v>
-      </c>
-      <c r="B921" s="8" t="s">
-        <v>2735</v>
       </c>
       <c r="C921" s="10">
         <v>868</v>
@@ -27345,10 +27345,10 @@
     </row>
     <row r="923" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A923" s="8" t="s">
+        <v>2736</v>
+      </c>
+      <c r="B923" s="8" t="s">
         <v>1990</v>
-      </c>
-      <c r="B923" s="8" t="s">
-        <v>2736</v>
       </c>
       <c r="C923" s="10">
         <v>365</v>
@@ -27405,10 +27405,10 @@
     </row>
     <row r="926" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A926" s="8" t="s">
+        <v>2737</v>
+      </c>
+      <c r="B926" s="8" t="s">
         <v>1667</v>
-      </c>
-      <c r="B926" s="8" t="s">
-        <v>2737</v>
       </c>
       <c r="C926" s="11">
         <v>178</v>
@@ -27445,10 +27445,10 @@
     </row>
     <row r="928" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A928" s="8" t="s">
+        <v>2738</v>
+      </c>
+      <c r="B928" s="8" t="s">
         <v>1166</v>
-      </c>
-      <c r="B928" s="8" t="s">
-        <v>2738</v>
       </c>
       <c r="C928" s="11">
         <v>600</v>
@@ -27565,10 +27565,10 @@
     </row>
     <row r="934" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A934" s="8" t="s">
+        <v>2739</v>
+      </c>
+      <c r="B934" s="8" t="s">
         <v>1497</v>
-      </c>
-      <c r="B934" s="8" t="s">
-        <v>2739</v>
       </c>
       <c r="C934" s="11">
         <v>53</v>
@@ -27605,10 +27605,10 @@
     </row>
     <row r="936" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A936" s="8" t="s">
+        <v>2740</v>
+      </c>
+      <c r="B936" s="8" t="s">
         <v>1187</v>
-      </c>
-      <c r="B936" s="8" t="s">
-        <v>2740</v>
       </c>
       <c r="C936" s="10">
         <v>527</v>
@@ -27625,10 +27625,10 @@
     </row>
     <row r="937" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A937" s="8" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B937" s="8" t="s">
         <v>1319</v>
-      </c>
-      <c r="B937" s="8" t="s">
-        <v>2210</v>
       </c>
       <c r="C937" s="11">
         <v>446</v>
@@ -27685,10 +27685,10 @@
     </row>
     <row r="940" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A940" s="8" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B940" s="8" t="s">
         <v>1488</v>
-      </c>
-      <c r="B940" s="8" t="s">
-        <v>2741</v>
       </c>
       <c r="C940" s="10">
         <v>850</v>
@@ -27705,10 +27705,10 @@
     </row>
     <row r="941" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A941" s="8" t="s">
+        <v>2742</v>
+      </c>
+      <c r="B941" s="8" t="s">
         <v>1479</v>
-      </c>
-      <c r="B941" s="8" t="s">
-        <v>2742</v>
       </c>
       <c r="C941" s="11">
         <v>330</v>
@@ -27765,10 +27765,10 @@
     </row>
     <row r="944" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A944" s="8" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B944" s="8" t="s">
         <v>1528</v>
-      </c>
-      <c r="B944" s="8" t="s">
-        <v>2743</v>
       </c>
       <c r="C944" s="10">
         <v>724</v>
@@ -27825,10 +27825,10 @@
     </row>
     <row r="947" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A947" s="8" t="s">
+        <v>2744</v>
+      </c>
+      <c r="B947" s="8" t="s">
         <v>1715</v>
-      </c>
-      <c r="B947" s="8" t="s">
-        <v>2744</v>
       </c>
       <c r="C947" s="11">
         <v>539</v>
@@ -27905,10 +27905,10 @@
     </row>
     <row r="951" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A951" s="8" t="s">
+        <v>2745</v>
+      </c>
+      <c r="B951" s="8" t="s">
         <v>2023</v>
-      </c>
-      <c r="B951" s="8" t="s">
-        <v>2745</v>
       </c>
       <c r="C951" s="11">
         <v>684</v>
@@ -27945,10 +27945,10 @@
     </row>
     <row r="953" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A953" s="8" t="s">
+        <v>2746</v>
+      </c>
+      <c r="B953" s="8" t="s">
         <v>1874</v>
-      </c>
-      <c r="B953" s="8" t="s">
-        <v>2746</v>
       </c>
       <c r="C953" s="10">
         <v>632</v>
@@ -28005,10 +28005,10 @@
     </row>
     <row r="956" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A956" s="8" t="s">
+        <v>2747</v>
+      </c>
+      <c r="B956" s="8" t="s">
         <v>1540</v>
-      </c>
-      <c r="B956" s="8" t="s">
-        <v>2747</v>
       </c>
       <c r="C956" s="11">
         <v>63</v>
@@ -28065,10 +28065,10 @@
     </row>
     <row r="959" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A959" s="8" t="s">
+        <v>2748</v>
+      </c>
+      <c r="B959" s="8" t="s">
         <v>1136</v>
-      </c>
-      <c r="B959" s="8" t="s">
-        <v>2748</v>
       </c>
       <c r="C959" s="10">
         <v>983</v>
@@ -28105,10 +28105,10 @@
     </row>
     <row r="961" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A961" s="8" t="s">
+        <v>2749</v>
+      </c>
+      <c r="B961" s="8" t="s">
         <v>1139</v>
-      </c>
-      <c r="B961" s="8" t="s">
-        <v>2749</v>
       </c>
       <c r="C961" s="10">
         <v>280</v>
@@ -28125,10 +28125,10 @@
     </row>
     <row r="962" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A962" s="8" t="s">
+        <v>2750</v>
+      </c>
+      <c r="B962" s="8" t="s">
         <v>1545</v>
-      </c>
-      <c r="B962" s="8" t="s">
-        <v>2750</v>
       </c>
       <c r="C962" s="11">
         <v>288</v>
@@ -28145,10 +28145,10 @@
     </row>
     <row r="963" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A963" s="8" t="s">
+        <v>2751</v>
+      </c>
+      <c r="B963" s="8" t="s">
         <v>1739</v>
-      </c>
-      <c r="B963" s="8" t="s">
-        <v>2751</v>
       </c>
       <c r="C963" s="10">
         <v>410</v>
@@ -28185,10 +28185,10 @@
     </row>
     <row r="965" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A965" s="8" t="s">
+        <v>2752</v>
+      </c>
+      <c r="B965" s="8" t="s">
         <v>1877</v>
-      </c>
-      <c r="B965" s="8" t="s">
-        <v>2752</v>
       </c>
       <c r="C965" s="10">
         <v>716</v>
@@ -28225,10 +28225,10 @@
     </row>
     <row r="967" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A967" s="8" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B967" s="8" t="s">
         <v>1900</v>
-      </c>
-      <c r="B967" s="8" t="s">
-        <v>2753</v>
       </c>
       <c r="C967" s="10">
         <v>665</v>
@@ -28285,10 +28285,10 @@
     </row>
     <row r="970" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A970" s="8" t="s">
+        <v>2754</v>
+      </c>
+      <c r="B970" s="8" t="s">
         <v>1396</v>
-      </c>
-      <c r="B970" s="8" t="s">
-        <v>2754</v>
       </c>
       <c r="C970" s="11">
         <v>940</v>
@@ -28325,10 +28325,10 @@
     </row>
     <row r="972" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A972" s="8" t="s">
+        <v>2755</v>
+      </c>
+      <c r="B972" s="8" t="s">
         <v>2013</v>
-      </c>
-      <c r="B972" s="8" t="s">
-        <v>2755</v>
       </c>
       <c r="C972" s="11">
         <v>750</v>
@@ -28345,10 +28345,10 @@
     </row>
     <row r="973" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A973" s="8" t="s">
+        <v>2756</v>
+      </c>
+      <c r="B973" s="8" t="s">
         <v>1952</v>
-      </c>
-      <c r="B973" s="8" t="s">
-        <v>2756</v>
       </c>
       <c r="C973" s="10">
         <v>31</v>
@@ -28365,10 +28365,10 @@
     </row>
     <row r="974" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A974" s="8" t="s">
+        <v>2757</v>
+      </c>
+      <c r="B974" s="8" t="s">
         <v>1972</v>
-      </c>
-      <c r="B974" s="8" t="s">
-        <v>2757</v>
       </c>
       <c r="C974" s="11">
         <v>101</v>
@@ -28405,10 +28405,10 @@
     </row>
     <row r="976" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A976" s="8" t="s">
+        <v>2758</v>
+      </c>
+      <c r="B976" s="8" t="s">
         <v>1233</v>
-      </c>
-      <c r="B976" s="8" t="s">
-        <v>2758</v>
       </c>
       <c r="C976" s="11">
         <v>640</v>
@@ -28445,10 +28445,10 @@
     </row>
     <row r="978" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A978" s="8" t="s">
+        <v>2759</v>
+      </c>
+      <c r="B978" s="8" t="s">
         <v>1592</v>
-      </c>
-      <c r="B978" s="8" t="s">
-        <v>2759</v>
       </c>
       <c r="C978" s="11">
         <v>418</v>
@@ -28465,10 +28465,10 @@
     </row>
     <row r="979" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A979" s="8" t="s">
+        <v>2760</v>
+      </c>
+      <c r="B979" s="8" t="s">
         <v>1597</v>
-      </c>
-      <c r="B979" s="8" t="s">
-        <v>2760</v>
       </c>
       <c r="C979" s="10">
         <v>111</v>
@@ -28485,10 +28485,10 @@
     </row>
     <row r="980" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A980" s="8" t="s">
+        <v>2761</v>
+      </c>
+      <c r="B980" s="8" t="s">
         <v>1973</v>
-      </c>
-      <c r="B980" s="8" t="s">
-        <v>2761</v>
       </c>
       <c r="C980" s="11">
         <v>115</v>
@@ -28505,10 +28505,10 @@
     </row>
     <row r="981" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A981" s="8" t="s">
+        <v>2762</v>
+      </c>
+      <c r="B981" s="8" t="s">
         <v>1438</v>
-      </c>
-      <c r="B981" s="8" t="s">
-        <v>2762</v>
       </c>
       <c r="C981" s="10">
         <v>87</v>
@@ -28545,10 +28545,10 @@
     </row>
     <row r="983" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A983" s="8" t="s">
+        <v>2763</v>
+      </c>
+      <c r="B983" s="8" t="s">
         <v>1727</v>
-      </c>
-      <c r="B983" s="8" t="s">
-        <v>2763</v>
       </c>
       <c r="C983" s="10">
         <v>881</v>
@@ -28565,10 +28565,10 @@
     </row>
     <row r="984" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A984" s="8" t="s">
+        <v>2764</v>
+      </c>
+      <c r="B984" s="8" t="s">
         <v>1441</v>
-      </c>
-      <c r="B984" s="8" t="s">
-        <v>2764</v>
       </c>
       <c r="C984" s="11">
         <v>156</v>
@@ -28605,10 +28605,10 @@
     </row>
     <row r="986" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A986" s="8" t="s">
+        <v>2765</v>
+      </c>
+      <c r="B986" s="8" t="s">
         <v>1734</v>
-      </c>
-      <c r="B986" s="8" t="s">
-        <v>2765</v>
       </c>
       <c r="C986" s="10">
         <v>158</v>
@@ -28625,10 +28625,10 @@
     </row>
     <row r="987" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A987" s="8" t="s">
+        <v>2766</v>
+      </c>
+      <c r="B987" s="8" t="s">
         <v>1344</v>
-      </c>
-      <c r="B987" s="8" t="s">
-        <v>2766</v>
       </c>
       <c r="C987" s="11">
         <v>66</v>
@@ -28685,10 +28685,10 @@
     </row>
     <row r="990" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A990" s="8" t="s">
+        <v>2767</v>
+      </c>
+      <c r="B990" s="8" t="s">
         <v>1375</v>
-      </c>
-      <c r="B990" s="8" t="s">
-        <v>2767</v>
       </c>
       <c r="C990" s="10">
         <v>859</v>
@@ -28705,10 +28705,10 @@
     </row>
     <row r="991" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A991" s="8" t="s">
+        <v>2768</v>
+      </c>
+      <c r="B991" s="8" t="s">
         <v>1707</v>
-      </c>
-      <c r="B991" s="8" t="s">
-        <v>2768</v>
       </c>
       <c r="C991" s="11">
         <v>378</v>
@@ -28725,10 +28725,10 @@
     </row>
     <row r="992" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A992" s="8" t="s">
+        <v>2769</v>
+      </c>
+      <c r="B992" s="8" t="s">
         <v>1182</v>
-      </c>
-      <c r="B992" s="8" t="s">
-        <v>2769</v>
       </c>
       <c r="C992" s="10">
         <v>130</v>
@@ -28745,10 +28745,10 @@
     </row>
     <row r="993" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A993" s="8" t="s">
+        <v>2770</v>
+      </c>
+      <c r="B993" s="8" t="s">
         <v>1682</v>
-      </c>
-      <c r="B993" s="8" t="s">
-        <v>2770</v>
       </c>
       <c r="C993" s="11">
         <v>334</v>
@@ -28765,10 +28765,10 @@
     </row>
     <row r="994" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A994" s="8" t="s">
+        <v>2771</v>
+      </c>
+      <c r="B994" s="8" t="s">
         <v>1735</v>
-      </c>
-      <c r="B994" s="8" t="s">
-        <v>2771</v>
       </c>
       <c r="C994" s="10">
         <v>169</v>
@@ -28785,10 +28785,10 @@
     </row>
     <row r="995" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A995" s="8" t="s">
+        <v>2772</v>
+      </c>
+      <c r="B995" s="8" t="s">
         <v>1196</v>
-      </c>
-      <c r="B995" s="8" t="s">
-        <v>2772</v>
       </c>
       <c r="C995" s="11">
         <v>991</v>
@@ -28864,9 +28864,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F998" xr:uid="{5A26B39A-AF59-43D6-8C67-8183F70EB292}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F998">
-      <sortCondition ref="A1:A998"/>
+  <autoFilter ref="B1:F998" xr:uid="{5A26B39A-AF59-43D6-8C67-8183F70EB292}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F998">
+      <sortCondition ref="B1:B998"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30274,15 +30274,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002A0EEB8DA4CC604E82D6976E9C0827D8" ma:contentTypeVersion="39" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="499bdf2e92cd005e954ee1f014534fd1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c4fc04fa-4910-4407-9f8a-04884c1f40b6" xmlns:ns4="f6d2dbfd-717b-42c5-99f9-d183cf681612" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="711321eb69d913c58afadf6eda11a348" ns3:_="" ns4:_="">
     <xsd:import namespace="c4fc04fa-4910-4407-9f8a-04884c1f40b6"/>
@@ -30729,6 +30720,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1FB0C47-BA9F-42F7-8C8E-9EB410CA4EAB}">
   <ds:schemaRefs>
@@ -30747,14 +30747,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{077E51B5-AEFE-451C-807B-A8AA2E70ABEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{017E94B7-83A8-4BA8-B926-03A17BF39722}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30771,4 +30763,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{077E51B5-AEFE-451C-807B-A8AA2E70ABEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>